--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A10ABE5-4621-4C48-931B-9BD58929BA1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C8E45B-A754-4135-B003-FB3BB820FB81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2037,8 +2037,8 @@
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>4</v>
+      <c r="C12" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D12" s="2">
         <v>7</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C8E45B-A754-4135-B003-FB3BB820FB81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C1B6E2-2480-4CB6-9F40-78A29B3AF67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,13 +1426,19 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>need to rethink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1501,8 +1507,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1518,6 +1538,16 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1545,12 +1575,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1578,10 +1610,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1896,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1941,9 +1981,7 @@
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="21">
@@ -2051,8 +2089,8 @@
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
+      <c r="C13" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D13" s="2">
         <v>8</v>
@@ -2065,8 +2103,8 @@
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>4</v>
+      <c r="C14" s="14" t="s">
+        <v>467</v>
       </c>
       <c r="D14" s="2">
         <v>9</v>
@@ -2079,8 +2117,8 @@
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
+      <c r="C15" s="14" t="s">
+        <v>468</v>
       </c>
       <c r="D15" s="2">
         <v>10</v>
@@ -2093,7 +2131,7 @@
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2">
@@ -2107,7 +2145,7 @@
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2">
@@ -2121,7 +2159,7 @@
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="2">
@@ -2135,7 +2173,7 @@
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="2">
@@ -2149,7 +2187,7 @@
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="2">
@@ -2163,7 +2201,7 @@
       <c r="B21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="2">
@@ -2177,7 +2215,7 @@
       <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="2">
@@ -2191,7 +2229,7 @@
       <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="2">
@@ -2205,7 +2243,7 @@
       <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="2">
@@ -2219,7 +2257,7 @@
       <c r="B25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="2">
@@ -2233,7 +2271,7 @@
       <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="2">
@@ -2247,7 +2285,7 @@
       <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="2">
@@ -2261,7 +2299,7 @@
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2">
@@ -2275,7 +2313,7 @@
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2">
@@ -2289,7 +2327,7 @@
       <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="2">
@@ -2303,7 +2341,7 @@
       <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="2">
@@ -2317,7 +2355,7 @@
       <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="2">
@@ -2331,7 +2369,7 @@
       <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="2">
@@ -2345,7 +2383,7 @@
       <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="2">
@@ -2359,7 +2397,7 @@
       <c r="B35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="2">
@@ -2373,7 +2411,7 @@
       <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="2">
@@ -2387,7 +2425,7 @@
       <c r="B37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="2">
@@ -2401,7 +2439,7 @@
       <c r="B38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="2">
@@ -2415,7 +2453,7 @@
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="2">
@@ -2429,7 +2467,7 @@
       <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="2">
@@ -2443,7 +2481,7 @@
       <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="2">
@@ -2453,9 +2491,7 @@
     <row r="42" spans="1:4" ht="21">
       <c r="A42" s="2"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="C42" s="6"/>
       <c r="D42" s="2" t="s">
         <v>466</v>
       </c>
@@ -2463,9 +2499,7 @@
     <row r="43" spans="1:4" ht="21">
       <c r="A43" s="7"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="C43" s="6"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" ht="21">
@@ -2475,10 +2509,12 @@
       <c r="B44" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="2"/>
+      <c r="C44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="21">
       <c r="A45" s="10" t="s">
@@ -2487,10 +2523,12 @@
       <c r="B45" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="2"/>
+      <c r="C45" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="21">
       <c r="A46" s="10" t="s">
@@ -2499,10 +2537,12 @@
       <c r="B46" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="2"/>
+      <c r="C46" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="21">
       <c r="A47" s="10" t="s">
@@ -2511,10 +2551,12 @@
       <c r="B47" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="2"/>
+      <c r="C47" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="21">
       <c r="A48" s="10" t="s">
@@ -2523,10 +2565,12 @@
       <c r="B48" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="2"/>
+      <c r="C48" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="21">
       <c r="A49" s="10" t="s">
@@ -2535,10 +2579,12 @@
       <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="2"/>
+      <c r="C49" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="21">
       <c r="A50" s="10" t="s">
@@ -2547,10 +2593,12 @@
       <c r="B50" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="2"/>
+      <c r="C50" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="21">
       <c r="A51" s="10" t="s">
@@ -2559,10 +2607,12 @@
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="2"/>
+      <c r="C51" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="21">
       <c r="A52" s="10" t="s">
@@ -2571,10 +2621,12 @@
       <c r="B52" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="2"/>
+      <c r="C52" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="21">
       <c r="A53" s="10" t="s">
@@ -2583,10 +2635,12 @@
       <c r="B53" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="2"/>
+      <c r="C53" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2"/>
@@ -2607,10 +2661,12 @@
       <c r="B56" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="2"/>
+      <c r="C56" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="21">
       <c r="A57" s="7" t="s">
@@ -2619,10 +2675,12 @@
       <c r="B57" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="2"/>
+      <c r="C57" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="21">
       <c r="A58" s="7" t="s">
@@ -2631,10 +2689,12 @@
       <c r="B58" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="2"/>
+      <c r="C58" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="21">
       <c r="A59" s="7" t="s">
@@ -2643,10 +2703,12 @@
       <c r="B59" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="2"/>
+      <c r="C59" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="21">
       <c r="A60" s="7" t="s">
@@ -2655,10 +2717,12 @@
       <c r="B60" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="2"/>
+      <c r="C60" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="21">
       <c r="A61" s="7" t="s">
@@ -2667,10 +2731,12 @@
       <c r="B61" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="2"/>
+      <c r="C61" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="21">
       <c r="A62" s="7" t="s">
@@ -2679,10 +2745,12 @@
       <c r="B62" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="2"/>
+      <c r="C62" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="21">
       <c r="A63" s="7" t="s">
@@ -2691,10 +2759,12 @@
       <c r="B63" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="2"/>
+      <c r="C63" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="21">
       <c r="A64" s="7" t="s">
@@ -2703,10 +2773,12 @@
       <c r="B64" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="2"/>
+      <c r="C64" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="21">
       <c r="A65" s="7" t="s">
@@ -2715,10 +2787,12 @@
       <c r="B65" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="2"/>
+      <c r="C65" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="21">
       <c r="A66" s="7" t="s">
@@ -2727,10 +2801,12 @@
       <c r="B66" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="2"/>
+      <c r="C66" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="21">
       <c r="A67" s="7" t="s">
@@ -2739,10 +2815,12 @@
       <c r="B67" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="2"/>
+      <c r="C67" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="21">
       <c r="A68" s="7" t="s">
@@ -2751,10 +2829,12 @@
       <c r="B68" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="2"/>
+      <c r="C68" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="21">
       <c r="A69" s="7" t="s">
@@ -2763,10 +2843,12 @@
       <c r="B69" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="2"/>
+      <c r="C69" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="21">
       <c r="A70" s="7" t="s">
@@ -2775,10 +2857,12 @@
       <c r="B70" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="2"/>
+      <c r="C70" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="21">
       <c r="A71" s="7" t="s">
@@ -2787,10 +2871,12 @@
       <c r="B71" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="2"/>
+      <c r="C71" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="21">
       <c r="A72" s="7" t="s">
@@ -2799,10 +2885,12 @@
       <c r="B72" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="2"/>
+      <c r="C72" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="21">
       <c r="A73" s="7" t="s">
@@ -2811,10 +2899,12 @@
       <c r="B73" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="2"/>
+      <c r="C73" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="21">
       <c r="A74" s="7" t="s">
@@ -2823,10 +2913,12 @@
       <c r="B74" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="2"/>
+      <c r="C74" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="21">
       <c r="A75" s="7" t="s">
@@ -2835,10 +2927,12 @@
       <c r="B75" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="2"/>
+      <c r="C75" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="21">
       <c r="A76" s="7" t="s">
@@ -2847,10 +2941,12 @@
       <c r="B76" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="2"/>
+      <c r="C76" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="21">
       <c r="A77" s="7" t="s">
@@ -2859,10 +2955,12 @@
       <c r="B77" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="2"/>
+      <c r="C77" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="21">
       <c r="A78" s="7" t="s">
@@ -2871,10 +2969,12 @@
       <c r="B78" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" s="2"/>
+      <c r="C78" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="21">
       <c r="A79" s="7" t="s">
@@ -2883,10 +2983,12 @@
       <c r="B79" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="2"/>
+      <c r="C79" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="21">
       <c r="A80" s="7" t="s">
@@ -2895,10 +2997,12 @@
       <c r="B80" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="2"/>
+      <c r="C80" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="21">
       <c r="A81" s="7" t="s">
@@ -2907,10 +3011,12 @@
       <c r="B81" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="2"/>
+      <c r="C81" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="21">
       <c r="A82" s="7" t="s">
@@ -2919,10 +3025,12 @@
       <c r="B82" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="2"/>
+      <c r="C82" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="21">
       <c r="A83" s="7" t="s">
@@ -2931,10 +3039,12 @@
       <c r="B83" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="2"/>
+      <c r="C83" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="21">
       <c r="A84" s="7" t="s">
@@ -2943,10 +3053,12 @@
       <c r="B84" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="2"/>
+      <c r="C84" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="21">
       <c r="A85" s="7" t="s">
@@ -2955,10 +3067,12 @@
       <c r="B85" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="2"/>
+      <c r="C85" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="21">
       <c r="A86" s="7" t="s">
@@ -2967,10 +3081,12 @@
       <c r="B86" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="2"/>
+      <c r="C86" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="21">
       <c r="A87" s="7" t="s">
@@ -2979,10 +3095,12 @@
       <c r="B87" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="2"/>
+      <c r="C87" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="21">
       <c r="A88" s="7" t="s">
@@ -2991,10 +3109,12 @@
       <c r="B88" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="2"/>
+      <c r="C88" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="21">
       <c r="A89" s="7" t="s">
@@ -3003,10 +3123,12 @@
       <c r="B89" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="2"/>
+      <c r="C89" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="21">
       <c r="A90" s="7" t="s">
@@ -3015,10 +3137,12 @@
       <c r="B90" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="2"/>
+      <c r="C90" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="91" spans="1:4" ht="21">
       <c r="A91" s="7" t="s">
@@ -3027,10 +3151,12 @@
       <c r="B91" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="2"/>
+      <c r="C91" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="21">
       <c r="A92" s="7" t="s">
@@ -3039,10 +3165,12 @@
       <c r="B92" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="2"/>
+      <c r="C92" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="21">
       <c r="A93" s="7" t="s">
@@ -3051,10 +3179,12 @@
       <c r="B93" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" s="2"/>
+      <c r="C93" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="21">
       <c r="A94" s="7" t="s">
@@ -3063,10 +3193,12 @@
       <c r="B94" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="2"/>
+      <c r="C94" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="21">
       <c r="A95" s="7" t="s">
@@ -3075,10 +3207,12 @@
       <c r="B95" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="2"/>
+      <c r="C95" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="21">
       <c r="A96" s="7" t="s">
@@ -3087,10 +3221,12 @@
       <c r="B96" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="2"/>
+      <c r="C96" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="21">
       <c r="A97" s="7" t="s">
@@ -3099,10 +3235,12 @@
       <c r="B97" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" s="2"/>
+      <c r="C97" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="2">
+        <v>42</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="21">
       <c r="A98" s="7" t="s">
@@ -3111,10 +3249,12 @@
       <c r="B98" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D98" s="2"/>
+      <c r="C98" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2"/>
@@ -3135,10 +3275,12 @@
       <c r="B101" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="2"/>
+      <c r="C101" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="21">
       <c r="A102" s="7" t="s">
@@ -3147,10 +3289,12 @@
       <c r="B102" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" s="2"/>
+      <c r="C102" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:4" ht="21">
       <c r="A103" s="7" t="s">
@@ -3159,10 +3303,12 @@
       <c r="B103" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="2"/>
+      <c r="C103" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="104" spans="1:4" ht="21">
       <c r="A104" s="7" t="s">
@@ -3171,10 +3317,12 @@
       <c r="B104" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D104" s="2"/>
+      <c r="C104" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="105" spans="1:4" ht="21">
       <c r="A105" s="7" t="s">
@@ -3183,10 +3331,12 @@
       <c r="B105" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D105" s="2"/>
+      <c r="C105" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="21">
       <c r="A106" s="7" t="s">
@@ -3195,10 +3345,12 @@
       <c r="B106" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D106" s="2"/>
+      <c r="C106" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="107" spans="1:4" ht="21">
       <c r="A107" s="7" t="s">
@@ -3207,10 +3359,12 @@
       <c r="B107" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D107" s="2"/>
+      <c r="C107" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="21">
       <c r="A108" s="7" t="s">
@@ -3219,10 +3373,12 @@
       <c r="B108" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" s="2"/>
+      <c r="C108" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="21">
       <c r="A109" s="7" t="s">
@@ -3231,10 +3387,12 @@
       <c r="B109" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" s="2"/>
+      <c r="C109" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="21">
       <c r="A110" s="7" t="s">
@@ -3243,10 +3401,12 @@
       <c r="B110" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D110" s="2"/>
+      <c r="C110" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="111" spans="1:4" ht="21">
       <c r="A111" s="7" t="s">
@@ -3255,10 +3415,12 @@
       <c r="B111" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" s="2"/>
+      <c r="C111" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="112" spans="1:4" ht="21">
       <c r="A112" s="7" t="s">
@@ -3267,10 +3429,12 @@
       <c r="B112" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D112" s="2"/>
+      <c r="C112" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="21">
       <c r="A113" s="7" t="s">
@@ -3279,10 +3443,12 @@
       <c r="B113" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D113" s="2"/>
+      <c r="C113" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="114" spans="1:4" ht="21">
       <c r="A114" s="7" t="s">
@@ -3291,10 +3457,12 @@
       <c r="B114" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" s="2"/>
+      <c r="C114" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="115" spans="1:4" ht="21">
       <c r="A115" s="7" t="s">
@@ -3303,10 +3471,12 @@
       <c r="B115" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" s="2"/>
+      <c r="C115" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="116" spans="1:4" ht="21">
       <c r="A116" s="7" t="s">
@@ -3315,10 +3485,12 @@
       <c r="B116" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" s="2"/>
+      <c r="C116" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="117" spans="1:4" ht="21">
       <c r="A117" s="7" t="s">
@@ -3327,10 +3499,12 @@
       <c r="B117" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="2"/>
+      <c r="C117" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="118" spans="1:4" ht="21">
       <c r="A118" s="7" t="s">
@@ -3339,10 +3513,12 @@
       <c r="B118" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" s="2"/>
+      <c r="C118" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="119" spans="1:4" ht="21">
       <c r="A119" s="7" t="s">
@@ -3351,10 +3527,12 @@
       <c r="B119" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" s="2"/>
+      <c r="C119" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="120" spans="1:4" ht="21">
       <c r="A120" s="7" t="s">
@@ -3363,10 +3541,12 @@
       <c r="B120" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D120" s="2"/>
+      <c r="C120" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="121" spans="1:4" ht="21">
       <c r="A121" s="7" t="s">
@@ -3375,10 +3555,12 @@
       <c r="B121" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D121" s="2"/>
+      <c r="C121" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="122" spans="1:4" ht="21">
       <c r="A122" s="7" t="s">
@@ -3387,10 +3569,12 @@
       <c r="B122" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D122" s="2"/>
+      <c r="C122" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="21">
       <c r="A123" s="7" t="s">
@@ -3399,10 +3583,12 @@
       <c r="B123" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="2"/>
+      <c r="C123" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="124" spans="1:4" ht="21">
       <c r="A124" s="7" t="s">
@@ -3411,10 +3597,12 @@
       <c r="B124" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" s="2"/>
+      <c r="C124" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="125" spans="1:4" ht="21">
       <c r="A125" s="7" t="s">
@@ -3423,10 +3611,12 @@
       <c r="B125" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D125" s="2"/>
+      <c r="C125" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="126" spans="1:4" ht="21">
       <c r="A126" s="7" t="s">
@@ -3435,10 +3625,12 @@
       <c r="B126" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D126" s="2"/>
+      <c r="C126" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="127" spans="1:4" ht="21">
       <c r="A127" s="7" t="s">
@@ -3447,10 +3639,12 @@
       <c r="B127" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D127" s="2"/>
+      <c r="C127" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="128" spans="1:4" ht="21">
       <c r="A128" s="7" t="s">
@@ -3459,10 +3653,12 @@
       <c r="B128" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D128" s="2"/>
+      <c r="C128" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="129" spans="1:4" ht="21">
       <c r="A129" s="7" t="s">
@@ -3471,10 +3667,12 @@
       <c r="B129" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D129" s="2"/>
+      <c r="C129" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="130" spans="1:4" ht="21">
       <c r="A130" s="7" t="s">
@@ -3483,10 +3681,12 @@
       <c r="B130" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D130" s="2"/>
+      <c r="C130" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="131" spans="1:4" ht="21">
       <c r="A131" s="7" t="s">
@@ -3495,10 +3695,12 @@
       <c r="B131" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D131" s="2"/>
+      <c r="C131" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="132" spans="1:4" ht="21">
       <c r="A132" s="7" t="s">
@@ -3507,10 +3709,12 @@
       <c r="B132" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D132" s="2"/>
+      <c r="C132" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="133" spans="1:4" ht="21">
       <c r="A133" s="7" t="s">
@@ -3519,10 +3723,12 @@
       <c r="B133" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" s="2"/>
+      <c r="C133" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="134" spans="1:4" ht="21">
       <c r="A134" s="7" t="s">
@@ -3531,10 +3737,12 @@
       <c r="B134" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="2"/>
+      <c r="C134" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="135" spans="1:4" ht="21">
       <c r="A135" s="7" t="s">
@@ -3543,10 +3751,12 @@
       <c r="B135" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D135" s="2"/>
+      <c r="C135" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="136" spans="1:4" ht="21">
       <c r="A136" s="7" t="s">
@@ -3555,10 +3765,12 @@
       <c r="B136" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D136" s="2"/>
+      <c r="C136" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2"/>
@@ -3579,10 +3791,12 @@
       <c r="B139" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D139" s="2"/>
+      <c r="C139" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:4" ht="21">
       <c r="A140" s="10" t="s">
@@ -3591,10 +3805,12 @@
       <c r="B140" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" s="2"/>
+      <c r="C140" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="141" spans="1:4" ht="21">
       <c r="A141" s="10" t="s">
@@ -3603,10 +3819,12 @@
       <c r="B141" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="2"/>
+      <c r="C141" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="142" spans="1:4" ht="21">
       <c r="A142" s="10" t="s">
@@ -3615,10 +3833,12 @@
       <c r="B142" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D142" s="2"/>
+      <c r="C142" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="143" spans="1:4" ht="21">
       <c r="A143" s="10" t="s">
@@ -3627,10 +3847,12 @@
       <c r="B143" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D143" s="2"/>
+      <c r="C143" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="144" spans="1:4" ht="21">
       <c r="A144" s="10" t="s">
@@ -3639,10 +3861,12 @@
       <c r="B144" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" s="2"/>
+      <c r="C144" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="145" spans="1:4" ht="21">
       <c r="A145" s="10" t="s">
@@ -3651,10 +3875,12 @@
       <c r="B145" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D145" s="2"/>
+      <c r="C145" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="146" spans="1:4" ht="21">
       <c r="A146" s="10" t="s">
@@ -3663,10 +3889,12 @@
       <c r="B146" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D146" s="2"/>
+      <c r="C146" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="147" spans="1:4" ht="21">
       <c r="A147" s="10" t="s">
@@ -3675,10 +3903,12 @@
       <c r="B147" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D147" s="2"/>
+      <c r="C147" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="148" spans="1:4" ht="21">
       <c r="A148" s="10" t="s">
@@ -3687,10 +3917,12 @@
       <c r="B148" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D148" s="2"/>
+      <c r="C148" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="149" spans="1:4" ht="21">
       <c r="A149" s="10" t="s">
@@ -3699,10 +3931,12 @@
       <c r="B149" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D149" s="2"/>
+      <c r="C149" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="150" spans="1:4" ht="21">
       <c r="A150" s="10" t="s">
@@ -3711,10 +3945,12 @@
       <c r="B150" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D150" s="2"/>
+      <c r="C150" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="151" spans="1:4" ht="21">
       <c r="A151" s="10" t="s">
@@ -3723,10 +3959,12 @@
       <c r="B151" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D151" s="2"/>
+      <c r="C151" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="152" spans="1:4" ht="21">
       <c r="A152" s="10" t="s">
@@ -3735,10 +3973,12 @@
       <c r="B152" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D152" s="2"/>
+      <c r="C152" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="153" spans="1:4" ht="21">
       <c r="A153" s="10" t="s">
@@ -3747,10 +3987,12 @@
       <c r="B153" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D153" s="2"/>
+      <c r="C153" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="154" spans="1:4" ht="21">
       <c r="A154" s="10" t="s">
@@ -3759,10 +4001,12 @@
       <c r="B154" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D154" s="2"/>
+      <c r="C154" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="155" spans="1:4" ht="21">
       <c r="A155" s="10" t="s">
@@ -3771,10 +4015,12 @@
       <c r="B155" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D155" s="2"/>
+      <c r="C155" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="156" spans="1:4" ht="21">
       <c r="A156" s="10" t="s">
@@ -3783,10 +4029,12 @@
       <c r="B156" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C156" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D156" s="2"/>
+      <c r="C156" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="157" spans="1:4" ht="21">
       <c r="A157" s="10" t="s">
@@ -3795,10 +4043,12 @@
       <c r="B157" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D157" s="2"/>
+      <c r="C157" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="158" spans="1:4" ht="21">
       <c r="A158" s="10" t="s">
@@ -3807,10 +4057,12 @@
       <c r="B158" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D158" s="2"/>
+      <c r="C158" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="159" spans="1:4" ht="21">
       <c r="A159" s="10" t="s">
@@ -3819,10 +4071,12 @@
       <c r="B159" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D159" s="2"/>
+      <c r="C159" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="160" spans="1:4" ht="21">
       <c r="A160" s="10" t="s">
@@ -3831,10 +4085,12 @@
       <c r="B160" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" s="2"/>
+      <c r="C160" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="161" spans="1:4" ht="21">
       <c r="A161" s="10" t="s">
@@ -3843,10 +4099,12 @@
       <c r="B161" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161" s="2"/>
+      <c r="C161" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="162" spans="1:4" ht="21">
       <c r="A162" s="10" t="s">
@@ -3855,10 +4113,12 @@
       <c r="B162" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162" s="2"/>
+      <c r="C162" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="163" spans="1:4" ht="21">
       <c r="A163" s="10" t="s">
@@ -3867,10 +4127,12 @@
       <c r="B163" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C163" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" s="2"/>
+      <c r="C163" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="164" spans="1:4" ht="21">
       <c r="A164" s="10" t="s">
@@ -3879,10 +4141,12 @@
       <c r="B164" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D164" s="2"/>
+      <c r="C164" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="165" spans="1:4" ht="21">
       <c r="A165" s="10" t="s">
@@ -3891,10 +4155,12 @@
       <c r="B165" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D165" s="2"/>
+      <c r="C165" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="166" spans="1:4" ht="21">
       <c r="A166" s="10" t="s">
@@ -3903,10 +4169,12 @@
       <c r="B166" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D166" s="2"/>
+      <c r="C166" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="167" spans="1:4" ht="21">
       <c r="A167" s="10" t="s">
@@ -3915,10 +4183,12 @@
       <c r="B167" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D167" s="2"/>
+      <c r="C167" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="168" spans="1:4" ht="21">
       <c r="A168" s="10" t="s">
@@ -3927,10 +4197,12 @@
       <c r="B168" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D168" s="2"/>
+      <c r="C168" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="169" spans="1:4" ht="21">
       <c r="A169" s="10" t="s">
@@ -3939,10 +4211,12 @@
       <c r="B169" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D169" s="2"/>
+      <c r="C169" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="170" spans="1:4" ht="21">
       <c r="A170" s="10" t="s">
@@ -3951,10 +4225,12 @@
       <c r="B170" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D170" s="2"/>
+      <c r="C170" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="171" spans="1:4" ht="21">
       <c r="A171" s="10" t="s">
@@ -3963,10 +4239,12 @@
       <c r="B171" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D171" s="2"/>
+      <c r="C171" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="172" spans="1:4" ht="21">
       <c r="A172" s="10" t="s">
@@ -3975,10 +4253,12 @@
       <c r="B172" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D172" s="2"/>
+      <c r="C172" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="173" spans="1:4" ht="21">
       <c r="A173" s="10" t="s">
@@ -3987,10 +4267,12 @@
       <c r="B173" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D173" s="2"/>
+      <c r="C173" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="174" spans="1:4" ht="21">
       <c r="A174" s="10" t="s">
@@ -3999,10 +4281,12 @@
       <c r="B174" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D174" s="2"/>
+      <c r="C174" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2"/>
@@ -4023,10 +4307,12 @@
       <c r="B177" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D177" s="2"/>
+      <c r="C177" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" spans="1:4" ht="21">
       <c r="A178" s="7" t="s">
@@ -4035,10 +4321,12 @@
       <c r="B178" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C178" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" s="2"/>
+      <c r="C178" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="179" spans="1:4" ht="21">
       <c r="A179" s="7" t="s">
@@ -4047,10 +4335,12 @@
       <c r="B179" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C179" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D179" s="2"/>
+      <c r="C179" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="180" spans="1:4" ht="21">
       <c r="A180" s="7" t="s">
@@ -4059,10 +4349,12 @@
       <c r="B180" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C180" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D180" s="2"/>
+      <c r="C180" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="181" spans="1:4" ht="21">
       <c r="A181" s="7" t="s">
@@ -4071,10 +4363,12 @@
       <c r="B181" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C181" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D181" s="2"/>
+      <c r="C181" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="182" spans="1:4" ht="21">
       <c r="A182" s="7" t="s">
@@ -4083,10 +4377,12 @@
       <c r="B182" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C182" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D182" s="2"/>
+      <c r="C182" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="183" spans="1:4" ht="21">
       <c r="A183" s="7" t="s">
@@ -4095,10 +4391,12 @@
       <c r="B183" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C183" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D183" s="2"/>
+      <c r="C183" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="184" spans="1:4" ht="21">
       <c r="A184" s="7" t="s">
@@ -4107,10 +4405,12 @@
       <c r="B184" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D184" s="2"/>
+      <c r="C184" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="185" spans="1:4" ht="21">
       <c r="A185" s="7" t="s">
@@ -4119,10 +4419,12 @@
       <c r="B185" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C185" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D185" s="2"/>
+      <c r="C185" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="186" spans="1:4" ht="21">
       <c r="A186" s="7" t="s">
@@ -4131,10 +4433,12 @@
       <c r="B186" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D186" s="2"/>
+      <c r="C186" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="187" spans="1:4" ht="21">
       <c r="A187" s="7" t="s">
@@ -4143,10 +4447,12 @@
       <c r="B187" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D187" s="2"/>
+      <c r="C187" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="188" spans="1:4" ht="21">
       <c r="A188" s="7" t="s">
@@ -4155,10 +4461,12 @@
       <c r="B188" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D188" s="2"/>
+      <c r="C188" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="189" spans="1:4" ht="21">
       <c r="A189" s="7" t="s">
@@ -4167,10 +4475,12 @@
       <c r="B189" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D189" s="2"/>
+      <c r="C189" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="190" spans="1:4" ht="21">
       <c r="A190" s="7" t="s">
@@ -4179,10 +4489,12 @@
       <c r="B190" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D190" s="2"/>
+      <c r="C190" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="191" spans="1:4" ht="21">
       <c r="A191" s="7" t="s">
@@ -4191,10 +4503,12 @@
       <c r="B191" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C191" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D191" s="2"/>
+      <c r="C191" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="192" spans="1:4" ht="21">
       <c r="A192" s="7" t="s">
@@ -4203,10 +4517,12 @@
       <c r="B192" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C192" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D192" s="2"/>
+      <c r="C192" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="193" spans="1:4" ht="21">
       <c r="A193" s="7" t="s">
@@ -4215,10 +4531,12 @@
       <c r="B193" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C193" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D193" s="2"/>
+      <c r="C193" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="194" spans="1:4" ht="21">
       <c r="A194" s="7" t="s">
@@ -4227,10 +4545,12 @@
       <c r="B194" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C194" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D194" s="2"/>
+      <c r="C194" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="195" spans="1:4" ht="21">
       <c r="A195" s="7" t="s">
@@ -4239,10 +4559,12 @@
       <c r="B195" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D195" s="2"/>
+      <c r="C195" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="196" spans="1:4" ht="21">
       <c r="A196" s="7" t="s">
@@ -4251,10 +4573,12 @@
       <c r="B196" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D196" s="2"/>
+      <c r="C196" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="197" spans="1:4" ht="21">
       <c r="A197" s="7" t="s">
@@ -4263,10 +4587,12 @@
       <c r="B197" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C197" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D197" s="2"/>
+      <c r="C197" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="198" spans="1:4" ht="21">
       <c r="A198" s="7" t="s">
@@ -4275,10 +4601,12 @@
       <c r="B198" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D198" s="2"/>
+      <c r="C198" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="199" spans="1:4" ht="21">
       <c r="A199" s="7" t="s">
@@ -4287,10 +4615,12 @@
       <c r="B199" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D199" s="2"/>
+      <c r="C199" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="200" spans="1:4" ht="21">
       <c r="A200" s="7" t="s">
@@ -4299,10 +4629,12 @@
       <c r="B200" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C200" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D200" s="2"/>
+      <c r="C200" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="201" spans="1:4" ht="21">
       <c r="A201" s="7" t="s">
@@ -4311,10 +4643,12 @@
       <c r="B201" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C201" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D201" s="2"/>
+      <c r="C201" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="202" spans="1:4" ht="21">
       <c r="A202" s="7" t="s">
@@ -4323,10 +4657,12 @@
       <c r="B202" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D202" s="2"/>
+      <c r="C202" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="203" spans="1:4" ht="21">
       <c r="A203" s="7" t="s">
@@ -4335,10 +4671,12 @@
       <c r="B203" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C203" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D203" s="2"/>
+      <c r="C203" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="204" spans="1:4" ht="21">
       <c r="A204" s="7" t="s">
@@ -4347,10 +4685,12 @@
       <c r="B204" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C204" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D204" s="2"/>
+      <c r="C204" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="205" spans="1:4" ht="21">
       <c r="A205" s="7" t="s">
@@ -4359,10 +4699,12 @@
       <c r="B205" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D205" s="2"/>
+      <c r="C205" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="206" spans="1:4" ht="21">
       <c r="A206" s="7" t="s">
@@ -4371,10 +4713,12 @@
       <c r="B206" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D206" s="2"/>
+      <c r="C206" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="207" spans="1:4" ht="21">
       <c r="A207" s="7" t="s">
@@ -4383,10 +4727,12 @@
       <c r="B207" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C207" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D207" s="2"/>
+      <c r="C207" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="208" spans="1:4" ht="21">
       <c r="A208" s="7" t="s">
@@ -4395,10 +4741,12 @@
       <c r="B208" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C208" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D208" s="2"/>
+      <c r="C208" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D208" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="209" spans="1:4" ht="21">
       <c r="A209" s="7" t="s">
@@ -4407,10 +4755,12 @@
       <c r="B209" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C209" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D209" s="2"/>
+      <c r="C209" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="210" spans="1:4" ht="21">
       <c r="A210" s="7" t="s">
@@ -4419,10 +4769,12 @@
       <c r="B210" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C210" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D210" s="2"/>
+      <c r="C210" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="211" spans="1:4" ht="21">
       <c r="A211" s="7" t="s">
@@ -4431,10 +4783,12 @@
       <c r="B211" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C211" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D211" s="2"/>
+      <c r="C211" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="212" spans="1:4" ht="21">
       <c r="A212" s="10"/>
@@ -4455,10 +4809,12 @@
       <c r="B214" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C214" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D214" s="2"/>
+      <c r="C214" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" spans="1:4" ht="21">
       <c r="A215" s="7" t="s">
@@ -4467,10 +4823,12 @@
       <c r="B215" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D215" s="2"/>
+      <c r="C215" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D215" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="216" spans="1:4" ht="21">
       <c r="A216" s="7" t="s">
@@ -4479,10 +4837,12 @@
       <c r="B216" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C216" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D216" s="2"/>
+      <c r="C216" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="217" spans="1:4" ht="21">
       <c r="A217" s="7" t="s">
@@ -4491,10 +4851,12 @@
       <c r="B217" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C217" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D217" s="2"/>
+      <c r="C217" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D217" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="218" spans="1:4" ht="21">
       <c r="A218" s="7" t="s">
@@ -4503,10 +4865,12 @@
       <c r="B218" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D218" s="2"/>
+      <c r="C218" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="219" spans="1:4" ht="21">
       <c r="A219" s="7" t="s">
@@ -4515,10 +4879,12 @@
       <c r="B219" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C219" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D219" s="2"/>
+      <c r="C219" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D219" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="220" spans="1:4" ht="21">
       <c r="A220" s="7" t="s">
@@ -4527,10 +4893,12 @@
       <c r="B220" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C220" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D220" s="2"/>
+      <c r="C220" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="221" spans="1:4" ht="21">
       <c r="A221" s="7" t="s">
@@ -4539,10 +4907,12 @@
       <c r="B221" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C221" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D221" s="2"/>
+      <c r="C221" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D221" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="222" spans="1:4" ht="21">
       <c r="A222" s="7" t="s">
@@ -4551,10 +4921,12 @@
       <c r="B222" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D222" s="2"/>
+      <c r="C222" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="223" spans="1:4" ht="21">
       <c r="A223" s="7" t="s">
@@ -4563,10 +4935,12 @@
       <c r="B223" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C223" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D223" s="2"/>
+      <c r="C223" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D223" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="224" spans="1:4" ht="21">
       <c r="A224" s="7" t="s">
@@ -4575,10 +4949,12 @@
       <c r="B224" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C224" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D224" s="2"/>
+      <c r="C224" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D224" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="225" spans="1:4" ht="21">
       <c r="A225" s="7" t="s">
@@ -4587,10 +4963,12 @@
       <c r="B225" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D225" s="2"/>
+      <c r="C225" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D225" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="226" spans="1:4" ht="21">
       <c r="A226" s="7" t="s">
@@ -4599,10 +4977,12 @@
       <c r="B226" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C226" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D226" s="2"/>
+      <c r="C226" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D226" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="227" spans="1:4" ht="21">
       <c r="A227" s="7" t="s">
@@ -4611,10 +4991,12 @@
       <c r="B227" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C227" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D227" s="2"/>
+      <c r="C227" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D227" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="228" spans="1:4" ht="21">
       <c r="A228" s="7" t="s">
@@ -4623,10 +5005,12 @@
       <c r="B228" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D228" s="2"/>
+      <c r="C228" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D228" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="229" spans="1:4" ht="21">
       <c r="A229" s="7" t="s">
@@ -4635,10 +5019,12 @@
       <c r="B229" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C229" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D229" s="2"/>
+      <c r="C229" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="230" spans="1:4" ht="21">
       <c r="A230" s="7" t="s">
@@ -4647,10 +5033,12 @@
       <c r="B230" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C230" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D230" s="2"/>
+      <c r="C230" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="231" spans="1:4" ht="21">
       <c r="A231" s="7" t="s">
@@ -4659,10 +5047,12 @@
       <c r="B231" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C231" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D231" s="2"/>
+      <c r="C231" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="232" spans="1:4" ht="21">
       <c r="A232" s="7" t="s">
@@ -4671,10 +5061,12 @@
       <c r="B232" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C232" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D232" s="2"/>
+      <c r="C232" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D232" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="233" spans="1:4" ht="21">
       <c r="A233" s="7" t="s">
@@ -4683,10 +5075,12 @@
       <c r="B233" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C233" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D233" s="2"/>
+      <c r="C233" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D233" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="234" spans="1:4" ht="21">
       <c r="A234" s="7" t="s">
@@ -4695,10 +5089,12 @@
       <c r="B234" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C234" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D234" s="2"/>
+      <c r="C234" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="235" spans="1:4" ht="21">
       <c r="A235" s="7" t="s">
@@ -4707,10 +5103,12 @@
       <c r="B235" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C235" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D235" s="2"/>
+      <c r="C235" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D235" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="236" spans="1:4" ht="21">
       <c r="A236" s="2"/>
@@ -4731,10 +5129,12 @@
       <c r="B238" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C238" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D238" s="2"/>
+      <c r="C238" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D238" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" spans="1:4" ht="21">
       <c r="A239" s="7" t="s">
@@ -4743,10 +5143,12 @@
       <c r="B239" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C239" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D239" s="2"/>
+      <c r="C239" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D239" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="240" spans="1:4" ht="21">
       <c r="A240" s="7" t="s">
@@ -4755,10 +5157,12 @@
       <c r="B240" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C240" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D240" s="2"/>
+      <c r="C240" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="241" spans="1:4" ht="21">
       <c r="A241" s="7" t="s">
@@ -4767,10 +5171,12 @@
       <c r="B241" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C241" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D241" s="2"/>
+      <c r="C241" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D241" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="242" spans="1:4" ht="21">
       <c r="A242" s="7" t="s">
@@ -4779,10 +5185,12 @@
       <c r="B242" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C242" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D242" s="2"/>
+      <c r="C242" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D242" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="243" spans="1:4" ht="21">
       <c r="A243" s="7" t="s">
@@ -4791,10 +5199,12 @@
       <c r="B243" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C243" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D243" s="2"/>
+      <c r="C243" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D243" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="244" spans="1:4" ht="21">
       <c r="A244" s="7" t="s">
@@ -4803,10 +5213,12 @@
       <c r="B244" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C244" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D244" s="2"/>
+      <c r="C244" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D244" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="245" spans="1:4" ht="21">
       <c r="A245" s="7" t="s">
@@ -4815,10 +5227,12 @@
       <c r="B245" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C245" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D245" s="2"/>
+      <c r="C245" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D245" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="246" spans="1:4" ht="21">
       <c r="A246" s="7" t="s">
@@ -4827,10 +5241,12 @@
       <c r="B246" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C246" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D246" s="2"/>
+      <c r="C246" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="247" spans="1:4" ht="21">
       <c r="A247" s="7" t="s">
@@ -4839,10 +5255,12 @@
       <c r="B247" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C247" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D247" s="2"/>
+      <c r="C247" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D247" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="248" spans="1:4" ht="21">
       <c r="A248" s="7" t="s">
@@ -4851,10 +5269,12 @@
       <c r="B248" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C248" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D248" s="2"/>
+      <c r="C248" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D248" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="249" spans="1:4" ht="21">
       <c r="A249" s="7" t="s">
@@ -4863,10 +5283,12 @@
       <c r="B249" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C249" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D249" s="2"/>
+      <c r="C249" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D249" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="250" spans="1:4" ht="21">
       <c r="A250" s="7" t="s">
@@ -4875,10 +5297,12 @@
       <c r="B250" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C250" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D250" s="2"/>
+      <c r="C250" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D250" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="251" spans="1:4" ht="21">
       <c r="A251" s="7" t="s">
@@ -4887,10 +5311,12 @@
       <c r="B251" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C251" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D251" s="2"/>
+      <c r="C251" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D251" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="252" spans="1:4" ht="21">
       <c r="A252" s="7" t="s">
@@ -4899,10 +5325,12 @@
       <c r="B252" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D252" s="2"/>
+      <c r="C252" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D252" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="253" spans="1:4" ht="21">
       <c r="A253" s="7" t="s">
@@ -4911,10 +5339,12 @@
       <c r="B253" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C253" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D253" s="2"/>
+      <c r="C253" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D253" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="254" spans="1:4" ht="21">
       <c r="A254" s="7" t="s">
@@ -4923,10 +5353,12 @@
       <c r="B254" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C254" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D254" s="2"/>
+      <c r="C254" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D254" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="255" spans="1:4" ht="21">
       <c r="A255" s="7" t="s">
@@ -4935,10 +5367,12 @@
       <c r="B255" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C255" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D255" s="2"/>
+      <c r="C255" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D255" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="256" spans="1:4" ht="21">
       <c r="A256" s="7" t="s">
@@ -4947,10 +5381,12 @@
       <c r="B256" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C256" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D256" s="2"/>
+      <c r="C256" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D256" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="257" spans="1:4" ht="21">
       <c r="A257" s="7" t="s">
@@ -4959,10 +5395,12 @@
       <c r="B257" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C257" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D257" s="2"/>
+      <c r="C257" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="258" spans="1:4" ht="21">
       <c r="A258" s="7" t="s">
@@ -4971,10 +5409,12 @@
       <c r="B258" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C258" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D258" s="2"/>
+      <c r="C258" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D258" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="259" spans="1:4" ht="21">
       <c r="A259" s="7" t="s">
@@ -4983,10 +5423,12 @@
       <c r="B259" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C259" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D259" s="2"/>
+      <c r="C259" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="260" spans="1:4" ht="21">
       <c r="A260" s="7" t="s">
@@ -4995,10 +5437,12 @@
       <c r="B260" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C260" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D260" s="2"/>
+      <c r="C260" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D260" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="261" spans="1:4" ht="21">
       <c r="A261" s="7" t="s">
@@ -5007,10 +5451,12 @@
       <c r="B261" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C261" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D261" s="2"/>
+      <c r="C261" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D261" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="262" spans="1:4" ht="21">
       <c r="A262" s="7" t="s">
@@ -5019,10 +5465,12 @@
       <c r="B262" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C262" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D262" s="2"/>
+      <c r="C262" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D262" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="263" spans="1:4" ht="21">
       <c r="A263" s="7" t="s">
@@ -5031,10 +5479,12 @@
       <c r="B263" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C263" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D263" s="2"/>
+      <c r="C263" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D263" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="264" spans="1:4" ht="21">
       <c r="A264" s="7" t="s">
@@ -5043,10 +5493,12 @@
       <c r="B264" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C264" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D264" s="2"/>
+      <c r="C264" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D264" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="265" spans="1:4" ht="21">
       <c r="A265" s="7" t="s">
@@ -5055,10 +5507,12 @@
       <c r="B265" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C265" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D265" s="2"/>
+      <c r="C265" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D265" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="266" spans="1:4" ht="21">
       <c r="A266" s="7" t="s">
@@ -5067,10 +5521,12 @@
       <c r="B266" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C266" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D266" s="2"/>
+      <c r="C266" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D266" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="267" spans="1:4" ht="21">
       <c r="A267" s="7" t="s">
@@ -5079,10 +5535,12 @@
       <c r="B267" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C267" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D267" s="2"/>
+      <c r="C267" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D267" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="268" spans="1:4" ht="21">
       <c r="A268" s="7" t="s">
@@ -5091,10 +5549,12 @@
       <c r="B268" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C268" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D268" s="2"/>
+      <c r="C268" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D268" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="269" spans="1:4" ht="21">
       <c r="A269" s="7" t="s">
@@ -5103,10 +5563,12 @@
       <c r="B269" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C269" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D269" s="2"/>
+      <c r="C269" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D269" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="270" spans="1:4" ht="21">
       <c r="A270" s="7" t="s">
@@ -5115,10 +5577,12 @@
       <c r="B270" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C270" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D270" s="2"/>
+      <c r="C270" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D270" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="271" spans="1:4" ht="21">
       <c r="A271" s="7" t="s">
@@ -5127,10 +5591,12 @@
       <c r="B271" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C271" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D271" s="2"/>
+      <c r="C271" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D271" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="272" spans="1:4" ht="21">
       <c r="A272" s="7" t="s">
@@ -5139,10 +5605,12 @@
       <c r="B272" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C272" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D272" s="2"/>
+      <c r="C272" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D272" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="273" spans="1:4" ht="21">
       <c r="A273" s="2"/>
@@ -5163,10 +5631,12 @@
       <c r="B275" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D275" s="2"/>
+      <c r="C275" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D275" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="276" spans="1:4" ht="21">
       <c r="A276" s="7" t="s">
@@ -5175,10 +5645,12 @@
       <c r="B276" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C276" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D276" s="2"/>
+      <c r="C276" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="277" spans="1:4" ht="21">
       <c r="A277" s="7" t="s">
@@ -5187,10 +5659,12 @@
       <c r="B277" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C277" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D277" s="2"/>
+      <c r="C277" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D277" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="278" spans="1:4" ht="21">
       <c r="A278" s="7" t="s">
@@ -5199,10 +5673,12 @@
       <c r="B278" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C278" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D278" s="2"/>
+      <c r="C278" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D278" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="279" spans="1:4" ht="21">
       <c r="A279" s="7" t="s">
@@ -5211,10 +5687,12 @@
       <c r="B279" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C279" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D279" s="2"/>
+      <c r="C279" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D279" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="280" spans="1:4" ht="21">
       <c r="A280" s="7" t="s">
@@ -5223,10 +5701,12 @@
       <c r="B280" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C280" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D280" s="2"/>
+      <c r="C280" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D280" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="281" spans="1:4" ht="21">
       <c r="A281" s="7" t="s">
@@ -5235,10 +5715,12 @@
       <c r="B281" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C281" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D281" s="2"/>
+      <c r="C281" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D281" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="282" spans="1:4" ht="21">
       <c r="A282" s="7" t="s">
@@ -5247,10 +5729,12 @@
       <c r="B282" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C282" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D282" s="2"/>
+      <c r="C282" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D282" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="283" spans="1:4" ht="21">
       <c r="A283" s="7" t="s">
@@ -5259,10 +5743,12 @@
       <c r="B283" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C283" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D283" s="2"/>
+      <c r="C283" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D283" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="284" spans="1:4" ht="21">
       <c r="A284" s="7" t="s">
@@ -5271,10 +5757,12 @@
       <c r="B284" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C284" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D284" s="2"/>
+      <c r="C284" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D284" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="285" spans="1:4" ht="21">
       <c r="A285" s="7" t="s">
@@ -5283,10 +5771,12 @@
       <c r="B285" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C285" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D285" s="2"/>
+      <c r="C285" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D285" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="286" spans="1:4" ht="21">
       <c r="A286" s="7" t="s">
@@ -5295,10 +5785,12 @@
       <c r="B286" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C286" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D286" s="2"/>
+      <c r="C286" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D286" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="287" spans="1:4" ht="21">
       <c r="A287" s="7" t="s">
@@ -5307,10 +5799,12 @@
       <c r="B287" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C287" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D287" s="2"/>
+      <c r="C287" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D287" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="288" spans="1:4" ht="21">
       <c r="A288" s="7" t="s">
@@ -5319,10 +5813,12 @@
       <c r="B288" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C288" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D288" s="2"/>
+      <c r="C288" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D288" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="289" spans="1:4" ht="21">
       <c r="A289" s="7" t="s">
@@ -5331,10 +5827,12 @@
       <c r="B289" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C289" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D289" s="2"/>
+      <c r="C289" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D289" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="290" spans="1:4" ht="21">
       <c r="A290" s="7" t="s">
@@ -5343,10 +5841,12 @@
       <c r="B290" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C290" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D290" s="2"/>
+      <c r="C290" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D290" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="291" spans="1:4" ht="21">
       <c r="A291" s="7" t="s">
@@ -5355,10 +5855,12 @@
       <c r="B291" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C291" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D291" s="2"/>
+      <c r="C291" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D291" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="292" spans="1:4" ht="21">
       <c r="A292" s="7" t="s">
@@ -5367,10 +5869,12 @@
       <c r="B292" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C292" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D292" s="2"/>
+      <c r="C292" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D292" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="293" spans="1:4" ht="21">
       <c r="A293" s="7" t="s">
@@ -5379,10 +5883,12 @@
       <c r="B293" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C293" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D293" s="2"/>
+      <c r="C293" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D293" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="294" spans="1:4" ht="21">
       <c r="A294" s="2"/>
@@ -5403,10 +5909,12 @@
       <c r="B296" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C296" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D296" s="2"/>
+      <c r="C296" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D296" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="297" spans="1:4" ht="21">
       <c r="A297" s="7" t="s">
@@ -5415,10 +5923,12 @@
       <c r="B297" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C297" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D297" s="2"/>
+      <c r="C297" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D297" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="298" spans="1:4" ht="21">
       <c r="A298" s="7" t="s">
@@ -5427,10 +5937,12 @@
       <c r="B298" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C298" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D298" s="2"/>
+      <c r="C298" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D298" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="299" spans="1:4" ht="21">
       <c r="A299" s="7" t="s">
@@ -5439,10 +5951,12 @@
       <c r="B299" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C299" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D299" s="2"/>
+      <c r="C299" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D299" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="300" spans="1:4" ht="21">
       <c r="A300" s="7" t="s">
@@ -5451,10 +5965,12 @@
       <c r="B300" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C300" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D300" s="2"/>
+      <c r="C300" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D300" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="301" spans="1:4" ht="21">
       <c r="A301" s="7" t="s">
@@ -5463,10 +5979,12 @@
       <c r="B301" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C301" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D301" s="2"/>
+      <c r="C301" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D301" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="302" spans="1:4" ht="21">
       <c r="A302" s="7" t="s">
@@ -5475,10 +5993,12 @@
       <c r="B302" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C302" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D302" s="2"/>
+      <c r="C302" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D302" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="303" spans="1:4" ht="21">
       <c r="A303" s="7" t="s">
@@ -5487,10 +6007,12 @@
       <c r="B303" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C303" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D303" s="2"/>
+      <c r="C303" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D303" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="304" spans="1:4" ht="21">
       <c r="A304" s="7" t="s">
@@ -5499,10 +6021,12 @@
       <c r="B304" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C304" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D304" s="2"/>
+      <c r="C304" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D304" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="305" spans="1:4" ht="21">
       <c r="A305" s="7" t="s">
@@ -5511,10 +6035,12 @@
       <c r="B305" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C305" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D305" s="2"/>
+      <c r="C305" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D305" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="306" spans="1:4" ht="21">
       <c r="A306" s="7" t="s">
@@ -5523,10 +6049,12 @@
       <c r="B306" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C306" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D306" s="2"/>
+      <c r="C306" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D306" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="307" spans="1:4" ht="21">
       <c r="A307" s="7" t="s">
@@ -5535,10 +6063,12 @@
       <c r="B307" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C307" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D307" s="2"/>
+      <c r="C307" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D307" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="308" spans="1:4" ht="21">
       <c r="A308" s="7" t="s">
@@ -5547,10 +6077,12 @@
       <c r="B308" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C308" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D308" s="2"/>
+      <c r="C308" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D308" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="309" spans="1:4" ht="21">
       <c r="A309" s="7" t="s">
@@ -5559,10 +6091,12 @@
       <c r="B309" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="C309" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D309" s="2"/>
+      <c r="C309" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D309" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="310" spans="1:4" ht="21">
       <c r="A310" s="7" t="s">
@@ -5571,10 +6105,12 @@
       <c r="B310" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C310" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D310" s="2"/>
+      <c r="C310" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D310" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="311" spans="1:4" ht="21">
       <c r="A311" s="7" t="s">
@@ -5583,10 +6119,12 @@
       <c r="B311" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C311" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D311" s="2"/>
+      <c r="C311" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D311" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="312" spans="1:4" ht="21">
       <c r="A312" s="7" t="s">
@@ -5595,10 +6133,12 @@
       <c r="B312" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C312" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D312" s="2"/>
+      <c r="C312" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D312" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="313" spans="1:4" ht="21">
       <c r="A313" s="7" t="s">
@@ -5607,10 +6147,12 @@
       <c r="B313" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C313" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D313" s="2"/>
+      <c r="C313" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D313" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="314" spans="1:4" ht="21">
       <c r="A314" s="7" t="s">
@@ -5619,10 +6161,12 @@
       <c r="B314" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C314" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D314" s="2"/>
+      <c r="C314" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D314" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="315" spans="1:4" ht="21">
       <c r="A315" s="7" t="s">
@@ -5631,10 +6175,12 @@
       <c r="B315" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C315" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D315" s="2"/>
+      <c r="C315" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D315" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="316" spans="1:4" ht="21">
       <c r="A316" s="7" t="s">
@@ -5643,10 +6189,12 @@
       <c r="B316" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C316" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D316" s="2"/>
+      <c r="C316" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D316" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="317" spans="1:4" ht="21">
       <c r="A317" s="7" t="s">
@@ -5655,10 +6203,12 @@
       <c r="B317" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C317" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D317" s="2"/>
+      <c r="C317" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D317" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="318" spans="1:4" ht="21">
       <c r="A318" s="7" t="s">
@@ -5667,10 +6217,12 @@
       <c r="B318" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C318" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D318" s="2"/>
+      <c r="C318" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D318" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="319" spans="1:4" ht="21">
       <c r="A319" s="7" t="s">
@@ -5679,10 +6231,12 @@
       <c r="B319" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C319" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D319" s="2"/>
+      <c r="C319" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D319" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="320" spans="1:4" ht="21">
       <c r="A320" s="7" t="s">
@@ -5691,10 +6245,12 @@
       <c r="B320" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C320" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D320" s="2"/>
+      <c r="C320" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D320" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="321" spans="1:4" ht="21">
       <c r="A321" s="7" t="s">
@@ -5703,10 +6259,12 @@
       <c r="B321" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C321" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D321" s="2"/>
+      <c r="C321" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D321" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="322" spans="1:4" ht="21">
       <c r="A322" s="7" t="s">
@@ -5715,10 +6273,12 @@
       <c r="B322" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C322" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D322" s="2"/>
+      <c r="C322" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D322" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="323" spans="1:4" ht="21">
       <c r="A323" s="7" t="s">
@@ -5727,10 +6287,12 @@
       <c r="B323" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C323" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D323" s="2"/>
+      <c r="C323" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D323" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="324" spans="1:4" ht="21">
       <c r="A324" s="7" t="s">
@@ -5739,10 +6301,12 @@
       <c r="B324" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C324" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D324" s="2"/>
+      <c r="C324" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D324" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="325" spans="1:4" ht="21">
       <c r="A325" s="7" t="s">
@@ -5751,10 +6315,12 @@
       <c r="B325" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C325" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D325" s="2"/>
+      <c r="C325" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D325" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="326" spans="1:4" ht="21">
       <c r="A326" s="7" t="s">
@@ -5763,10 +6329,12 @@
       <c r="B326" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C326" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D326" s="2"/>
+      <c r="C326" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D326" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="327" spans="1:4" ht="21">
       <c r="A327" s="7" t="s">
@@ -5775,10 +6343,12 @@
       <c r="B327" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C327" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D327" s="2"/>
+      <c r="C327" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D327" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="328" spans="1:4" ht="21">
       <c r="A328" s="7" t="s">
@@ -5787,10 +6357,12 @@
       <c r="B328" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C328" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D328" s="2"/>
+      <c r="C328" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D328" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="329" spans="1:4" ht="21">
       <c r="A329" s="7" t="s">
@@ -5799,10 +6371,12 @@
       <c r="B329" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C329" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D329" s="2"/>
+      <c r="C329" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="330" spans="1:4" ht="21">
       <c r="A330" s="7" t="s">
@@ -5811,10 +6385,12 @@
       <c r="B330" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C330" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D330" s="2"/>
+      <c r="C330" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D330" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="331" spans="1:4" ht="21">
       <c r="A331" s="7" t="s">
@@ -5823,10 +6399,12 @@
       <c r="B331" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C331" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D331" s="2"/>
+      <c r="C331" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D331" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="332" spans="1:4" ht="21">
       <c r="A332" s="7" t="s">
@@ -5835,10 +6413,12 @@
       <c r="B332" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C332" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D332" s="2"/>
+      <c r="C332" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D332" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="333" spans="1:4" ht="21">
       <c r="A333" s="7" t="s">
@@ -5847,10 +6427,12 @@
       <c r="B333" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C333" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D333" s="2"/>
+      <c r="C333" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D333" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="334" spans="1:4" ht="21">
       <c r="A334" s="2"/>
@@ -5871,10 +6453,12 @@
       <c r="B336" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C336" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D336" s="2"/>
+      <c r="C336" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D336" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="337" spans="1:4" ht="21">
       <c r="A337" s="10" t="s">
@@ -5883,10 +6467,12 @@
       <c r="B337" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C337" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D337" s="2"/>
+      <c r="C337" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D337" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="338" spans="1:4" ht="21">
       <c r="A338" s="10" t="s">
@@ -5895,10 +6481,12 @@
       <c r="B338" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C338" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D338" s="2"/>
+      <c r="C338" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D338" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="339" spans="1:4" ht="21">
       <c r="A339" s="10" t="s">
@@ -5907,10 +6495,12 @@
       <c r="B339" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C339" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D339" s="2"/>
+      <c r="C339" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D339" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="340" spans="1:4" ht="21">
       <c r="A340" s="10" t="s">
@@ -5919,10 +6509,12 @@
       <c r="B340" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C340" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D340" s="2"/>
+      <c r="C340" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D340" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="341" spans="1:4" ht="21">
       <c r="A341" s="10" t="s">
@@ -5931,10 +6523,12 @@
       <c r="B341" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C341" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D341" s="2"/>
+      <c r="C341" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D341" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="342" spans="1:4" ht="21">
       <c r="A342" s="10" t="s">
@@ -5943,10 +6537,12 @@
       <c r="B342" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C342" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D342" s="2"/>
+      <c r="C342" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D342" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="343" spans="1:4" ht="21">
       <c r="A343" s="10" t="s">
@@ -5955,10 +6551,12 @@
       <c r="B343" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C343" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D343" s="2"/>
+      <c r="C343" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D343" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="344" spans="1:4" ht="21">
       <c r="A344" s="10" t="s">
@@ -5967,10 +6565,12 @@
       <c r="B344" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C344" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D344" s="2"/>
+      <c r="C344" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D344" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="345" spans="1:4" ht="21">
       <c r="A345" s="10" t="s">
@@ -5979,10 +6579,12 @@
       <c r="B345" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C345" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D345" s="2"/>
+      <c r="C345" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D345" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="346" spans="1:4" ht="21">
       <c r="A346" s="10" t="s">
@@ -5991,10 +6593,12 @@
       <c r="B346" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C346" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D346" s="2"/>
+      <c r="C346" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D346" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="347" spans="1:4" ht="21">
       <c r="A347" s="10" t="s">
@@ -6003,10 +6607,12 @@
       <c r="B347" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C347" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D347" s="2"/>
+      <c r="C347" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D347" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="348" spans="1:4" ht="21">
       <c r="A348" s="10" t="s">
@@ -6015,10 +6621,12 @@
       <c r="B348" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C348" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D348" s="2"/>
+      <c r="C348" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D348" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="349" spans="1:4" ht="21">
       <c r="A349" s="10" t="s">
@@ -6027,10 +6635,12 @@
       <c r="B349" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C349" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D349" s="2"/>
+      <c r="C349" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D349" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="350" spans="1:4" ht="21">
       <c r="A350" s="10" t="s">
@@ -6039,10 +6649,12 @@
       <c r="B350" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C350" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D350" s="2"/>
+      <c r="C350" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D350" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="351" spans="1:4" ht="21">
       <c r="A351" s="10" t="s">
@@ -6051,10 +6663,12 @@
       <c r="B351" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C351" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D351" s="2"/>
+      <c r="C351" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D351" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="352" spans="1:4" ht="21">
       <c r="A352" s="10" t="s">
@@ -6063,10 +6677,12 @@
       <c r="B352" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C352" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D352" s="2"/>
+      <c r="C352" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D352" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="353" spans="1:4" ht="21">
       <c r="A353" s="10" t="s">
@@ -6075,10 +6691,12 @@
       <c r="B353" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C353" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D353" s="2"/>
+      <c r="C353" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D353" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="354" spans="1:4" ht="21">
       <c r="A354" s="2"/>
@@ -6099,10 +6717,12 @@
       <c r="B356" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C356" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D356" s="2"/>
+      <c r="C356" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D356" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="357" spans="1:4" ht="21">
       <c r="A357" s="10" t="s">
@@ -6111,10 +6731,12 @@
       <c r="B357" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C357" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D357" s="2"/>
+      <c r="C357" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D357" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="358" spans="1:4" ht="21">
       <c r="A358" s="10" t="s">
@@ -6123,10 +6745,12 @@
       <c r="B358" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C358" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D358" s="2"/>
+      <c r="C358" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D358" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="359" spans="1:4" ht="21">
       <c r="A359" s="10" t="s">
@@ -6135,10 +6759,12 @@
       <c r="B359" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C359" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D359" s="2"/>
+      <c r="C359" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D359" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="360" spans="1:4" ht="21">
       <c r="A360" s="10" t="s">
@@ -6147,10 +6773,12 @@
       <c r="B360" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C360" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D360" s="2"/>
+      <c r="C360" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D360" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="361" spans="1:4" ht="21">
       <c r="A361" s="10" t="s">
@@ -6159,10 +6787,12 @@
       <c r="B361" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C361" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D361" s="2"/>
+      <c r="C361" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D361" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="362" spans="1:4" ht="21">
       <c r="A362" s="10" t="s">
@@ -6171,10 +6801,12 @@
       <c r="B362" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C362" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D362" s="2"/>
+      <c r="C362" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D362" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="363" spans="1:4" ht="21">
       <c r="A363" s="10" t="s">
@@ -6183,10 +6815,12 @@
       <c r="B363" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C363" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D363" s="2"/>
+      <c r="C363" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D363" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="364" spans="1:4" ht="21">
       <c r="A364" s="10" t="s">
@@ -6195,10 +6829,12 @@
       <c r="B364" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C364" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D364" s="2"/>
+      <c r="C364" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D364" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="365" spans="1:4" ht="21">
       <c r="A365" s="10" t="s">
@@ -6207,10 +6843,12 @@
       <c r="B365" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C365" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D365" s="2"/>
+      <c r="C365" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D365" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="366" spans="1:4" ht="21">
       <c r="A366" s="10" t="s">
@@ -6219,10 +6857,12 @@
       <c r="B366" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C366" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D366" s="2"/>
+      <c r="C366" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D366" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="367" spans="1:4" ht="21">
       <c r="A367" s="10" t="s">
@@ -6231,10 +6871,12 @@
       <c r="B367" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C367" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D367" s="2"/>
+      <c r="C367" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D367" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="368" spans="1:4" ht="21">
       <c r="A368" s="10" t="s">
@@ -6243,10 +6885,12 @@
       <c r="B368" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C368" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D368" s="2"/>
+      <c r="C368" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D368" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="369" spans="1:4" ht="21">
       <c r="A369" s="10" t="s">
@@ -6255,10 +6899,12 @@
       <c r="B369" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C369" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D369" s="2"/>
+      <c r="C369" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D369" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="370" spans="1:4" ht="21">
       <c r="A370" s="10" t="s">
@@ -6267,10 +6913,12 @@
       <c r="B370" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C370" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D370" s="2"/>
+      <c r="C370" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D370" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="371" spans="1:4" ht="21">
       <c r="A371" s="10" t="s">
@@ -6279,10 +6927,12 @@
       <c r="B371" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C371" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D371" s="2"/>
+      <c r="C371" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D371" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="372" spans="1:4" ht="21">
       <c r="A372" s="10" t="s">
@@ -6291,10 +6941,12 @@
       <c r="B372" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C372" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D372" s="2"/>
+      <c r="C372" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D372" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="373" spans="1:4" ht="21">
       <c r="A373" s="10" t="s">
@@ -6303,10 +6955,12 @@
       <c r="B373" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C373" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D373" s="2"/>
+      <c r="C373" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D373" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="374" spans="1:4" ht="21">
       <c r="A374" s="10" t="s">
@@ -6315,10 +6969,12 @@
       <c r="B374" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C374" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D374" s="2"/>
+      <c r="C374" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D374" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="375" spans="1:4" ht="21">
       <c r="A375" s="10" t="s">
@@ -6327,10 +6983,12 @@
       <c r="B375" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C375" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D375" s="2"/>
+      <c r="C375" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D375" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="376" spans="1:4" ht="21">
       <c r="A376" s="10" t="s">
@@ -6339,10 +6997,12 @@
       <c r="B376" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C376" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D376" s="2"/>
+      <c r="C376" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D376" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="377" spans="1:4" ht="21">
       <c r="A377" s="10" t="s">
@@ -6351,10 +7011,12 @@
       <c r="B377" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C377" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D377" s="2"/>
+      <c r="C377" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D377" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="378" spans="1:4" ht="21">
       <c r="A378" s="10" t="s">
@@ -6363,10 +7025,12 @@
       <c r="B378" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C378" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D378" s="2"/>
+      <c r="C378" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D378" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="379" spans="1:4" ht="21">
       <c r="A379" s="10" t="s">
@@ -6375,10 +7039,12 @@
       <c r="B379" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C379" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D379" s="2"/>
+      <c r="C379" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D379" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="380" spans="1:4" ht="21">
       <c r="A380" s="10" t="s">
@@ -6387,10 +7053,12 @@
       <c r="B380" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C380" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D380" s="2"/>
+      <c r="C380" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D380" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="381" spans="1:4" ht="21">
       <c r="A381" s="10" t="s">
@@ -6399,10 +7067,12 @@
       <c r="B381" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C381" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D381" s="2"/>
+      <c r="C381" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D381" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="382" spans="1:4" ht="21">
       <c r="A382" s="10" t="s">
@@ -6411,10 +7081,12 @@
       <c r="B382" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C382" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D382" s="2"/>
+      <c r="C382" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D382" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="383" spans="1:4" ht="21">
       <c r="A383" s="10" t="s">
@@ -6423,10 +7095,12 @@
       <c r="B383" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C383" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D383" s="2"/>
+      <c r="C383" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D383" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="384" spans="1:4" ht="21">
       <c r="A384" s="10" t="s">
@@ -6435,10 +7109,12 @@
       <c r="B384" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C384" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D384" s="2"/>
+      <c r="C384" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D384" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="385" spans="1:4" ht="21">
       <c r="A385" s="10" t="s">
@@ -6447,10 +7123,12 @@
       <c r="B385" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C385" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D385" s="2"/>
+      <c r="C385" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D385" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="386" spans="1:4" ht="21">
       <c r="A386" s="10" t="s">
@@ -6459,10 +7137,12 @@
       <c r="B386" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C386" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D386" s="2"/>
+      <c r="C386" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D386" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="387" spans="1:4" ht="21">
       <c r="A387" s="10" t="s">
@@ -6471,10 +7151,12 @@
       <c r="B387" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C387" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D387" s="2"/>
+      <c r="C387" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D387" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="388" spans="1:4" ht="21">
       <c r="A388" s="10" t="s">
@@ -6483,10 +7165,12 @@
       <c r="B388" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C388" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D388" s="2"/>
+      <c r="C388" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D388" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="389" spans="1:4" ht="21">
       <c r="A389" s="10" t="s">
@@ -6495,10 +7179,12 @@
       <c r="B389" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C389" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D389" s="2"/>
+      <c r="C389" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D389" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="390" spans="1:4" ht="21">
       <c r="A390" s="10" t="s">
@@ -6507,10 +7193,12 @@
       <c r="B390" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C390" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D390" s="2"/>
+      <c r="C390" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D390" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="391" spans="1:4" ht="21">
       <c r="A391" s="10" t="s">
@@ -6519,10 +7207,12 @@
       <c r="B391" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C391" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D391" s="2"/>
+      <c r="C391" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D391" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="392" spans="1:4" ht="21">
       <c r="A392" s="10" t="s">
@@ -6531,10 +7221,12 @@
       <c r="B392" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C392" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D392" s="2"/>
+      <c r="C392" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D392" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="393" spans="1:4" ht="21">
       <c r="A393" s="10" t="s">
@@ -6543,10 +7235,12 @@
       <c r="B393" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C393" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D393" s="2"/>
+      <c r="C393" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D393" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="394" spans="1:4" ht="21">
       <c r="A394" s="10" t="s">
@@ -6555,10 +7249,12 @@
       <c r="B394" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C394" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D394" s="2"/>
+      <c r="C394" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D394" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="395" spans="1:4" ht="21">
       <c r="A395" s="10" t="s">
@@ -6567,10 +7263,12 @@
       <c r="B395" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C395" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D395" s="2"/>
+      <c r="C395" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D395" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="396" spans="1:4" ht="21">
       <c r="A396" s="10" t="s">
@@ -6579,10 +7277,12 @@
       <c r="B396" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C396" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D396" s="2"/>
+      <c r="C396" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D396" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="397" spans="1:4" ht="21">
       <c r="A397" s="10" t="s">
@@ -6591,10 +7291,12 @@
       <c r="B397" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C397" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D397" s="2"/>
+      <c r="C397" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D397" s="2">
+        <v>42</v>
+      </c>
     </row>
     <row r="398" spans="1:4" ht="21">
       <c r="A398" s="10" t="s">
@@ -6603,10 +7305,12 @@
       <c r="B398" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C398" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D398" s="2"/>
+      <c r="C398" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D398" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="399" spans="1:4" ht="21">
       <c r="A399" s="10" t="s">
@@ -6615,10 +7319,12 @@
       <c r="B399" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C399" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D399" s="2"/>
+      <c r="C399" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D399" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="400" spans="1:4" ht="21">
       <c r="A400" s="2"/>
@@ -6639,10 +7345,12 @@
       <c r="B402" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C402" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D402" s="2"/>
+      <c r="C402" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D402" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="403" spans="1:4" ht="21">
       <c r="A403" s="10" t="s">
@@ -6651,10 +7359,12 @@
       <c r="B403" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C403" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D403" s="2"/>
+      <c r="C403" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D403" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="404" spans="1:4" ht="21">
       <c r="A404" s="10" t="s">
@@ -6663,10 +7373,12 @@
       <c r="B404" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C404" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D404" s="2"/>
+      <c r="C404" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D404" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="405" spans="1:4" ht="21">
       <c r="A405" s="10" t="s">
@@ -6675,10 +7387,12 @@
       <c r="B405" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C405" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D405" s="2"/>
+      <c r="C405" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D405" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="406" spans="1:4" ht="21">
       <c r="A406" s="10" t="s">
@@ -6687,10 +7401,12 @@
       <c r="B406" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C406" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D406" s="2"/>
+      <c r="C406" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D406" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="407" spans="1:4" ht="21">
       <c r="A407" s="10" t="s">
@@ -6699,10 +7415,12 @@
       <c r="B407" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C407" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D407" s="2"/>
+      <c r="C407" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D407" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="408" spans="1:4" ht="21">
       <c r="A408" s="2"/>
@@ -6723,10 +7441,12 @@
       <c r="B410" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C410" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D410" s="2"/>
+      <c r="C410" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D410" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="411" spans="1:4" ht="21">
       <c r="A411" s="7" t="s">
@@ -6735,10 +7455,12 @@
       <c r="B411" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C411" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D411" s="2"/>
+      <c r="C411" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D411" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="412" spans="1:4" ht="21">
       <c r="A412" s="7" t="s">
@@ -6747,10 +7469,12 @@
       <c r="B412" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C412" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D412" s="2"/>
+      <c r="C412" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D412" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="413" spans="1:4" ht="21">
       <c r="A413" s="7" t="s">
@@ -6759,10 +7483,12 @@
       <c r="B413" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C413" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D413" s="2"/>
+      <c r="C413" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D413" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="414" spans="1:4" ht="21">
       <c r="A414" s="7" t="s">
@@ -6771,10 +7497,12 @@
       <c r="B414" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C414" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D414" s="2"/>
+      <c r="C414" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D414" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="415" spans="1:4" ht="21">
       <c r="A415" s="7" t="s">
@@ -6783,10 +7511,12 @@
       <c r="B415" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C415" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D415" s="2"/>
+      <c r="C415" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D415" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="416" spans="1:4" ht="21">
       <c r="A416" s="7" t="s">
@@ -6795,10 +7525,12 @@
       <c r="B416" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C416" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D416" s="2"/>
+      <c r="C416" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D416" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="417" spans="1:4" ht="21">
       <c r="A417" s="7" t="s">
@@ -6807,10 +7539,12 @@
       <c r="B417" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C417" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D417" s="2"/>
+      <c r="C417" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D417" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="418" spans="1:4" ht="21">
       <c r="A418" s="7" t="s">
@@ -6819,10 +7553,12 @@
       <c r="B418" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C418" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D418" s="2"/>
+      <c r="C418" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D418" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="419" spans="1:4" ht="21">
       <c r="A419" s="7" t="s">
@@ -6831,10 +7567,12 @@
       <c r="B419" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C419" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D419" s="2"/>
+      <c r="C419" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D419" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="420" spans="1:4" ht="21">
       <c r="A420" s="7" t="s">
@@ -6843,10 +7581,12 @@
       <c r="B420" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C420" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D420" s="2"/>
+      <c r="C420" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D420" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="421" spans="1:4" ht="21">
       <c r="A421" s="7" t="s">
@@ -6855,10 +7595,12 @@
       <c r="B421" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C421" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D421" s="2"/>
+      <c r="C421" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D421" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="422" spans="1:4" ht="21">
       <c r="A422" s="7" t="s">
@@ -6867,10 +7609,12 @@
       <c r="B422" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C422" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D422" s="2"/>
+      <c r="C422" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D422" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="423" spans="1:4" ht="21">
       <c r="A423" s="7" t="s">
@@ -6879,10 +7623,12 @@
       <c r="B423" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C423" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D423" s="2"/>
+      <c r="C423" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D423" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="424" spans="1:4" ht="21">
       <c r="A424" s="7" t="s">
@@ -6891,10 +7637,12 @@
       <c r="B424" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C424" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D424" s="2"/>
+      <c r="C424" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D424" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="425" spans="1:4" ht="21">
       <c r="A425" s="7" t="s">
@@ -6903,10 +7651,12 @@
       <c r="B425" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C425" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D425" s="2"/>
+      <c r="C425" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D425" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="426" spans="1:4" ht="21">
       <c r="A426" s="7" t="s">
@@ -6915,10 +7665,12 @@
       <c r="B426" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C426" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D426" s="2"/>
+      <c r="C426" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D426" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="427" spans="1:4" ht="21">
       <c r="A427" s="7" t="s">
@@ -6927,10 +7679,12 @@
       <c r="B427" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C427" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D427" s="2"/>
+      <c r="C427" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D427" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="428" spans="1:4" ht="21">
       <c r="A428" s="7" t="s">
@@ -6939,10 +7693,12 @@
       <c r="B428" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C428" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D428" s="2"/>
+      <c r="C428" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D428" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="429" spans="1:4" ht="21">
       <c r="A429" s="7" t="s">
@@ -6951,10 +7707,12 @@
       <c r="B429" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C429" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D429" s="2"/>
+      <c r="C429" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D429" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="430" spans="1:4" ht="21">
       <c r="A430" s="7" t="s">
@@ -6963,10 +7721,12 @@
       <c r="B430" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C430" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D430" s="2"/>
+      <c r="C430" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D430" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="431" spans="1:4" ht="21">
       <c r="A431" s="7" t="s">
@@ -6975,10 +7735,12 @@
       <c r="B431" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C431" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D431" s="2"/>
+      <c r="C431" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D431" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="432" spans="1:4" ht="21">
       <c r="A432" s="7" t="s">
@@ -6987,10 +7749,12 @@
       <c r="B432" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C432" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D432" s="2"/>
+      <c r="C432" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D432" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="433" spans="1:4" ht="21">
       <c r="A433" s="7" t="s">
@@ -6999,10 +7763,12 @@
       <c r="B433" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C433" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D433" s="2"/>
+      <c r="C433" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D433" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="434" spans="1:4" ht="21">
       <c r="A434" s="7" t="s">
@@ -7011,10 +7777,12 @@
       <c r="B434" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C434" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D434" s="2"/>
+      <c r="C434" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D434" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="435" spans="1:4" ht="21">
       <c r="A435" s="7" t="s">
@@ -7023,10 +7791,12 @@
       <c r="B435" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C435" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D435" s="2"/>
+      <c r="C435" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D435" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="436" spans="1:4" ht="21">
       <c r="A436" s="7" t="s">
@@ -7035,10 +7805,12 @@
       <c r="B436" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C436" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D436" s="2"/>
+      <c r="C436" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D436" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="437" spans="1:4" ht="21">
       <c r="A437" s="7" t="s">
@@ -7047,10 +7819,12 @@
       <c r="B437" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C437" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D437" s="2"/>
+      <c r="C437" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D437" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="438" spans="1:4" ht="21">
       <c r="A438" s="7" t="s">
@@ -7059,10 +7833,12 @@
       <c r="B438" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C438" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D438" s="2"/>
+      <c r="C438" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D438" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="439" spans="1:4" ht="21">
       <c r="A439" s="7" t="s">
@@ -7071,10 +7847,12 @@
       <c r="B439" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C439" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D439" s="2"/>
+      <c r="C439" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D439" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="440" spans="1:4" ht="21">
       <c r="A440" s="7" t="s">
@@ -7083,10 +7861,12 @@
       <c r="B440" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C440" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D440" s="2"/>
+      <c r="C440" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D440" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="441" spans="1:4" ht="21">
       <c r="A441" s="7" t="s">
@@ -7095,10 +7875,12 @@
       <c r="B441" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C441" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D441" s="2"/>
+      <c r="C441" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D441" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="442" spans="1:4" ht="21">
       <c r="A442" s="7" t="s">
@@ -7107,10 +7889,12 @@
       <c r="B442" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C442" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D442" s="2"/>
+      <c r="C442" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D442" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="443" spans="1:4" ht="21">
       <c r="A443" s="7" t="s">
@@ -7119,10 +7903,12 @@
       <c r="B443" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C443" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D443" s="2"/>
+      <c r="C443" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D443" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="444" spans="1:4" ht="21">
       <c r="A444" s="7" t="s">
@@ -7131,10 +7917,12 @@
       <c r="B444" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C444" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D444" s="2"/>
+      <c r="C444" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D444" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="445" spans="1:4" ht="21">
       <c r="A445" s="7" t="s">
@@ -7143,10 +7931,12 @@
       <c r="B445" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C445" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D445" s="2"/>
+      <c r="C445" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D445" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="446" spans="1:4" ht="21">
       <c r="A446" s="7" t="s">
@@ -7155,10 +7945,12 @@
       <c r="B446" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C446" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D446" s="2"/>
+      <c r="C446" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D446" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="447" spans="1:4" ht="21">
       <c r="A447" s="7" t="s">
@@ -7167,10 +7959,12 @@
       <c r="B447" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C447" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D447" s="2"/>
+      <c r="C447" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D447" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="448" spans="1:4" ht="21">
       <c r="A448" s="7" t="s">
@@ -7179,10 +7973,12 @@
       <c r="B448" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C448" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D448" s="2"/>
+      <c r="C448" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D448" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="449" spans="1:4" ht="21">
       <c r="A449" s="7" t="s">
@@ -7191,10 +7987,12 @@
       <c r="B449" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C449" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D449" s="2"/>
+      <c r="C449" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D449" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="450" spans="1:4" ht="21">
       <c r="A450" s="7" t="s">
@@ -7203,10 +8001,12 @@
       <c r="B450" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C450" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D450" s="2"/>
+      <c r="C450" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D450" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="451" spans="1:4" ht="21">
       <c r="A451" s="7" t="s">
@@ -7215,10 +8015,12 @@
       <c r="B451" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C451" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D451" s="2"/>
+      <c r="C451" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D451" s="2">
+        <v>42</v>
+      </c>
     </row>
     <row r="452" spans="1:4" ht="21">
       <c r="A452" s="7" t="s">
@@ -7227,10 +8029,12 @@
       <c r="B452" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C452" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D452" s="2"/>
+      <c r="C452" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D452" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="453" spans="1:4" ht="21">
       <c r="A453" s="7" t="s">
@@ -7239,10 +8043,12 @@
       <c r="B453" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C453" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D453" s="2"/>
+      <c r="C453" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D453" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="454" spans="1:4" ht="21">
       <c r="A454" s="7" t="s">
@@ -7251,10 +8057,12 @@
       <c r="B454" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C454" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D454" s="2"/>
+      <c r="C454" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D454" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="455" spans="1:4" ht="21">
       <c r="A455" s="7" t="s">
@@ -7263,10 +8071,12 @@
       <c r="B455" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C455" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D455" s="2"/>
+      <c r="C455" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D455" s="2">
+        <v>46</v>
+      </c>
     </row>
     <row r="456" spans="1:4" ht="21">
       <c r="A456" s="7" t="s">
@@ -7275,10 +8085,12 @@
       <c r="B456" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="C456" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D456" s="2"/>
+      <c r="C456" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D456" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="7" t="s">
@@ -7287,10 +8099,12 @@
       <c r="B457" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C457" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D457" s="2"/>
+      <c r="C457" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D457" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="458" spans="1:4" ht="21">
       <c r="A458" s="7" t="s">
@@ -7299,10 +8113,12 @@
       <c r="B458" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C458" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D458" s="2"/>
+      <c r="C458" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D458" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="459" spans="1:4" ht="21">
       <c r="A459" s="7" t="s">
@@ -7311,10 +8127,12 @@
       <c r="B459" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="C459" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D459" s="2"/>
+      <c r="C459" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D459" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="460" spans="1:4" ht="21">
       <c r="A460" s="7" t="s">
@@ -7323,10 +8141,12 @@
       <c r="B460" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C460" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D460" s="2"/>
+      <c r="C460" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D460" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="461" spans="1:4" ht="21">
       <c r="A461" s="7" t="s">
@@ -7335,10 +8155,12 @@
       <c r="B461" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="C461" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D461" s="2"/>
+      <c r="C461" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D461" s="2">
+        <v>52</v>
+      </c>
     </row>
     <row r="462" spans="1:4" ht="21">
       <c r="A462" s="7" t="s">
@@ -7347,10 +8169,12 @@
       <c r="B462" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="C462" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D462" s="2"/>
+      <c r="C462" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D462" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="463" spans="1:4" ht="21">
       <c r="A463" s="7" t="s">
@@ -7359,10 +8183,12 @@
       <c r="B463" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="C463" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D463" s="2"/>
+      <c r="C463" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D463" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="464" spans="1:4" ht="21">
       <c r="A464" s="7" t="s">
@@ -7371,10 +8197,12 @@
       <c r="B464" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C464" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D464" s="2"/>
+      <c r="C464" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D464" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="465" spans="1:4" ht="21">
       <c r="A465" s="7" t="s">
@@ -7383,10 +8211,12 @@
       <c r="B465" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="C465" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D465" s="2"/>
+      <c r="C465" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D465" s="2">
+        <v>56</v>
+      </c>
     </row>
     <row r="466" spans="1:4" ht="21">
       <c r="A466" s="7" t="s">
@@ -7395,10 +8225,12 @@
       <c r="B466" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C466" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D466" s="2"/>
+      <c r="C466" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D466" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="467" spans="1:4" ht="21">
       <c r="A467" s="7" t="s">
@@ -7407,10 +8239,12 @@
       <c r="B467" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C467" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D467" s="2"/>
+      <c r="C467" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D467" s="2">
+        <v>58</v>
+      </c>
     </row>
     <row r="468" spans="1:4" ht="21">
       <c r="A468" s="7" t="s">
@@ -7419,10 +8253,12 @@
       <c r="B468" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C468" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D468" s="2"/>
+      <c r="C468" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D468" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="469" spans="1:4" ht="21">
       <c r="A469" s="7" t="s">
@@ -7431,10 +8267,12 @@
       <c r="B469" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C469" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D469" s="2"/>
+      <c r="C469" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D469" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="470" spans="1:4" ht="21">
       <c r="A470" s="2"/>
@@ -7455,10 +8293,12 @@
       <c r="B472" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C472" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D472" s="2"/>
+      <c r="C472" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D472" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="473" spans="1:4" ht="21">
       <c r="A473" s="7" t="s">
@@ -7467,10 +8307,12 @@
       <c r="B473" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="C473" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D473" s="2"/>
+      <c r="C473" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D473" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="474" spans="1:4" ht="21">
       <c r="A474" s="7" t="s">
@@ -7479,10 +8321,12 @@
       <c r="B474" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C474" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D474" s="2"/>
+      <c r="C474" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D474" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="475" spans="1:4" ht="21">
       <c r="A475" s="7" t="s">
@@ -7491,10 +8335,12 @@
       <c r="B475" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="C475" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D475" s="2"/>
+      <c r="C475" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D475" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="476" spans="1:4" ht="21">
       <c r="A476" s="7" t="s">
@@ -7503,10 +8349,12 @@
       <c r="B476" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C476" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D476" s="2"/>
+      <c r="C476" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D476" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="477" spans="1:4" ht="21">
       <c r="A477" s="7" t="s">
@@ -7515,10 +8363,12 @@
       <c r="B477" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C477" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D477" s="2"/>
+      <c r="C477" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D477" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="478" spans="1:4" ht="21">
       <c r="A478" s="7" t="s">
@@ -7527,10 +8377,12 @@
       <c r="B478" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C478" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D478" s="2"/>
+      <c r="C478" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D478" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="479" spans="1:4" ht="21">
       <c r="A479" s="7" t="s">
@@ -7539,10 +8391,12 @@
       <c r="B479" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C479" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D479" s="2"/>
+      <c r="C479" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D479" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="480" spans="1:4" ht="21">
       <c r="A480" s="7" t="s">
@@ -7551,10 +8405,12 @@
       <c r="B480" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="C480" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D480" s="2"/>
+      <c r="C480" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D480" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="481" spans="1:4" ht="21">
       <c r="A481" s="7" t="s">
@@ -7563,10 +8419,12 @@
       <c r="B481" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="C481" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D481" s="2"/>
+      <c r="C481" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D481" s="2">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C1B6E2-2480-4CB6-9F40-78A29B3AF67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B05B34-0AB8-41F2-BF08-25B574FA3F46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1428,10 +1428,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>stuck</t>
-  </si>
-  <si>
     <t>need to rethink</t>
+  </si>
+  <si>
+    <t>attempting…</t>
   </si>
 </sst>
 </file>
@@ -1936,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1945,6 +1945,7 @@
     <col min="1" max="1" width="24.8984375" customWidth="1"/>
     <col min="2" max="2" width="116.69921875" customWidth="1"/>
     <col min="3" max="3" width="19.8984375" customWidth="1"/>
+    <col min="4" max="4" width="5.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
@@ -2103,8 +2104,8 @@
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>467</v>
+      <c r="C14" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D14" s="2">
         <v>9</v>
@@ -2118,7 +2119,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D15" s="2">
         <v>10</v>
@@ -2131,8 +2132,8 @@
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>4</v>
+      <c r="C16" s="14" t="s">
+        <v>468</v>
       </c>
       <c r="D16" s="2">
         <v>11</v>
@@ -2145,8 +2146,8 @@
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>4</v>
+      <c r="C17" s="14" t="s">
+        <v>468</v>
       </c>
       <c r="D17" s="2">
         <v>12</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B05B34-0AB8-41F2-BF08-25B574FA3F46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C437C8-D3BA-4612-A711-58A0417F35CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1428,10 +1428,17 @@
     <t>*</t>
   </si>
   <si>
-    <t>need to rethink</t>
-  </si>
-  <si>
-    <t>attempting…</t>
+    <t>need to understand correctness of linear solution</t>
+  </si>
+  <si>
+    <t>need to understand core problem: start of loop in linked list,
+reconsider the mathematical proof</t>
+  </si>
+  <si>
+    <t>need correctness intuition for reodering algorithm</t>
+  </si>
+  <si>
+    <t>need to optimize for space complexity</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1589,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1615,6 +1622,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1936,15 +1955,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="24.8984375" customWidth="1"/>
-    <col min="2" max="2" width="116.69921875" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.69921875" customWidth="1"/>
+    <col min="3" max="3" width="47.8984375" customWidth="1"/>
     <col min="4" max="4" width="5.296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2125,17 +2144,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:4" ht="40.799999999999997" customHeight="1">
+      <c r="A16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="17">
         <v>11</v>
       </c>
     </row>
@@ -2147,7 +2166,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D17" s="2">
         <v>12</v>
@@ -2160,8 +2179,8 @@
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>4</v>
+      <c r="C18" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D18" s="2">
         <v>13</v>
@@ -2174,8 +2193,8 @@
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>4</v>
+      <c r="C19" s="14" t="s">
+        <v>470</v>
       </c>
       <c r="D19" s="2">
         <v>14</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C437C8-D3BA-4612-A711-58A0417F35CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B25D40-BE9B-4D2E-9419-18FD03119B96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1956,7 +1956,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2207,8 +2207,8 @@
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>4</v>
+      <c r="C20" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D20" s="2">
         <v>15</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B25D40-BE9B-4D2E-9419-18FD03119B96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4121F5BA-9DA8-4272-A037-B82D085895DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1956,7 +1956,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2221,8 +2221,8 @@
       <c r="B21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>4</v>
+      <c r="C21" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D21" s="2">
         <v>16</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4121F5BA-9DA8-4272-A037-B82D085895DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A6F41F0-983B-4A16-A609-0DD2F3FE593E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1955,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A6F41F0-983B-4A16-A609-0DD2F3FE593E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0539AC1-664D-4E72-9BB3-99EC1239C137}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1955,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2235,8 +2235,8 @@
       <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>4</v>
+      <c r="C22" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D22" s="2">
         <v>17</v>
@@ -2249,8 +2249,8 @@
       <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>4</v>
+      <c r="C23" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D23" s="2">
         <v>18</v>
@@ -2263,8 +2263,8 @@
       <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>4</v>
+      <c r="C24" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D24" s="2">
         <v>19</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0539AC1-664D-4E72-9BB3-99EC1239C137}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A40B5F2-2FB0-4F8A-BED2-8EDA2C9D7BF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1955,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2291,8 +2291,8 @@
       <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>4</v>
+      <c r="C26" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D26" s="2">
         <v>21</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A40B5F2-2FB0-4F8A-BED2-8EDA2C9D7BF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DDFCCA-6261-427C-B390-748CDB5431BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1955,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2403,8 +2404,8 @@
       <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>4</v>
+      <c r="C34" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D34" s="2">
         <v>29</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DDFCCA-6261-427C-B390-748CDB5431BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01538678-E00E-4C97-AC0A-B0777B29BD76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1957,7 +1956,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2306,8 +2305,8 @@
       <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>4</v>
+      <c r="C27" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D27" s="2">
         <v>22</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01538678-E00E-4C97-AC0A-B0777B29BD76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B924C2FA-8708-4BAA-ADE8-285300439316}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1439,6 +1439,9 @@
   </si>
   <si>
     <t>need to optimize for space complexity</t>
+  </si>
+  <si>
+    <t>done in qudratic time</t>
   </si>
 </sst>
 </file>
@@ -1955,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2277,8 +2280,8 @@
       <c r="B25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>4</v>
+      <c r="C25" s="14" t="s">
+        <v>471</v>
       </c>
       <c r="D25" s="2">
         <v>20</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B924C2FA-8708-4BAA-ADE8-285300439316}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B677FD-ABA1-482A-ABF7-15D38D915DAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1632,11 +1632,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1958,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1968,6 +1968,7 @@
     <col min="2" max="2" width="103.69921875" customWidth="1"/>
     <col min="3" max="3" width="47.8984375" customWidth="1"/>
     <col min="4" max="4" width="5.296875" customWidth="1"/>
+    <col min="5" max="5" width="99.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
@@ -2017,7 +2018,7 @@
       <c r="C6" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2031,7 +2032,7 @@
       <c r="C7" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2045,7 +2046,7 @@
       <c r="C8" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2059,7 +2060,7 @@
       <c r="C9" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2073,7 +2074,7 @@
       <c r="C10" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>5</v>
       </c>
     </row>
@@ -2087,7 +2088,7 @@
       <c r="C11" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>6</v>
       </c>
     </row>
@@ -2101,7 +2102,7 @@
       <c r="C12" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>7</v>
       </c>
     </row>
@@ -2115,7 +2116,7 @@
       <c r="C13" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>8</v>
       </c>
     </row>
@@ -2129,7 +2130,7 @@
       <c r="C14" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2143,7 +2144,7 @@
       <c r="C15" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="6">
         <v>10</v>
       </c>
     </row>
@@ -2154,10 +2155,10 @@
       <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="18">
         <v>11</v>
       </c>
     </row>
@@ -2171,7 +2172,7 @@
       <c r="C17" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="6">
         <v>12</v>
       </c>
     </row>
@@ -2185,7 +2186,7 @@
       <c r="C18" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="6">
         <v>13</v>
       </c>
     </row>
@@ -2199,7 +2200,7 @@
       <c r="C19" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="6">
         <v>14</v>
       </c>
     </row>
@@ -2213,7 +2214,7 @@
       <c r="C20" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="6">
         <v>15</v>
       </c>
     </row>
@@ -2227,7 +2228,7 @@
       <c r="C21" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2241,7 +2242,7 @@
       <c r="C22" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="6">
         <v>17</v>
       </c>
     </row>
@@ -2255,7 +2256,7 @@
       <c r="C23" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="6">
         <v>18</v>
       </c>
     </row>
@@ -2269,7 +2270,7 @@
       <c r="C24" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="6">
         <v>19</v>
       </c>
     </row>
@@ -2283,7 +2284,7 @@
       <c r="C25" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="6">
         <v>20</v>
       </c>
     </row>
@@ -2297,7 +2298,7 @@
       <c r="C26" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="6">
         <v>21</v>
       </c>
     </row>
@@ -2311,7 +2312,7 @@
       <c r="C27" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="6">
         <v>22</v>
       </c>
     </row>
@@ -2322,10 +2323,10 @@
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D28" s="6">
         <v>23</v>
       </c>
     </row>
@@ -2336,10 +2337,10 @@
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D29" s="6">
         <v>24</v>
       </c>
     </row>
@@ -2353,7 +2354,7 @@
       <c r="C30" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="6">
         <v>25</v>
       </c>
     </row>
@@ -2367,7 +2368,7 @@
       <c r="C31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="6">
         <v>26</v>
       </c>
     </row>
@@ -2381,7 +2382,7 @@
       <c r="C32" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="6">
         <v>27</v>
       </c>
     </row>
@@ -2395,7 +2396,7 @@
       <c r="C33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="6">
         <v>28</v>
       </c>
     </row>
@@ -2409,7 +2410,7 @@
       <c r="C34" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="6">
         <v>29</v>
       </c>
     </row>
@@ -2423,7 +2424,7 @@
       <c r="C35" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="6">
         <v>30</v>
       </c>
     </row>
@@ -2437,7 +2438,7 @@
       <c r="C36" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="6">
         <v>31</v>
       </c>
     </row>
@@ -2451,7 +2452,7 @@
       <c r="C37" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="6">
         <v>32</v>
       </c>
     </row>
@@ -2465,7 +2466,7 @@
       <c r="C38" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="6">
         <v>33</v>
       </c>
     </row>
@@ -2479,7 +2480,7 @@
       <c r="C39" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="6">
         <v>34</v>
       </c>
     </row>
@@ -2493,7 +2494,7 @@
       <c r="C40" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="6">
         <v>35</v>
       </c>
     </row>
@@ -2507,7 +2508,7 @@
       <c r="C41" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="6">
         <v>36</v>
       </c>
     </row>
@@ -2515,7 +2516,7 @@
       <c r="A42" s="2"/>
       <c r="B42" s="9"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="6" t="s">
         <v>466</v>
       </c>
     </row>
@@ -2523,7 +2524,7 @@
       <c r="A43" s="7"/>
       <c r="B43" s="9"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" ht="21">
       <c r="A44" s="10" t="s">
@@ -2535,7 +2536,7 @@
       <c r="C44" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2549,7 +2550,7 @@
       <c r="C45" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2563,7 +2564,7 @@
       <c r="C46" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2577,7 +2578,7 @@
       <c r="C47" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2591,7 +2592,7 @@
       <c r="C48" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="6">
         <v>5</v>
       </c>
     </row>
@@ -2605,7 +2606,7 @@
       <c r="C49" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="6">
         <v>6</v>
       </c>
     </row>
@@ -2619,7 +2620,7 @@
       <c r="C50" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="6">
         <v>7</v>
       </c>
     </row>
@@ -2633,7 +2634,7 @@
       <c r="C51" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="6">
         <v>8</v>
       </c>
     </row>
@@ -2647,7 +2648,7 @@
       <c r="C52" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2661,7 +2662,7 @@
       <c r="C53" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="6">
         <v>10</v>
       </c>
     </row>
@@ -2669,13 +2670,13 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" ht="21">
       <c r="A55" s="7"/>
       <c r="B55" s="9"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4" ht="21">
       <c r="A56" s="7" t="s">
@@ -2687,7 +2688,7 @@
       <c r="C56" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2701,7 +2702,7 @@
       <c r="C57" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2715,7 +2716,7 @@
       <c r="C58" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2729,7 +2730,7 @@
       <c r="C59" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2743,7 +2744,7 @@
       <c r="C60" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="6">
         <v>5</v>
       </c>
     </row>
@@ -2757,7 +2758,7 @@
       <c r="C61" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="6">
         <v>6</v>
       </c>
     </row>
@@ -2771,7 +2772,7 @@
       <c r="C62" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="6">
         <v>7</v>
       </c>
     </row>
@@ -2785,7 +2786,7 @@
       <c r="C63" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="6">
         <v>8</v>
       </c>
     </row>
@@ -2799,7 +2800,7 @@
       <c r="C64" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2813,7 +2814,7 @@
       <c r="C65" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="6">
         <v>10</v>
       </c>
     </row>
@@ -2827,7 +2828,7 @@
       <c r="C66" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2841,7 +2842,7 @@
       <c r="C67" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="6">
         <v>12</v>
       </c>
     </row>
@@ -2855,7 +2856,7 @@
       <c r="C68" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="6">
         <v>13</v>
       </c>
     </row>
@@ -2869,7 +2870,7 @@
       <c r="C69" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="6">
         <v>14</v>
       </c>
     </row>
@@ -2883,7 +2884,7 @@
       <c r="C70" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="6">
         <v>15</v>
       </c>
     </row>
@@ -2897,7 +2898,7 @@
       <c r="C71" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2911,7 +2912,7 @@
       <c r="C72" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="6">
         <v>17</v>
       </c>
     </row>
@@ -2925,7 +2926,7 @@
       <c r="C73" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="6">
         <v>18</v>
       </c>
     </row>
@@ -2939,7 +2940,7 @@
       <c r="C74" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="6">
         <v>19</v>
       </c>
     </row>
@@ -2953,7 +2954,7 @@
       <c r="C75" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="6">
         <v>20</v>
       </c>
     </row>
@@ -2967,7 +2968,7 @@
       <c r="C76" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="6">
         <v>21</v>
       </c>
     </row>
@@ -2981,7 +2982,7 @@
       <c r="C77" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="6">
         <v>22</v>
       </c>
     </row>
@@ -2995,7 +2996,7 @@
       <c r="C78" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="6">
         <v>23</v>
       </c>
     </row>
@@ -3009,7 +3010,7 @@
       <c r="C79" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="6">
         <v>24</v>
       </c>
     </row>
@@ -3023,7 +3024,7 @@
       <c r="C80" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="6">
         <v>25</v>
       </c>
     </row>
@@ -3037,7 +3038,7 @@
       <c r="C81" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="6">
         <v>26</v>
       </c>
     </row>
@@ -3051,7 +3052,7 @@
       <c r="C82" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="6">
         <v>27</v>
       </c>
     </row>
@@ -3065,7 +3066,7 @@
       <c r="C83" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="6">
         <v>28</v>
       </c>
     </row>
@@ -3079,7 +3080,7 @@
       <c r="C84" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="6">
         <v>29</v>
       </c>
     </row>
@@ -3093,7 +3094,7 @@
       <c r="C85" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="6">
         <v>30</v>
       </c>
     </row>
@@ -3107,7 +3108,7 @@
       <c r="C86" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="6">
         <v>31</v>
       </c>
     </row>
@@ -3121,7 +3122,7 @@
       <c r="C87" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="6">
         <v>32</v>
       </c>
     </row>
@@ -3135,7 +3136,7 @@
       <c r="C88" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="6">
         <v>33</v>
       </c>
     </row>
@@ -3149,7 +3150,7 @@
       <c r="C89" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="6">
         <v>34</v>
       </c>
     </row>
@@ -3163,7 +3164,7 @@
       <c r="C90" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="6">
         <v>35</v>
       </c>
     </row>
@@ -3177,7 +3178,7 @@
       <c r="C91" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="6">
         <v>36</v>
       </c>
     </row>
@@ -3191,7 +3192,7 @@
       <c r="C92" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="6">
         <v>37</v>
       </c>
     </row>
@@ -3205,7 +3206,7 @@
       <c r="C93" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="6">
         <v>38</v>
       </c>
     </row>
@@ -3219,7 +3220,7 @@
       <c r="C94" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="6">
         <v>39</v>
       </c>
     </row>
@@ -3233,7 +3234,7 @@
       <c r="C95" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="6">
         <v>40</v>
       </c>
     </row>
@@ -3247,7 +3248,7 @@
       <c r="C96" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="6">
         <v>41</v>
       </c>
     </row>
@@ -3261,7 +3262,7 @@
       <c r="C97" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="6">
         <v>42</v>
       </c>
     </row>
@@ -3275,7 +3276,7 @@
       <c r="C98" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="6">
         <v>43</v>
       </c>
     </row>
@@ -3283,13 +3284,13 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="6"/>
     </row>
     <row r="100" spans="1:4" ht="21">
       <c r="A100" s="10"/>
       <c r="B100" s="9"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="6"/>
     </row>
     <row r="101" spans="1:4" ht="21">
       <c r="A101" s="7" t="s">
@@ -3301,7 +3302,7 @@
       <c r="C101" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3315,7 +3316,7 @@
       <c r="C102" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3329,7 +3330,7 @@
       <c r="C103" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="6">
         <v>3</v>
       </c>
     </row>
@@ -3343,7 +3344,7 @@
       <c r="C104" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3357,7 +3358,7 @@
       <c r="C105" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="6">
         <v>5</v>
       </c>
     </row>
@@ -3371,7 +3372,7 @@
       <c r="C106" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="6">
         <v>6</v>
       </c>
     </row>
@@ -3385,7 +3386,7 @@
       <c r="C107" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="6">
         <v>7</v>
       </c>
     </row>
@@ -3399,7 +3400,7 @@
       <c r="C108" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="6">
         <v>8</v>
       </c>
     </row>
@@ -3413,7 +3414,7 @@
       <c r="C109" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="6">
         <v>9</v>
       </c>
     </row>
@@ -3427,7 +3428,7 @@
       <c r="C110" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="6">
         <v>10</v>
       </c>
     </row>
@@ -3441,7 +3442,7 @@
       <c r="C111" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3455,7 +3456,7 @@
       <c r="C112" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="6">
         <v>12</v>
       </c>
     </row>
@@ -3469,7 +3470,7 @@
       <c r="C113" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="6">
         <v>13</v>
       </c>
     </row>
@@ -3483,7 +3484,7 @@
       <c r="C114" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="6">
         <v>14</v>
       </c>
     </row>
@@ -3497,7 +3498,7 @@
       <c r="C115" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="6">
         <v>15</v>
       </c>
     </row>
@@ -3511,7 +3512,7 @@
       <c r="C116" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3525,7 +3526,7 @@
       <c r="C117" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="6">
         <v>17</v>
       </c>
     </row>
@@ -3539,7 +3540,7 @@
       <c r="C118" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="6">
         <v>18</v>
       </c>
     </row>
@@ -3553,7 +3554,7 @@
       <c r="C119" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="6">
         <v>19</v>
       </c>
     </row>
@@ -3567,7 +3568,7 @@
       <c r="C120" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="6">
         <v>20</v>
       </c>
     </row>
@@ -3581,7 +3582,7 @@
       <c r="C121" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="6">
         <v>21</v>
       </c>
     </row>
@@ -3595,7 +3596,7 @@
       <c r="C122" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="6">
         <v>22</v>
       </c>
     </row>
@@ -3609,7 +3610,7 @@
       <c r="C123" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="6">
         <v>23</v>
       </c>
     </row>
@@ -3623,7 +3624,7 @@
       <c r="C124" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="6">
         <v>24</v>
       </c>
     </row>
@@ -3637,7 +3638,7 @@
       <c r="C125" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="6">
         <v>25</v>
       </c>
     </row>
@@ -3651,7 +3652,7 @@
       <c r="C126" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="6">
         <v>26</v>
       </c>
     </row>
@@ -3665,7 +3666,7 @@
       <c r="C127" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="6">
         <v>27</v>
       </c>
     </row>
@@ -3679,7 +3680,7 @@
       <c r="C128" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="6">
         <v>28</v>
       </c>
     </row>
@@ -3693,7 +3694,7 @@
       <c r="C129" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="6">
         <v>29</v>
       </c>
     </row>
@@ -3707,7 +3708,7 @@
       <c r="C130" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="6">
         <v>30</v>
       </c>
     </row>
@@ -3721,7 +3722,7 @@
       <c r="C131" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="6">
         <v>31</v>
       </c>
     </row>
@@ -3735,7 +3736,7 @@
       <c r="C132" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="6">
         <v>32</v>
       </c>
     </row>
@@ -3749,7 +3750,7 @@
       <c r="C133" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="6">
         <v>33</v>
       </c>
     </row>
@@ -3763,7 +3764,7 @@
       <c r="C134" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="6">
         <v>34</v>
       </c>
     </row>
@@ -3777,7 +3778,7 @@
       <c r="C135" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="6">
         <v>35</v>
       </c>
     </row>
@@ -3791,7 +3792,7 @@
       <c r="C136" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="6">
         <v>36</v>
       </c>
     </row>
@@ -3799,13 +3800,13 @@
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4" ht="21">
       <c r="A138" s="2"/>
       <c r="B138" s="9"/>
       <c r="C138" s="6"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="6"/>
     </row>
     <row r="139" spans="1:4" ht="21">
       <c r="A139" s="10" t="s">
@@ -3817,7 +3818,7 @@
       <c r="C139" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3831,7 +3832,7 @@
       <c r="C140" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3845,7 +3846,7 @@
       <c r="C141" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="6">
         <v>3</v>
       </c>
     </row>
@@ -3859,7 +3860,7 @@
       <c r="C142" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3873,7 +3874,7 @@
       <c r="C143" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="6">
         <v>5</v>
       </c>
     </row>
@@ -3887,7 +3888,7 @@
       <c r="C144" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="6">
         <v>6</v>
       </c>
     </row>
@@ -3901,7 +3902,7 @@
       <c r="C145" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="6">
         <v>7</v>
       </c>
     </row>
@@ -3915,7 +3916,7 @@
       <c r="C146" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="6">
         <v>8</v>
       </c>
     </row>
@@ -3929,7 +3930,7 @@
       <c r="C147" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="6">
         <v>9</v>
       </c>
     </row>
@@ -3943,7 +3944,7 @@
       <c r="C148" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="6">
         <v>10</v>
       </c>
     </row>
@@ -3957,7 +3958,7 @@
       <c r="C149" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3971,7 +3972,7 @@
       <c r="C150" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="6">
         <v>12</v>
       </c>
     </row>
@@ -3985,7 +3986,7 @@
       <c r="C151" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="6">
         <v>13</v>
       </c>
     </row>
@@ -3999,7 +4000,7 @@
       <c r="C152" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="6">
         <v>14</v>
       </c>
     </row>
@@ -4013,7 +4014,7 @@
       <c r="C153" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="6">
         <v>15</v>
       </c>
     </row>
@@ -4027,7 +4028,7 @@
       <c r="C154" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4041,7 +4042,7 @@
       <c r="C155" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="6">
         <v>17</v>
       </c>
     </row>
@@ -4055,7 +4056,7 @@
       <c r="C156" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="6">
         <v>18</v>
       </c>
     </row>
@@ -4069,7 +4070,7 @@
       <c r="C157" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="6">
         <v>19</v>
       </c>
     </row>
@@ -4083,7 +4084,7 @@
       <c r="C158" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="6">
         <v>20</v>
       </c>
     </row>
@@ -4097,7 +4098,7 @@
       <c r="C159" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="6">
         <v>21</v>
       </c>
     </row>
@@ -4111,7 +4112,7 @@
       <c r="C160" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="6">
         <v>22</v>
       </c>
     </row>
@@ -4125,7 +4126,7 @@
       <c r="C161" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="6">
         <v>23</v>
       </c>
     </row>
@@ -4139,7 +4140,7 @@
       <c r="C162" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="6">
         <v>24</v>
       </c>
     </row>
@@ -4153,7 +4154,7 @@
       <c r="C163" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="6">
         <v>25</v>
       </c>
     </row>
@@ -4167,7 +4168,7 @@
       <c r="C164" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="6">
         <v>26</v>
       </c>
     </row>
@@ -4181,7 +4182,7 @@
       <c r="C165" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="6">
         <v>27</v>
       </c>
     </row>
@@ -4195,7 +4196,7 @@
       <c r="C166" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="6">
         <v>28</v>
       </c>
     </row>
@@ -4209,7 +4210,7 @@
       <c r="C167" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="6">
         <v>29</v>
       </c>
     </row>
@@ -4223,7 +4224,7 @@
       <c r="C168" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="6">
         <v>30</v>
       </c>
     </row>
@@ -4237,7 +4238,7 @@
       <c r="C169" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169" s="6">
         <v>31</v>
       </c>
     </row>
@@ -4251,7 +4252,7 @@
       <c r="C170" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="6">
         <v>32</v>
       </c>
     </row>
@@ -4265,7 +4266,7 @@
       <c r="C171" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="6">
         <v>33</v>
       </c>
     </row>
@@ -4279,7 +4280,7 @@
       <c r="C172" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172" s="6">
         <v>34</v>
       </c>
     </row>
@@ -4293,7 +4294,7 @@
       <c r="C173" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="6">
         <v>35</v>
       </c>
     </row>
@@ -4307,7 +4308,7 @@
       <c r="C174" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174" s="6">
         <v>36</v>
       </c>
     </row>
@@ -4315,13 +4316,13 @@
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+      <c r="D175" s="6"/>
     </row>
     <row r="176" spans="1:4" ht="21">
       <c r="A176" s="2"/>
       <c r="B176" s="9"/>
       <c r="C176" s="6"/>
-      <c r="D176" s="2"/>
+      <c r="D176" s="6"/>
     </row>
     <row r="177" spans="1:4" ht="21">
       <c r="A177" s="7" t="s">
@@ -4333,7 +4334,7 @@
       <c r="C177" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4347,7 +4348,7 @@
       <c r="C178" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="6">
         <v>2</v>
       </c>
     </row>
@@ -4361,7 +4362,7 @@
       <c r="C179" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179" s="6">
         <v>3</v>
       </c>
     </row>
@@ -4375,7 +4376,7 @@
       <c r="C180" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180" s="6">
         <v>4</v>
       </c>
     </row>
@@ -4389,7 +4390,7 @@
       <c r="C181" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181" s="6">
         <v>5</v>
       </c>
     </row>
@@ -4403,7 +4404,7 @@
       <c r="C182" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="6">
         <v>6</v>
       </c>
     </row>
@@ -4417,7 +4418,7 @@
       <c r="C183" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183" s="6">
         <v>7</v>
       </c>
     </row>
@@ -4431,7 +4432,7 @@
       <c r="C184" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184" s="6">
         <v>8</v>
       </c>
     </row>
@@ -4445,7 +4446,7 @@
       <c r="C185" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185" s="6">
         <v>9</v>
       </c>
     </row>
@@ -4459,7 +4460,7 @@
       <c r="C186" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186" s="6">
         <v>10</v>
       </c>
     </row>
@@ -4473,7 +4474,7 @@
       <c r="C187" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4487,7 +4488,7 @@
       <c r="C188" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188" s="6">
         <v>12</v>
       </c>
     </row>
@@ -4501,7 +4502,7 @@
       <c r="C189" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189" s="6">
         <v>13</v>
       </c>
     </row>
@@ -4515,7 +4516,7 @@
       <c r="C190" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190" s="6">
         <v>14</v>
       </c>
     </row>
@@ -4529,7 +4530,7 @@
       <c r="C191" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191" s="6">
         <v>15</v>
       </c>
     </row>
@@ -4543,7 +4544,7 @@
       <c r="C192" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4557,7 +4558,7 @@
       <c r="C193" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193" s="6">
         <v>17</v>
       </c>
     </row>
@@ -4571,7 +4572,7 @@
       <c r="C194" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="6">
         <v>18</v>
       </c>
     </row>
@@ -4585,7 +4586,7 @@
       <c r="C195" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195" s="6">
         <v>19</v>
       </c>
     </row>
@@ -4599,7 +4600,7 @@
       <c r="C196" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196" s="6">
         <v>20</v>
       </c>
     </row>
@@ -4613,7 +4614,7 @@
       <c r="C197" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197" s="6">
         <v>21</v>
       </c>
     </row>
@@ -4627,7 +4628,7 @@
       <c r="C198" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198" s="6">
         <v>22</v>
       </c>
     </row>
@@ -4641,7 +4642,7 @@
       <c r="C199" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199" s="6">
         <v>23</v>
       </c>
     </row>
@@ -4655,7 +4656,7 @@
       <c r="C200" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200" s="6">
         <v>24</v>
       </c>
     </row>
@@ -4669,7 +4670,7 @@
       <c r="C201" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201" s="6">
         <v>25</v>
       </c>
     </row>
@@ -4683,7 +4684,7 @@
       <c r="C202" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="6">
         <v>26</v>
       </c>
     </row>
@@ -4697,7 +4698,7 @@
       <c r="C203" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="6">
         <v>27</v>
       </c>
     </row>
@@ -4711,7 +4712,7 @@
       <c r="C204" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204" s="6">
         <v>28</v>
       </c>
     </row>
@@ -4725,7 +4726,7 @@
       <c r="C205" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205" s="6">
         <v>29</v>
       </c>
     </row>
@@ -4739,7 +4740,7 @@
       <c r="C206" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206" s="6">
         <v>30</v>
       </c>
     </row>
@@ -4753,7 +4754,7 @@
       <c r="C207" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207" s="6">
         <v>31</v>
       </c>
     </row>
@@ -4767,7 +4768,7 @@
       <c r="C208" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208" s="6">
         <v>32</v>
       </c>
     </row>
@@ -4781,7 +4782,7 @@
       <c r="C209" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209" s="6">
         <v>33</v>
       </c>
     </row>
@@ -4795,7 +4796,7 @@
       <c r="C210" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210" s="6">
         <v>34</v>
       </c>
     </row>
@@ -4809,7 +4810,7 @@
       <c r="C211" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211" s="6">
         <v>35</v>
       </c>
     </row>
@@ -4817,13 +4818,13 @@
       <c r="A212" s="10"/>
       <c r="B212" s="9"/>
       <c r="C212" s="6"/>
-      <c r="D212" s="2"/>
+      <c r="D212" s="6"/>
     </row>
     <row r="213" spans="1:4" ht="21">
       <c r="A213" s="10"/>
       <c r="B213" s="9"/>
       <c r="C213" s="6"/>
-      <c r="D213" s="2"/>
+      <c r="D213" s="6"/>
     </row>
     <row r="214" spans="1:4" ht="21">
       <c r="A214" s="7" t="s">
@@ -4835,7 +4836,7 @@
       <c r="C214" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4849,7 +4850,7 @@
       <c r="C215" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215" s="6">
         <v>2</v>
       </c>
     </row>
@@ -4863,7 +4864,7 @@
       <c r="C216" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D216" s="2">
+      <c r="D216" s="6">
         <v>3</v>
       </c>
     </row>
@@ -4877,7 +4878,7 @@
       <c r="C217" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217" s="6">
         <v>4</v>
       </c>
     </row>
@@ -4891,7 +4892,7 @@
       <c r="C218" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218" s="6">
         <v>5</v>
       </c>
     </row>
@@ -4905,7 +4906,7 @@
       <c r="C219" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219" s="6">
         <v>6</v>
       </c>
     </row>
@@ -4919,7 +4920,7 @@
       <c r="C220" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D220" s="6">
         <v>7</v>
       </c>
     </row>
@@ -4933,7 +4934,7 @@
       <c r="C221" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221" s="6">
         <v>8</v>
       </c>
     </row>
@@ -4947,7 +4948,7 @@
       <c r="C222" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222" s="6">
         <v>9</v>
       </c>
     </row>
@@ -4961,7 +4962,7 @@
       <c r="C223" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223" s="6">
         <v>10</v>
       </c>
     </row>
@@ -4975,7 +4976,7 @@
       <c r="C224" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4989,7 +4990,7 @@
       <c r="C225" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225" s="6">
         <v>12</v>
       </c>
     </row>
@@ -5003,7 +5004,7 @@
       <c r="C226" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226" s="6">
         <v>13</v>
       </c>
     </row>
@@ -5017,7 +5018,7 @@
       <c r="C227" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227" s="6">
         <v>14</v>
       </c>
     </row>
@@ -5031,7 +5032,7 @@
       <c r="C228" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228" s="6">
         <v>15</v>
       </c>
     </row>
@@ -5045,7 +5046,7 @@
       <c r="C229" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5059,7 +5060,7 @@
       <c r="C230" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D230" s="6">
         <v>17</v>
       </c>
     </row>
@@ -5073,7 +5074,7 @@
       <c r="C231" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231" s="6">
         <v>18</v>
       </c>
     </row>
@@ -5087,7 +5088,7 @@
       <c r="C232" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D232" s="6">
         <v>19</v>
       </c>
     </row>
@@ -5101,7 +5102,7 @@
       <c r="C233" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D233" s="6">
         <v>20</v>
       </c>
     </row>
@@ -5115,7 +5116,7 @@
       <c r="C234" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D234" s="6">
         <v>21</v>
       </c>
     </row>
@@ -5129,7 +5130,7 @@
       <c r="C235" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235" s="6">
         <v>22</v>
       </c>
     </row>
@@ -5137,13 +5138,13 @@
       <c r="A236" s="2"/>
       <c r="B236" s="9"/>
       <c r="C236" s="6"/>
-      <c r="D236" s="2"/>
+      <c r="D236" s="6"/>
     </row>
     <row r="237" spans="1:4" ht="21">
       <c r="A237" s="2"/>
       <c r="B237" s="9"/>
       <c r="C237" s="6"/>
-      <c r="D237" s="2"/>
+      <c r="D237" s="6"/>
     </row>
     <row r="238" spans="1:4" ht="21">
       <c r="A238" s="7" t="s">
@@ -5155,7 +5156,7 @@
       <c r="C238" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5169,7 +5170,7 @@
       <c r="C239" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239" s="6">
         <v>2</v>
       </c>
     </row>
@@ -5183,7 +5184,7 @@
       <c r="C240" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240" s="6">
         <v>3</v>
       </c>
     </row>
@@ -5197,7 +5198,7 @@
       <c r="C241" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241" s="6">
         <v>4</v>
       </c>
     </row>
@@ -5211,7 +5212,7 @@
       <c r="C242" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242" s="6">
         <v>5</v>
       </c>
     </row>
@@ -5225,7 +5226,7 @@
       <c r="C243" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243" s="6">
         <v>6</v>
       </c>
     </row>
@@ -5239,7 +5240,7 @@
       <c r="C244" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244" s="6">
         <v>7</v>
       </c>
     </row>
@@ -5253,7 +5254,7 @@
       <c r="C245" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D245" s="2">
+      <c r="D245" s="6">
         <v>8</v>
       </c>
     </row>
@@ -5267,7 +5268,7 @@
       <c r="C246" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246" s="6">
         <v>9</v>
       </c>
     </row>
@@ -5281,7 +5282,7 @@
       <c r="C247" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247" s="6">
         <v>10</v>
       </c>
     </row>
@@ -5295,7 +5296,7 @@
       <c r="C248" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5309,7 +5310,7 @@
       <c r="C249" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249" s="6">
         <v>12</v>
       </c>
     </row>
@@ -5323,7 +5324,7 @@
       <c r="C250" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D250" s="6">
         <v>13</v>
       </c>
     </row>
@@ -5337,7 +5338,7 @@
       <c r="C251" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251" s="6">
         <v>14</v>
       </c>
     </row>
@@ -5351,7 +5352,7 @@
       <c r="C252" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252" s="6">
         <v>15</v>
       </c>
     </row>
@@ -5365,7 +5366,7 @@
       <c r="C253" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5379,7 +5380,7 @@
       <c r="C254" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254" s="6">
         <v>17</v>
       </c>
     </row>
@@ -5393,7 +5394,7 @@
       <c r="C255" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255" s="6">
         <v>18</v>
       </c>
     </row>
@@ -5407,7 +5408,7 @@
       <c r="C256" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256" s="6">
         <v>19</v>
       </c>
     </row>
@@ -5421,7 +5422,7 @@
       <c r="C257" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257" s="6">
         <v>20</v>
       </c>
     </row>
@@ -5435,7 +5436,7 @@
       <c r="C258" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258" s="6">
         <v>21</v>
       </c>
     </row>
@@ -5449,7 +5450,7 @@
       <c r="C259" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259" s="6">
         <v>22</v>
       </c>
     </row>
@@ -5463,7 +5464,7 @@
       <c r="C260" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260" s="6">
         <v>23</v>
       </c>
     </row>
@@ -5477,7 +5478,7 @@
       <c r="C261" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261" s="6">
         <v>24</v>
       </c>
     </row>
@@ -5491,7 +5492,7 @@
       <c r="C262" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262" s="6">
         <v>25</v>
       </c>
     </row>
@@ -5505,7 +5506,7 @@
       <c r="C263" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263" s="6">
         <v>26</v>
       </c>
     </row>
@@ -5519,7 +5520,7 @@
       <c r="C264" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264" s="6">
         <v>27</v>
       </c>
     </row>
@@ -5533,7 +5534,7 @@
       <c r="C265" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265" s="6">
         <v>28</v>
       </c>
     </row>
@@ -5547,7 +5548,7 @@
       <c r="C266" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266" s="6">
         <v>29</v>
       </c>
     </row>
@@ -5561,7 +5562,7 @@
       <c r="C267" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267" s="6">
         <v>30</v>
       </c>
     </row>
@@ -5575,7 +5576,7 @@
       <c r="C268" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268" s="6">
         <v>31</v>
       </c>
     </row>
@@ -5589,7 +5590,7 @@
       <c r="C269" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269" s="6">
         <v>32</v>
       </c>
     </row>
@@ -5603,7 +5604,7 @@
       <c r="C270" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270" s="6">
         <v>33</v>
       </c>
     </row>
@@ -5617,7 +5618,7 @@
       <c r="C271" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271" s="6">
         <v>34</v>
       </c>
     </row>
@@ -5631,7 +5632,7 @@
       <c r="C272" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272" s="6">
         <v>35</v>
       </c>
     </row>
@@ -5639,13 +5640,13 @@
       <c r="A273" s="2"/>
       <c r="B273" s="9"/>
       <c r="C273" s="6"/>
-      <c r="D273" s="2"/>
+      <c r="D273" s="6"/>
     </row>
     <row r="274" spans="1:4" ht="21">
       <c r="A274" s="2"/>
       <c r="B274" s="9"/>
       <c r="C274" s="6"/>
-      <c r="D274" s="2"/>
+      <c r="D274" s="6"/>
     </row>
     <row r="275" spans="1:4" ht="21">
       <c r="A275" s="7" t="s">
@@ -5657,7 +5658,7 @@
       <c r="C275" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5671,7 +5672,7 @@
       <c r="C276" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D276" s="6">
         <v>2</v>
       </c>
     </row>
@@ -5685,7 +5686,7 @@
       <c r="C277" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D277" s="2">
+      <c r="D277" s="6">
         <v>3</v>
       </c>
     </row>
@@ -5699,7 +5700,7 @@
       <c r="C278" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D278" s="2">
+      <c r="D278" s="6">
         <v>4</v>
       </c>
     </row>
@@ -5713,7 +5714,7 @@
       <c r="C279" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D279" s="6">
         <v>5</v>
       </c>
     </row>
@@ -5727,7 +5728,7 @@
       <c r="C280" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D280" s="6">
         <v>6</v>
       </c>
     </row>
@@ -5741,7 +5742,7 @@
       <c r="C281" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D281" s="6">
         <v>7</v>
       </c>
     </row>
@@ -5755,7 +5756,7 @@
       <c r="C282" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D282" s="2">
+      <c r="D282" s="6">
         <v>8</v>
       </c>
     </row>
@@ -5769,7 +5770,7 @@
       <c r="C283" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D283" s="2">
+      <c r="D283" s="6">
         <v>9</v>
       </c>
     </row>
@@ -5783,7 +5784,7 @@
       <c r="C284" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D284" s="2">
+      <c r="D284" s="6">
         <v>10</v>
       </c>
     </row>
@@ -5797,7 +5798,7 @@
       <c r="C285" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D285" s="2">
+      <c r="D285" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5811,7 +5812,7 @@
       <c r="C286" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D286" s="2">
+      <c r="D286" s="6">
         <v>12</v>
       </c>
     </row>
@@ -5825,7 +5826,7 @@
       <c r="C287" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D287" s="2">
+      <c r="D287" s="6">
         <v>13</v>
       </c>
     </row>
@@ -5839,7 +5840,7 @@
       <c r="C288" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D288" s="2">
+      <c r="D288" s="6">
         <v>14</v>
       </c>
     </row>
@@ -5853,7 +5854,7 @@
       <c r="C289" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D289" s="2">
+      <c r="D289" s="6">
         <v>15</v>
       </c>
     </row>
@@ -5867,7 +5868,7 @@
       <c r="C290" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D290" s="2">
+      <c r="D290" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5881,7 +5882,7 @@
       <c r="C291" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291" s="6">
         <v>17</v>
       </c>
     </row>
@@ -5895,7 +5896,7 @@
       <c r="C292" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292" s="6">
         <v>18</v>
       </c>
     </row>
@@ -5909,7 +5910,7 @@
       <c r="C293" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D293" s="2">
+      <c r="D293" s="6">
         <v>19</v>
       </c>
     </row>
@@ -5917,13 +5918,13 @@
       <c r="A294" s="2"/>
       <c r="B294" s="9"/>
       <c r="C294" s="6"/>
-      <c r="D294" s="2"/>
+      <c r="D294" s="6"/>
     </row>
     <row r="295" spans="1:4" ht="21">
       <c r="A295" s="2"/>
       <c r="B295" s="9"/>
       <c r="C295" s="6"/>
-      <c r="D295" s="2"/>
+      <c r="D295" s="6"/>
     </row>
     <row r="296" spans="1:4" ht="21">
       <c r="A296" s="7" t="s">
@@ -5935,7 +5936,7 @@
       <c r="C296" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5949,7 +5950,7 @@
       <c r="C297" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297" s="6">
         <v>2</v>
       </c>
     </row>
@@ -5963,7 +5964,7 @@
       <c r="C298" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D298" s="2">
+      <c r="D298" s="6">
         <v>3</v>
       </c>
     </row>
@@ -5977,7 +5978,7 @@
       <c r="C299" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D299" s="2">
+      <c r="D299" s="6">
         <v>4</v>
       </c>
     </row>
@@ -5991,7 +5992,7 @@
       <c r="C300" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D300" s="2">
+      <c r="D300" s="6">
         <v>5</v>
       </c>
     </row>
@@ -6005,7 +6006,7 @@
       <c r="C301" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D301" s="2">
+      <c r="D301" s="6">
         <v>6</v>
       </c>
     </row>
@@ -6019,7 +6020,7 @@
       <c r="C302" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D302" s="2">
+      <c r="D302" s="6">
         <v>7</v>
       </c>
     </row>
@@ -6033,7 +6034,7 @@
       <c r="C303" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D303" s="2">
+      <c r="D303" s="6">
         <v>8</v>
       </c>
     </row>
@@ -6047,7 +6048,7 @@
       <c r="C304" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D304" s="2">
+      <c r="D304" s="6">
         <v>9</v>
       </c>
     </row>
@@ -6061,7 +6062,7 @@
       <c r="C305" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D305" s="6">
         <v>10</v>
       </c>
     </row>
@@ -6075,7 +6076,7 @@
       <c r="C306" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D306" s="2">
+      <c r="D306" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6089,7 +6090,7 @@
       <c r="C307" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D307" s="2">
+      <c r="D307" s="6">
         <v>12</v>
       </c>
     </row>
@@ -6103,7 +6104,7 @@
       <c r="C308" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D308" s="2">
+      <c r="D308" s="6">
         <v>13</v>
       </c>
     </row>
@@ -6117,7 +6118,7 @@
       <c r="C309" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D309" s="2">
+      <c r="D309" s="6">
         <v>14</v>
       </c>
     </row>
@@ -6131,7 +6132,7 @@
       <c r="C310" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D310" s="2">
+      <c r="D310" s="6">
         <v>15</v>
       </c>
     </row>
@@ -6145,7 +6146,7 @@
       <c r="C311" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D311" s="2">
+      <c r="D311" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6159,7 +6160,7 @@
       <c r="C312" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D312" s="2">
+      <c r="D312" s="6">
         <v>17</v>
       </c>
     </row>
@@ -6173,7 +6174,7 @@
       <c r="C313" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D313" s="2">
+      <c r="D313" s="6">
         <v>18</v>
       </c>
     </row>
@@ -6187,7 +6188,7 @@
       <c r="C314" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D314" s="2">
+      <c r="D314" s="6">
         <v>19</v>
       </c>
     </row>
@@ -6201,7 +6202,7 @@
       <c r="C315" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D315" s="2">
+      <c r="D315" s="6">
         <v>20</v>
       </c>
     </row>
@@ -6215,7 +6216,7 @@
       <c r="C316" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D316" s="2">
+      <c r="D316" s="6">
         <v>21</v>
       </c>
     </row>
@@ -6229,7 +6230,7 @@
       <c r="C317" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D317" s="2">
+      <c r="D317" s="6">
         <v>22</v>
       </c>
     </row>
@@ -6243,7 +6244,7 @@
       <c r="C318" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D318" s="2">
+      <c r="D318" s="6">
         <v>23</v>
       </c>
     </row>
@@ -6257,7 +6258,7 @@
       <c r="C319" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D319" s="2">
+      <c r="D319" s="6">
         <v>24</v>
       </c>
     </row>
@@ -6271,7 +6272,7 @@
       <c r="C320" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D320" s="2">
+      <c r="D320" s="6">
         <v>25</v>
       </c>
     </row>
@@ -6285,7 +6286,7 @@
       <c r="C321" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D321" s="2">
+      <c r="D321" s="6">
         <v>26</v>
       </c>
     </row>
@@ -6299,7 +6300,7 @@
       <c r="C322" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D322" s="2">
+      <c r="D322" s="6">
         <v>27</v>
       </c>
     </row>
@@ -6313,7 +6314,7 @@
       <c r="C323" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D323" s="2">
+      <c r="D323" s="6">
         <v>28</v>
       </c>
     </row>
@@ -6327,7 +6328,7 @@
       <c r="C324" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D324" s="2">
+      <c r="D324" s="6">
         <v>29</v>
       </c>
     </row>
@@ -6341,7 +6342,7 @@
       <c r="C325" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D325" s="2">
+      <c r="D325" s="6">
         <v>30</v>
       </c>
     </row>
@@ -6355,7 +6356,7 @@
       <c r="C326" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D326" s="2">
+      <c r="D326" s="6">
         <v>31</v>
       </c>
     </row>
@@ -6369,7 +6370,7 @@
       <c r="C327" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D327" s="2">
+      <c r="D327" s="6">
         <v>32</v>
       </c>
     </row>
@@ -6383,7 +6384,7 @@
       <c r="C328" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D328" s="2">
+      <c r="D328" s="6">
         <v>33</v>
       </c>
     </row>
@@ -6397,7 +6398,7 @@
       <c r="C329" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D329" s="2">
+      <c r="D329" s="6">
         <v>34</v>
       </c>
     </row>
@@ -6411,7 +6412,7 @@
       <c r="C330" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D330" s="2">
+      <c r="D330" s="6">
         <v>35</v>
       </c>
     </row>
@@ -6425,7 +6426,7 @@
       <c r="C331" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D331" s="2">
+      <c r="D331" s="6">
         <v>36</v>
       </c>
     </row>
@@ -6439,7 +6440,7 @@
       <c r="C332" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D332" s="2">
+      <c r="D332" s="6">
         <v>37</v>
       </c>
     </row>
@@ -6453,7 +6454,7 @@
       <c r="C333" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D333" s="2">
+      <c r="D333" s="6">
         <v>38</v>
       </c>
     </row>
@@ -6461,13 +6462,13 @@
       <c r="A334" s="2"/>
       <c r="B334" s="9"/>
       <c r="C334" s="6"/>
-      <c r="D334" s="2"/>
+      <c r="D334" s="6"/>
     </row>
     <row r="335" spans="1:4" ht="21">
       <c r="A335" s="2"/>
       <c r="B335" s="9"/>
       <c r="C335" s="6"/>
-      <c r="D335" s="2"/>
+      <c r="D335" s="6"/>
     </row>
     <row r="336" spans="1:4" ht="21">
       <c r="A336" s="10" t="s">
@@ -6479,7 +6480,7 @@
       <c r="C336" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D336" s="2">
+      <c r="D336" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6493,7 +6494,7 @@
       <c r="C337" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D337" s="2">
+      <c r="D337" s="6">
         <v>2</v>
       </c>
     </row>
@@ -6507,7 +6508,7 @@
       <c r="C338" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D338" s="2">
+      <c r="D338" s="6">
         <v>3</v>
       </c>
     </row>
@@ -6521,7 +6522,7 @@
       <c r="C339" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D339" s="2">
+      <c r="D339" s="6">
         <v>4</v>
       </c>
     </row>
@@ -6535,7 +6536,7 @@
       <c r="C340" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D340" s="2">
+      <c r="D340" s="6">
         <v>5</v>
       </c>
     </row>
@@ -6549,7 +6550,7 @@
       <c r="C341" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D341" s="2">
+      <c r="D341" s="6">
         <v>6</v>
       </c>
     </row>
@@ -6563,7 +6564,7 @@
       <c r="C342" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D342" s="2">
+      <c r="D342" s="6">
         <v>7</v>
       </c>
     </row>
@@ -6577,7 +6578,7 @@
       <c r="C343" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D343" s="2">
+      <c r="D343" s="6">
         <v>8</v>
       </c>
     </row>
@@ -6591,7 +6592,7 @@
       <c r="C344" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D344" s="2">
+      <c r="D344" s="6">
         <v>9</v>
       </c>
     </row>
@@ -6605,7 +6606,7 @@
       <c r="C345" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D345" s="2">
+      <c r="D345" s="6">
         <v>10</v>
       </c>
     </row>
@@ -6619,7 +6620,7 @@
       <c r="C346" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D346" s="2">
+      <c r="D346" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6633,7 +6634,7 @@
       <c r="C347" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D347" s="2">
+      <c r="D347" s="6">
         <v>12</v>
       </c>
     </row>
@@ -6647,7 +6648,7 @@
       <c r="C348" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D348" s="2">
+      <c r="D348" s="6">
         <v>13</v>
       </c>
     </row>
@@ -6661,7 +6662,7 @@
       <c r="C349" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D349" s="2">
+      <c r="D349" s="6">
         <v>14</v>
       </c>
     </row>
@@ -6675,7 +6676,7 @@
       <c r="C350" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D350" s="2">
+      <c r="D350" s="6">
         <v>15</v>
       </c>
     </row>
@@ -6689,7 +6690,7 @@
       <c r="C351" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D351" s="2">
+      <c r="D351" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6703,7 +6704,7 @@
       <c r="C352" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D352" s="2">
+      <c r="D352" s="6">
         <v>17</v>
       </c>
     </row>
@@ -6717,7 +6718,7 @@
       <c r="C353" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D353" s="2">
+      <c r="D353" s="6">
         <v>18</v>
       </c>
     </row>
@@ -6725,13 +6726,13 @@
       <c r="A354" s="2"/>
       <c r="B354" s="9"/>
       <c r="C354" s="6"/>
-      <c r="D354" s="2"/>
+      <c r="D354" s="6"/>
     </row>
     <row r="355" spans="1:4" ht="21">
       <c r="A355" s="2"/>
       <c r="B355" s="9"/>
       <c r="C355" s="6"/>
-      <c r="D355" s="2"/>
+      <c r="D355" s="6"/>
     </row>
     <row r="356" spans="1:4" ht="21">
       <c r="A356" s="10" t="s">
@@ -6743,7 +6744,7 @@
       <c r="C356" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D356" s="2">
+      <c r="D356" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6757,7 +6758,7 @@
       <c r="C357" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D357" s="2">
+      <c r="D357" s="6">
         <v>2</v>
       </c>
     </row>
@@ -6771,7 +6772,7 @@
       <c r="C358" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D358" s="2">
+      <c r="D358" s="6">
         <v>3</v>
       </c>
     </row>
@@ -6785,7 +6786,7 @@
       <c r="C359" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D359" s="2">
+      <c r="D359" s="6">
         <v>4</v>
       </c>
     </row>
@@ -6799,7 +6800,7 @@
       <c r="C360" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D360" s="2">
+      <c r="D360" s="6">
         <v>5</v>
       </c>
     </row>
@@ -6813,7 +6814,7 @@
       <c r="C361" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D361" s="2">
+      <c r="D361" s="6">
         <v>6</v>
       </c>
     </row>
@@ -6827,7 +6828,7 @@
       <c r="C362" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D362" s="2">
+      <c r="D362" s="6">
         <v>7</v>
       </c>
     </row>
@@ -6841,7 +6842,7 @@
       <c r="C363" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D363" s="2">
+      <c r="D363" s="6">
         <v>8</v>
       </c>
     </row>
@@ -6855,7 +6856,7 @@
       <c r="C364" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D364" s="2">
+      <c r="D364" s="6">
         <v>9</v>
       </c>
     </row>
@@ -6869,7 +6870,7 @@
       <c r="C365" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D365" s="2">
+      <c r="D365" s="6">
         <v>10</v>
       </c>
     </row>
@@ -6883,7 +6884,7 @@
       <c r="C366" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D366" s="2">
+      <c r="D366" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6897,7 +6898,7 @@
       <c r="C367" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D367" s="2">
+      <c r="D367" s="6">
         <v>12</v>
       </c>
     </row>
@@ -6911,7 +6912,7 @@
       <c r="C368" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D368" s="2">
+      <c r="D368" s="6">
         <v>13</v>
       </c>
     </row>
@@ -6925,7 +6926,7 @@
       <c r="C369" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D369" s="2">
+      <c r="D369" s="6">
         <v>14</v>
       </c>
     </row>
@@ -6939,7 +6940,7 @@
       <c r="C370" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D370" s="2">
+      <c r="D370" s="6">
         <v>15</v>
       </c>
     </row>
@@ -6953,7 +6954,7 @@
       <c r="C371" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D371" s="2">
+      <c r="D371" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6967,7 +6968,7 @@
       <c r="C372" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D372" s="2">
+      <c r="D372" s="6">
         <v>17</v>
       </c>
     </row>
@@ -6981,7 +6982,7 @@
       <c r="C373" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D373" s="2">
+      <c r="D373" s="6">
         <v>18</v>
       </c>
     </row>
@@ -6995,7 +6996,7 @@
       <c r="C374" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D374" s="2">
+      <c r="D374" s="6">
         <v>19</v>
       </c>
     </row>
@@ -7009,7 +7010,7 @@
       <c r="C375" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D375" s="2">
+      <c r="D375" s="6">
         <v>20</v>
       </c>
     </row>
@@ -7023,7 +7024,7 @@
       <c r="C376" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D376" s="2">
+      <c r="D376" s="6">
         <v>21</v>
       </c>
     </row>
@@ -7037,7 +7038,7 @@
       <c r="C377" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D377" s="2">
+      <c r="D377" s="6">
         <v>22</v>
       </c>
     </row>
@@ -7051,7 +7052,7 @@
       <c r="C378" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D378" s="2">
+      <c r="D378" s="6">
         <v>23</v>
       </c>
     </row>
@@ -7065,7 +7066,7 @@
       <c r="C379" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D379" s="2">
+      <c r="D379" s="6">
         <v>24</v>
       </c>
     </row>
@@ -7079,7 +7080,7 @@
       <c r="C380" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D380" s="2">
+      <c r="D380" s="6">
         <v>25</v>
       </c>
     </row>
@@ -7093,7 +7094,7 @@
       <c r="C381" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D381" s="2">
+      <c r="D381" s="6">
         <v>26</v>
       </c>
     </row>
@@ -7107,7 +7108,7 @@
       <c r="C382" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D382" s="2">
+      <c r="D382" s="6">
         <v>27</v>
       </c>
     </row>
@@ -7121,7 +7122,7 @@
       <c r="C383" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D383" s="2">
+      <c r="D383" s="6">
         <v>28</v>
       </c>
     </row>
@@ -7135,7 +7136,7 @@
       <c r="C384" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D384" s="2">
+      <c r="D384" s="6">
         <v>29</v>
       </c>
     </row>
@@ -7149,7 +7150,7 @@
       <c r="C385" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D385" s="2">
+      <c r="D385" s="6">
         <v>30</v>
       </c>
     </row>
@@ -7163,7 +7164,7 @@
       <c r="C386" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D386" s="2">
+      <c r="D386" s="6">
         <v>31</v>
       </c>
     </row>
@@ -7177,7 +7178,7 @@
       <c r="C387" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D387" s="2">
+      <c r="D387" s="6">
         <v>32</v>
       </c>
     </row>
@@ -7191,7 +7192,7 @@
       <c r="C388" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D388" s="2">
+      <c r="D388" s="6">
         <v>33</v>
       </c>
     </row>
@@ -7205,7 +7206,7 @@
       <c r="C389" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D389" s="2">
+      <c r="D389" s="6">
         <v>34</v>
       </c>
     </row>
@@ -7219,7 +7220,7 @@
       <c r="C390" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D390" s="2">
+      <c r="D390" s="6">
         <v>35</v>
       </c>
     </row>
@@ -7233,7 +7234,7 @@
       <c r="C391" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D391" s="2">
+      <c r="D391" s="6">
         <v>36</v>
       </c>
     </row>
@@ -7247,7 +7248,7 @@
       <c r="C392" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D392" s="2">
+      <c r="D392" s="6">
         <v>37</v>
       </c>
     </row>
@@ -7261,7 +7262,7 @@
       <c r="C393" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D393" s="2">
+      <c r="D393" s="6">
         <v>38</v>
       </c>
     </row>
@@ -7275,7 +7276,7 @@
       <c r="C394" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D394" s="2">
+      <c r="D394" s="6">
         <v>39</v>
       </c>
     </row>
@@ -7289,7 +7290,7 @@
       <c r="C395" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D395" s="2">
+      <c r="D395" s="6">
         <v>40</v>
       </c>
     </row>
@@ -7303,7 +7304,7 @@
       <c r="C396" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D396" s="2">
+      <c r="D396" s="6">
         <v>41</v>
       </c>
     </row>
@@ -7317,7 +7318,7 @@
       <c r="C397" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D397" s="2">
+      <c r="D397" s="6">
         <v>42</v>
       </c>
     </row>
@@ -7331,7 +7332,7 @@
       <c r="C398" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D398" s="2">
+      <c r="D398" s="6">
         <v>43</v>
       </c>
     </row>
@@ -7345,7 +7346,7 @@
       <c r="C399" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D399" s="2">
+      <c r="D399" s="6">
         <v>44</v>
       </c>
     </row>
@@ -7353,13 +7354,13 @@
       <c r="A400" s="2"/>
       <c r="B400" s="9"/>
       <c r="C400" s="6"/>
-      <c r="D400" s="2"/>
+      <c r="D400" s="6"/>
     </row>
     <row r="401" spans="1:4" ht="21">
       <c r="A401" s="2"/>
       <c r="B401" s="9"/>
       <c r="C401" s="6"/>
-      <c r="D401" s="2"/>
+      <c r="D401" s="6"/>
     </row>
     <row r="402" spans="1:4" ht="21">
       <c r="A402" s="10" t="s">
@@ -7371,7 +7372,7 @@
       <c r="C402" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D402" s="2">
+      <c r="D402" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7385,7 +7386,7 @@
       <c r="C403" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D403" s="2">
+      <c r="D403" s="6">
         <v>2</v>
       </c>
     </row>
@@ -7399,7 +7400,7 @@
       <c r="C404" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D404" s="2">
+      <c r="D404" s="6">
         <v>3</v>
       </c>
     </row>
@@ -7413,7 +7414,7 @@
       <c r="C405" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D405" s="2">
+      <c r="D405" s="6">
         <v>4</v>
       </c>
     </row>
@@ -7427,7 +7428,7 @@
       <c r="C406" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D406" s="2">
+      <c r="D406" s="6">
         <v>5</v>
       </c>
     </row>
@@ -7441,7 +7442,7 @@
       <c r="C407" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D407" s="2">
+      <c r="D407" s="6">
         <v>6</v>
       </c>
     </row>
@@ -7449,13 +7450,13 @@
       <c r="A408" s="2"/>
       <c r="B408" s="9"/>
       <c r="C408" s="6"/>
-      <c r="D408" s="2"/>
+      <c r="D408" s="6"/>
     </row>
     <row r="409" spans="1:4" ht="21">
       <c r="A409" s="2"/>
       <c r="B409" s="9"/>
       <c r="C409" s="6"/>
-      <c r="D409" s="2"/>
+      <c r="D409" s="6"/>
     </row>
     <row r="410" spans="1:4" ht="21">
       <c r="A410" s="7" t="s">
@@ -7467,7 +7468,7 @@
       <c r="C410" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D410" s="2">
+      <c r="D410" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7481,7 +7482,7 @@
       <c r="C411" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D411" s="2">
+      <c r="D411" s="6">
         <v>2</v>
       </c>
     </row>
@@ -7495,7 +7496,7 @@
       <c r="C412" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D412" s="2">
+      <c r="D412" s="6">
         <v>3</v>
       </c>
     </row>
@@ -7509,7 +7510,7 @@
       <c r="C413" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D413" s="2">
+      <c r="D413" s="6">
         <v>4</v>
       </c>
     </row>
@@ -7523,7 +7524,7 @@
       <c r="C414" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D414" s="2">
+      <c r="D414" s="6">
         <v>5</v>
       </c>
     </row>
@@ -7537,7 +7538,7 @@
       <c r="C415" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D415" s="2">
+      <c r="D415" s="6">
         <v>6</v>
       </c>
     </row>
@@ -7551,7 +7552,7 @@
       <c r="C416" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D416" s="2">
+      <c r="D416" s="6">
         <v>7</v>
       </c>
     </row>
@@ -7565,7 +7566,7 @@
       <c r="C417" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D417" s="2">
+      <c r="D417" s="6">
         <v>8</v>
       </c>
     </row>
@@ -7579,7 +7580,7 @@
       <c r="C418" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D418" s="2">
+      <c r="D418" s="6">
         <v>9</v>
       </c>
     </row>
@@ -7593,7 +7594,7 @@
       <c r="C419" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D419" s="2">
+      <c r="D419" s="6">
         <v>10</v>
       </c>
     </row>
@@ -7607,7 +7608,7 @@
       <c r="C420" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D420" s="2">
+      <c r="D420" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7621,7 +7622,7 @@
       <c r="C421" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D421" s="2">
+      <c r="D421" s="6">
         <v>12</v>
       </c>
     </row>
@@ -7635,7 +7636,7 @@
       <c r="C422" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D422" s="2">
+      <c r="D422" s="6">
         <v>13</v>
       </c>
     </row>
@@ -7649,7 +7650,7 @@
       <c r="C423" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D423" s="2">
+      <c r="D423" s="6">
         <v>14</v>
       </c>
     </row>
@@ -7663,7 +7664,7 @@
       <c r="C424" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D424" s="2">
+      <c r="D424" s="6">
         <v>15</v>
       </c>
     </row>
@@ -7677,7 +7678,7 @@
       <c r="C425" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D425" s="2">
+      <c r="D425" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7691,7 +7692,7 @@
       <c r="C426" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D426" s="2">
+      <c r="D426" s="6">
         <v>17</v>
       </c>
     </row>
@@ -7705,7 +7706,7 @@
       <c r="C427" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D427" s="2">
+      <c r="D427" s="6">
         <v>18</v>
       </c>
     </row>
@@ -7719,7 +7720,7 @@
       <c r="C428" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D428" s="2">
+      <c r="D428" s="6">
         <v>19</v>
       </c>
     </row>
@@ -7733,7 +7734,7 @@
       <c r="C429" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D429" s="2">
+      <c r="D429" s="6">
         <v>20</v>
       </c>
     </row>
@@ -7747,7 +7748,7 @@
       <c r="C430" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D430" s="2">
+      <c r="D430" s="6">
         <v>21</v>
       </c>
     </row>
@@ -7761,7 +7762,7 @@
       <c r="C431" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D431" s="2">
+      <c r="D431" s="6">
         <v>22</v>
       </c>
     </row>
@@ -7775,7 +7776,7 @@
       <c r="C432" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D432" s="2">
+      <c r="D432" s="6">
         <v>23</v>
       </c>
     </row>
@@ -7789,7 +7790,7 @@
       <c r="C433" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D433" s="2">
+      <c r="D433" s="6">
         <v>24</v>
       </c>
     </row>
@@ -7803,7 +7804,7 @@
       <c r="C434" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D434" s="2">
+      <c r="D434" s="6">
         <v>25</v>
       </c>
     </row>
@@ -7817,7 +7818,7 @@
       <c r="C435" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D435" s="2">
+      <c r="D435" s="6">
         <v>26</v>
       </c>
     </row>
@@ -7831,7 +7832,7 @@
       <c r="C436" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D436" s="2">
+      <c r="D436" s="6">
         <v>27</v>
       </c>
     </row>
@@ -7845,7 +7846,7 @@
       <c r="C437" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D437" s="2">
+      <c r="D437" s="6">
         <v>28</v>
       </c>
     </row>
@@ -7859,7 +7860,7 @@
       <c r="C438" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D438" s="2">
+      <c r="D438" s="6">
         <v>29</v>
       </c>
     </row>
@@ -7873,7 +7874,7 @@
       <c r="C439" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D439" s="2">
+      <c r="D439" s="6">
         <v>30</v>
       </c>
     </row>
@@ -7887,7 +7888,7 @@
       <c r="C440" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D440" s="2">
+      <c r="D440" s="6">
         <v>31</v>
       </c>
     </row>
@@ -7901,7 +7902,7 @@
       <c r="C441" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D441" s="2">
+      <c r="D441" s="6">
         <v>32</v>
       </c>
     </row>
@@ -7915,7 +7916,7 @@
       <c r="C442" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D442" s="2">
+      <c r="D442" s="6">
         <v>33</v>
       </c>
     </row>
@@ -7929,7 +7930,7 @@
       <c r="C443" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D443" s="2">
+      <c r="D443" s="6">
         <v>34</v>
       </c>
     </row>
@@ -7943,7 +7944,7 @@
       <c r="C444" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D444" s="2">
+      <c r="D444" s="6">
         <v>35</v>
       </c>
     </row>
@@ -7957,7 +7958,7 @@
       <c r="C445" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D445" s="2">
+      <c r="D445" s="6">
         <v>36</v>
       </c>
     </row>
@@ -7971,7 +7972,7 @@
       <c r="C446" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D446" s="2">
+      <c r="D446" s="6">
         <v>37</v>
       </c>
     </row>
@@ -7985,7 +7986,7 @@
       <c r="C447" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D447" s="2">
+      <c r="D447" s="6">
         <v>38</v>
       </c>
     </row>
@@ -7999,7 +8000,7 @@
       <c r="C448" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D448" s="2">
+      <c r="D448" s="6">
         <v>39</v>
       </c>
     </row>
@@ -8013,7 +8014,7 @@
       <c r="C449" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D449" s="2">
+      <c r="D449" s="6">
         <v>40</v>
       </c>
     </row>
@@ -8027,7 +8028,7 @@
       <c r="C450" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D450" s="2">
+      <c r="D450" s="6">
         <v>41</v>
       </c>
     </row>
@@ -8041,7 +8042,7 @@
       <c r="C451" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D451" s="2">
+      <c r="D451" s="6">
         <v>42</v>
       </c>
     </row>
@@ -8055,7 +8056,7 @@
       <c r="C452" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D452" s="2">
+      <c r="D452" s="6">
         <v>43</v>
       </c>
     </row>
@@ -8069,7 +8070,7 @@
       <c r="C453" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D453" s="2">
+      <c r="D453" s="6">
         <v>44</v>
       </c>
     </row>
@@ -8083,7 +8084,7 @@
       <c r="C454" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D454" s="2">
+      <c r="D454" s="6">
         <v>45</v>
       </c>
     </row>
@@ -8097,7 +8098,7 @@
       <c r="C455" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D455" s="2">
+      <c r="D455" s="6">
         <v>46</v>
       </c>
     </row>
@@ -8111,7 +8112,7 @@
       <c r="C456" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D456" s="2">
+      <c r="D456" s="6">
         <v>47</v>
       </c>
     </row>
@@ -8125,7 +8126,7 @@
       <c r="C457" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D457" s="2">
+      <c r="D457" s="6">
         <v>48</v>
       </c>
     </row>
@@ -8139,7 +8140,7 @@
       <c r="C458" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D458" s="2">
+      <c r="D458" s="6">
         <v>49</v>
       </c>
     </row>
@@ -8153,7 +8154,7 @@
       <c r="C459" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D459" s="2">
+      <c r="D459" s="6">
         <v>50</v>
       </c>
     </row>
@@ -8167,7 +8168,7 @@
       <c r="C460" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D460" s="2">
+      <c r="D460" s="6">
         <v>51</v>
       </c>
     </row>
@@ -8181,7 +8182,7 @@
       <c r="C461" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D461" s="2">
+      <c r="D461" s="6">
         <v>52</v>
       </c>
     </row>
@@ -8195,7 +8196,7 @@
       <c r="C462" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D462" s="2">
+      <c r="D462" s="6">
         <v>53</v>
       </c>
     </row>
@@ -8209,7 +8210,7 @@
       <c r="C463" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D463" s="2">
+      <c r="D463" s="6">
         <v>54</v>
       </c>
     </row>
@@ -8223,7 +8224,7 @@
       <c r="C464" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D464" s="2">
+      <c r="D464" s="6">
         <v>55</v>
       </c>
     </row>
@@ -8237,7 +8238,7 @@
       <c r="C465" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D465" s="2">
+      <c r="D465" s="6">
         <v>56</v>
       </c>
     </row>
@@ -8251,7 +8252,7 @@
       <c r="C466" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D466" s="2">
+      <c r="D466" s="6">
         <v>57</v>
       </c>
     </row>
@@ -8265,7 +8266,7 @@
       <c r="C467" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D467" s="2">
+      <c r="D467" s="6">
         <v>58</v>
       </c>
     </row>
@@ -8279,7 +8280,7 @@
       <c r="C468" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D468" s="2">
+      <c r="D468" s="6">
         <v>59</v>
       </c>
     </row>
@@ -8293,7 +8294,7 @@
       <c r="C469" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D469" s="2">
+      <c r="D469" s="6">
         <v>60</v>
       </c>
     </row>
@@ -8301,13 +8302,13 @@
       <c r="A470" s="2"/>
       <c r="B470" s="9"/>
       <c r="C470" s="6"/>
-      <c r="D470" s="2"/>
+      <c r="D470" s="6"/>
     </row>
     <row r="471" spans="1:4" ht="21">
       <c r="A471" s="10"/>
       <c r="B471" s="9"/>
       <c r="C471" s="6"/>
-      <c r="D471" s="2"/>
+      <c r="D471" s="6"/>
     </row>
     <row r="472" spans="1:4" ht="21">
       <c r="A472" s="7" t="s">
@@ -8319,7 +8320,7 @@
       <c r="C472" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D472" s="2">
+      <c r="D472" s="6">
         <v>1</v>
       </c>
     </row>
@@ -8333,7 +8334,7 @@
       <c r="C473" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D473" s="2">
+      <c r="D473" s="6">
         <v>2</v>
       </c>
     </row>
@@ -8347,7 +8348,7 @@
       <c r="C474" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D474" s="2">
+      <c r="D474" s="6">
         <v>3</v>
       </c>
     </row>
@@ -8361,7 +8362,7 @@
       <c r="C475" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D475" s="2">
+      <c r="D475" s="6">
         <v>4</v>
       </c>
     </row>
@@ -8375,7 +8376,7 @@
       <c r="C476" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D476" s="2">
+      <c r="D476" s="6">
         <v>5</v>
       </c>
     </row>
@@ -8389,7 +8390,7 @@
       <c r="C477" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D477" s="2">
+      <c r="D477" s="6">
         <v>6</v>
       </c>
     </row>
@@ -8403,7 +8404,7 @@
       <c r="C478" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D478" s="2">
+      <c r="D478" s="6">
         <v>7</v>
       </c>
     </row>
@@ -8417,7 +8418,7 @@
       <c r="C479" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D479" s="2">
+      <c r="D479" s="6">
         <v>8</v>
       </c>
     </row>
@@ -8431,7 +8432,7 @@
       <c r="C480" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D480" s="2">
+      <c r="D480" s="6">
         <v>9</v>
       </c>
     </row>
@@ -8445,7 +8446,7 @@
       <c r="C481" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D481" s="2">
+      <c r="D481" s="6">
         <v>10</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B677FD-ABA1-482A-ABF7-15D38D915DAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347C3381-27BB-468D-BFFC-9DF313A164AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1442,6 +1442,9 @@
   </si>
   <si>
     <t>done in qudratic time</t>
+  </si>
+  <si>
+    <t>solved with hashmap</t>
   </si>
 </sst>
 </file>
@@ -1958,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2351,8 +2354,8 @@
       <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>4</v>
+      <c r="C30" s="14" t="s">
+        <v>472</v>
       </c>
       <c r="D30" s="6">
         <v>25</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347C3381-27BB-468D-BFFC-9DF313A164AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0B5309-FA60-409D-8285-85B603BC719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1961,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2382,8 +2382,8 @@
       <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>4</v>
+      <c r="C32" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D32" s="6">
         <v>27</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0B5309-FA60-409D-8285-85B603BC719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46CFBD2-85A1-4399-B2C0-7DEE84E22E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1962,7 +1962,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2368,8 +2368,8 @@
       <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>4</v>
+      <c r="C31" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D31" s="6">
         <v>26</v>
@@ -2396,8 +2396,8 @@
       <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>4</v>
+      <c r="C33" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D33" s="6">
         <v>28</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46CFBD2-85A1-4399-B2C0-7DEE84E22E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B183F9-0AEB-41C3-AE98-887E0175DE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1961,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2424,8 +2424,8 @@
       <c r="B35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>4</v>
+      <c r="C35" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D35" s="6">
         <v>30</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B183F9-0AEB-41C3-AE98-887E0175DE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2379CF4-9930-47A7-BD8B-D33507369658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="474">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1445,6 +1445,9 @@
   </si>
   <si>
     <t>solved with hashmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1961,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2489,7 +2492,7 @@
     </row>
     <row r="40" spans="1:4" ht="21">
       <c r="A40" s="7" t="s">
-        <v>5</v>
+        <v>473</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>40</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2379CF4-9930-47A7-BD8B-D33507369658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DD0F3E-8A10-4029-BECA-47667BF7EA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t>Minimum no. of operations required to make an array palindrome</t>
   </si>
   <si>
     <t>Median of 2 sorted arrays of equal size</t>
@@ -1447,7 +1444,7 @@
     <t>solved with hashmap</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Minimum merge operations to make an array palindrome</t>
   </si>
 </sst>
 </file>
@@ -1964,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1985,7 +1982,7 @@
     <row r="2" spans="1:4">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2022,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -2036,7 +2033,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
@@ -2050,7 +2047,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
@@ -2064,7 +2061,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D9" s="6">
         <v>4</v>
@@ -2078,7 +2075,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D10" s="6">
         <v>5</v>
@@ -2092,7 +2089,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D11" s="6">
         <v>6</v>
@@ -2106,7 +2103,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D12" s="6">
         <v>7</v>
@@ -2120,7 +2117,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D13" s="6">
         <v>8</v>
@@ -2134,7 +2131,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D14" s="6">
         <v>9</v>
@@ -2148,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D15" s="6">
         <v>10</v>
@@ -2162,7 +2159,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D16" s="18">
         <v>11</v>
@@ -2176,7 +2173,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D17" s="6">
         <v>12</v>
@@ -2190,7 +2187,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D18" s="6">
         <v>13</v>
@@ -2204,7 +2201,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D19" s="6">
         <v>14</v>
@@ -2218,7 +2215,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D20" s="6">
         <v>15</v>
@@ -2232,7 +2229,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D21" s="6">
         <v>16</v>
@@ -2246,7 +2243,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D22" s="6">
         <v>17</v>
@@ -2260,7 +2257,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D23" s="6">
         <v>18</v>
@@ -2274,7 +2271,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D24" s="6">
         <v>19</v>
@@ -2288,7 +2285,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D25" s="6">
         <v>20</v>
@@ -2302,7 +2299,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D26" s="6">
         <v>21</v>
@@ -2316,7 +2313,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D27" s="6">
         <v>22</v>
@@ -2330,7 +2327,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D28" s="6">
         <v>23</v>
@@ -2344,7 +2341,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D29" s="6">
         <v>24</v>
@@ -2358,7 +2355,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D30" s="6">
         <v>25</v>
@@ -2372,7 +2369,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D31" s="6">
         <v>26</v>
@@ -2386,7 +2383,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D32" s="6">
         <v>27</v>
@@ -2400,7 +2397,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D33" s="6">
         <v>28</v>
@@ -2414,7 +2411,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D34" s="6">
         <v>29</v>
@@ -2428,7 +2425,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D35" s="6">
         <v>30</v>
@@ -2441,8 +2438,8 @@
       <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>4</v>
+      <c r="C36" s="12" t="s">
+        <v>464</v>
       </c>
       <c r="D36" s="6">
         <v>31</v>
@@ -2455,8 +2452,8 @@
       <c r="B37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>4</v>
+      <c r="C37" s="12" t="s">
+        <v>464</v>
       </c>
       <c r="D37" s="6">
         <v>32</v>
@@ -2469,8 +2466,8 @@
       <c r="B38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>4</v>
+      <c r="C38" s="12" t="s">
+        <v>464</v>
       </c>
       <c r="D38" s="6">
         <v>33</v>
@@ -2481,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>39</v>
+        <v>472</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>4</v>
@@ -2492,10 +2489,10 @@
     </row>
     <row r="40" spans="1:4" ht="21">
       <c r="A40" s="7" t="s">
-        <v>473</v>
+        <v>5</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>4</v>
@@ -2509,7 +2506,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>4</v>
@@ -2523,7 +2520,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="21">
@@ -2534,10 +2531,10 @@
     </row>
     <row r="44" spans="1:4" ht="21">
       <c r="A44" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>4</v>
@@ -2548,10 +2545,10 @@
     </row>
     <row r="45" spans="1:4" ht="21">
       <c r="A45" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>4</v>
@@ -2562,10 +2559,10 @@
     </row>
     <row r="46" spans="1:4" ht="21">
       <c r="A46" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>4</v>
@@ -2576,10 +2573,10 @@
     </row>
     <row r="47" spans="1:4" ht="21">
       <c r="A47" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>4</v>
@@ -2590,10 +2587,10 @@
     </row>
     <row r="48" spans="1:4" ht="21">
       <c r="A48" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>4</v>
@@ -2604,10 +2601,10 @@
     </row>
     <row r="49" spans="1:4" ht="21">
       <c r="A49" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>4</v>
@@ -2618,10 +2615,10 @@
     </row>
     <row r="50" spans="1:4" ht="21">
       <c r="A50" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>4</v>
@@ -2632,10 +2629,10 @@
     </row>
     <row r="51" spans="1:4" ht="21">
       <c r="A51" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>4</v>
@@ -2646,10 +2643,10 @@
     </row>
     <row r="52" spans="1:4" ht="21">
       <c r="A52" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>4</v>
@@ -2660,10 +2657,10 @@
     </row>
     <row r="53" spans="1:4" ht="21">
       <c r="A53" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>4</v>
@@ -2686,10 +2683,10 @@
     </row>
     <row r="56" spans="1:4" ht="21">
       <c r="A56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>4</v>
@@ -2700,10 +2697,10 @@
     </row>
     <row r="57" spans="1:4" ht="21">
       <c r="A57" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>4</v>
@@ -2714,10 +2711,10 @@
     </row>
     <row r="58" spans="1:4" ht="21">
       <c r="A58" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>4</v>
@@ -2728,10 +2725,10 @@
     </row>
     <row r="59" spans="1:4" ht="21">
       <c r="A59" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>4</v>
@@ -2742,10 +2739,10 @@
     </row>
     <row r="60" spans="1:4" ht="21">
       <c r="A60" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>4</v>
@@ -2756,10 +2753,10 @@
     </row>
     <row r="61" spans="1:4" ht="21">
       <c r="A61" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>4</v>
@@ -2770,10 +2767,10 @@
     </row>
     <row r="62" spans="1:4" ht="21">
       <c r="A62" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>4</v>
@@ -2784,10 +2781,10 @@
     </row>
     <row r="63" spans="1:4" ht="21">
       <c r="A63" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>4</v>
@@ -2798,10 +2795,10 @@
     </row>
     <row r="64" spans="1:4" ht="21">
       <c r="A64" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>4</v>
@@ -2812,10 +2809,10 @@
     </row>
     <row r="65" spans="1:4" ht="21">
       <c r="A65" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>4</v>
@@ -2826,10 +2823,10 @@
     </row>
     <row r="66" spans="1:4" ht="21">
       <c r="A66" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>4</v>
@@ -2840,10 +2837,10 @@
     </row>
     <row r="67" spans="1:4" ht="21">
       <c r="A67" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>4</v>
@@ -2854,10 +2851,10 @@
     </row>
     <row r="68" spans="1:4" ht="21">
       <c r="A68" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>4</v>
@@ -2868,10 +2865,10 @@
     </row>
     <row r="69" spans="1:4" ht="21">
       <c r="A69" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>4</v>
@@ -2882,10 +2879,10 @@
     </row>
     <row r="70" spans="1:4" ht="21">
       <c r="A70" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>4</v>
@@ -2896,10 +2893,10 @@
     </row>
     <row r="71" spans="1:4" ht="21">
       <c r="A71" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>4</v>
@@ -2910,10 +2907,10 @@
     </row>
     <row r="72" spans="1:4" ht="21">
       <c r="A72" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>4</v>
@@ -2924,10 +2921,10 @@
     </row>
     <row r="73" spans="1:4" ht="21">
       <c r="A73" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>4</v>
@@ -2938,10 +2935,10 @@
     </row>
     <row r="74" spans="1:4" ht="21">
       <c r="A74" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>4</v>
@@ -2952,10 +2949,10 @@
     </row>
     <row r="75" spans="1:4" ht="21">
       <c r="A75" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>4</v>
@@ -2966,10 +2963,10 @@
     </row>
     <row r="76" spans="1:4" ht="21">
       <c r="A76" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>4</v>
@@ -2980,10 +2977,10 @@
     </row>
     <row r="77" spans="1:4" ht="21">
       <c r="A77" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>4</v>
@@ -2994,10 +2991,10 @@
     </row>
     <row r="78" spans="1:4" ht="21">
       <c r="A78" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>4</v>
@@ -3008,10 +3005,10 @@
     </row>
     <row r="79" spans="1:4" ht="21">
       <c r="A79" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>4</v>
@@ -3022,10 +3019,10 @@
     </row>
     <row r="80" spans="1:4" ht="21">
       <c r="A80" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>4</v>
@@ -3036,10 +3033,10 @@
     </row>
     <row r="81" spans="1:4" ht="21">
       <c r="A81" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>4</v>
@@ -3050,10 +3047,10 @@
     </row>
     <row r="82" spans="1:4" ht="21">
       <c r="A82" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>4</v>
@@ -3064,10 +3061,10 @@
     </row>
     <row r="83" spans="1:4" ht="21">
       <c r="A83" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>4</v>
@@ -3078,10 +3075,10 @@
     </row>
     <row r="84" spans="1:4" ht="21">
       <c r="A84" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>4</v>
@@ -3092,10 +3089,10 @@
     </row>
     <row r="85" spans="1:4" ht="21">
       <c r="A85" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>4</v>
@@ -3106,10 +3103,10 @@
     </row>
     <row r="86" spans="1:4" ht="21">
       <c r="A86" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>4</v>
@@ -3120,10 +3117,10 @@
     </row>
     <row r="87" spans="1:4" ht="21">
       <c r="A87" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>4</v>
@@ -3134,10 +3131,10 @@
     </row>
     <row r="88" spans="1:4" ht="21">
       <c r="A88" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>4</v>
@@ -3148,10 +3145,10 @@
     </row>
     <row r="89" spans="1:4" ht="21">
       <c r="A89" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>4</v>
@@ -3162,10 +3159,10 @@
     </row>
     <row r="90" spans="1:4" ht="21">
       <c r="A90" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>4</v>
@@ -3176,10 +3173,10 @@
     </row>
     <row r="91" spans="1:4" ht="21">
       <c r="A91" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>4</v>
@@ -3190,10 +3187,10 @@
     </row>
     <row r="92" spans="1:4" ht="21">
       <c r="A92" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>4</v>
@@ -3204,10 +3201,10 @@
     </row>
     <row r="93" spans="1:4" ht="21">
       <c r="A93" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>4</v>
@@ -3218,10 +3215,10 @@
     </row>
     <row r="94" spans="1:4" ht="21">
       <c r="A94" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>4</v>
@@ -3232,10 +3229,10 @@
     </row>
     <row r="95" spans="1:4" ht="21">
       <c r="A95" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>4</v>
@@ -3246,10 +3243,10 @@
     </row>
     <row r="96" spans="1:4" ht="21">
       <c r="A96" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>4</v>
@@ -3260,10 +3257,10 @@
     </row>
     <row r="97" spans="1:4" ht="21">
       <c r="A97" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>4</v>
@@ -3274,10 +3271,10 @@
     </row>
     <row r="98" spans="1:4" ht="21">
       <c r="A98" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>4</v>
@@ -3300,10 +3297,10 @@
     </row>
     <row r="101" spans="1:4" ht="21">
       <c r="A101" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>4</v>
@@ -3314,10 +3311,10 @@
     </row>
     <row r="102" spans="1:4" ht="21">
       <c r="A102" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>4</v>
@@ -3328,10 +3325,10 @@
     </row>
     <row r="103" spans="1:4" ht="21">
       <c r="A103" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>4</v>
@@ -3342,10 +3339,10 @@
     </row>
     <row r="104" spans="1:4" ht="21">
       <c r="A104" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>4</v>
@@ -3356,10 +3353,10 @@
     </row>
     <row r="105" spans="1:4" ht="21">
       <c r="A105" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>4</v>
@@ -3370,10 +3367,10 @@
     </row>
     <row r="106" spans="1:4" ht="21">
       <c r="A106" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>4</v>
@@ -3384,10 +3381,10 @@
     </row>
     <row r="107" spans="1:4" ht="21">
       <c r="A107" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>4</v>
@@ -3398,10 +3395,10 @@
     </row>
     <row r="108" spans="1:4" ht="21">
       <c r="A108" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>4</v>
@@ -3412,10 +3409,10 @@
     </row>
     <row r="109" spans="1:4" ht="21">
       <c r="A109" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>4</v>
@@ -3426,10 +3423,10 @@
     </row>
     <row r="110" spans="1:4" ht="21">
       <c r="A110" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>4</v>
@@ -3440,10 +3437,10 @@
     </row>
     <row r="111" spans="1:4" ht="21">
       <c r="A111" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>4</v>
@@ -3454,10 +3451,10 @@
     </row>
     <row r="112" spans="1:4" ht="21">
       <c r="A112" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>4</v>
@@ -3468,10 +3465,10 @@
     </row>
     <row r="113" spans="1:4" ht="21">
       <c r="A113" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>4</v>
@@ -3482,10 +3479,10 @@
     </row>
     <row r="114" spans="1:4" ht="21">
       <c r="A114" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>4</v>
@@ -3496,10 +3493,10 @@
     </row>
     <row r="115" spans="1:4" ht="21">
       <c r="A115" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>4</v>
@@ -3510,10 +3507,10 @@
     </row>
     <row r="116" spans="1:4" ht="21">
       <c r="A116" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>4</v>
@@ -3524,10 +3521,10 @@
     </row>
     <row r="117" spans="1:4" ht="21">
       <c r="A117" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>4</v>
@@ -3538,10 +3535,10 @@
     </row>
     <row r="118" spans="1:4" ht="21">
       <c r="A118" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>4</v>
@@ -3552,10 +3549,10 @@
     </row>
     <row r="119" spans="1:4" ht="21">
       <c r="A119" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>4</v>
@@ -3566,10 +3563,10 @@
     </row>
     <row r="120" spans="1:4" ht="21">
       <c r="A120" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>4</v>
@@ -3580,10 +3577,10 @@
     </row>
     <row r="121" spans="1:4" ht="21">
       <c r="A121" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>4</v>
@@ -3594,10 +3591,10 @@
     </row>
     <row r="122" spans="1:4" ht="21">
       <c r="A122" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>4</v>
@@ -3608,10 +3605,10 @@
     </row>
     <row r="123" spans="1:4" ht="21">
       <c r="A123" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>4</v>
@@ -3622,10 +3619,10 @@
     </row>
     <row r="124" spans="1:4" ht="21">
       <c r="A124" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>4</v>
@@ -3636,10 +3633,10 @@
     </row>
     <row r="125" spans="1:4" ht="21">
       <c r="A125" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>4</v>
@@ -3650,10 +3647,10 @@
     </row>
     <row r="126" spans="1:4" ht="21">
       <c r="A126" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>4</v>
@@ -3664,10 +3661,10 @@
     </row>
     <row r="127" spans="1:4" ht="21">
       <c r="A127" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>4</v>
@@ -3678,10 +3675,10 @@
     </row>
     <row r="128" spans="1:4" ht="21">
       <c r="A128" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>4</v>
@@ -3692,10 +3689,10 @@
     </row>
     <row r="129" spans="1:4" ht="21">
       <c r="A129" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>4</v>
@@ -3706,10 +3703,10 @@
     </row>
     <row r="130" spans="1:4" ht="21">
       <c r="A130" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>4</v>
@@ -3720,10 +3717,10 @@
     </row>
     <row r="131" spans="1:4" ht="21">
       <c r="A131" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>4</v>
@@ -3734,10 +3731,10 @@
     </row>
     <row r="132" spans="1:4" ht="21">
       <c r="A132" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>4</v>
@@ -3748,10 +3745,10 @@
     </row>
     <row r="133" spans="1:4" ht="21">
       <c r="A133" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>4</v>
@@ -3762,10 +3759,10 @@
     </row>
     <row r="134" spans="1:4" ht="21">
       <c r="A134" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>4</v>
@@ -3776,10 +3773,10 @@
     </row>
     <row r="135" spans="1:4" ht="21">
       <c r="A135" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>4</v>
@@ -3790,10 +3787,10 @@
     </row>
     <row r="136" spans="1:4" ht="21">
       <c r="A136" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>4</v>
@@ -3816,10 +3813,10 @@
     </row>
     <row r="139" spans="1:4" ht="21">
       <c r="A139" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>4</v>
@@ -3830,10 +3827,10 @@
     </row>
     <row r="140" spans="1:4" ht="21">
       <c r="A140" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>4</v>
@@ -3844,10 +3841,10 @@
     </row>
     <row r="141" spans="1:4" ht="21">
       <c r="A141" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>4</v>
@@ -3858,10 +3855,10 @@
     </row>
     <row r="142" spans="1:4" ht="21">
       <c r="A142" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>4</v>
@@ -3872,10 +3869,10 @@
     </row>
     <row r="143" spans="1:4" ht="21">
       <c r="A143" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>4</v>
@@ -3886,10 +3883,10 @@
     </row>
     <row r="144" spans="1:4" ht="21">
       <c r="A144" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>4</v>
@@ -3900,10 +3897,10 @@
     </row>
     <row r="145" spans="1:4" ht="21">
       <c r="A145" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>4</v>
@@ -3914,10 +3911,10 @@
     </row>
     <row r="146" spans="1:4" ht="21">
       <c r="A146" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>4</v>
@@ -3928,10 +3925,10 @@
     </row>
     <row r="147" spans="1:4" ht="21">
       <c r="A147" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>4</v>
@@ -3942,10 +3939,10 @@
     </row>
     <row r="148" spans="1:4" ht="21">
       <c r="A148" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>4</v>
@@ -3956,10 +3953,10 @@
     </row>
     <row r="149" spans="1:4" ht="21">
       <c r="A149" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>4</v>
@@ -3970,10 +3967,10 @@
     </row>
     <row r="150" spans="1:4" ht="21">
       <c r="A150" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>4</v>
@@ -3984,10 +3981,10 @@
     </row>
     <row r="151" spans="1:4" ht="21">
       <c r="A151" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>4</v>
@@ -3998,10 +3995,10 @@
     </row>
     <row r="152" spans="1:4" ht="21">
       <c r="A152" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>4</v>
@@ -4012,10 +4009,10 @@
     </row>
     <row r="153" spans="1:4" ht="21">
       <c r="A153" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>4</v>
@@ -4026,10 +4023,10 @@
     </row>
     <row r="154" spans="1:4" ht="21">
       <c r="A154" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>4</v>
@@ -4040,10 +4037,10 @@
     </row>
     <row r="155" spans="1:4" ht="21">
       <c r="A155" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C155" s="13" t="s">
         <v>4</v>
@@ -4054,10 +4051,10 @@
     </row>
     <row r="156" spans="1:4" ht="21">
       <c r="A156" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>4</v>
@@ -4068,10 +4065,10 @@
     </row>
     <row r="157" spans="1:4" ht="21">
       <c r="A157" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>4</v>
@@ -4082,10 +4079,10 @@
     </row>
     <row r="158" spans="1:4" ht="21">
       <c r="A158" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>4</v>
@@ -4096,10 +4093,10 @@
     </row>
     <row r="159" spans="1:4" ht="21">
       <c r="A159" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>4</v>
@@ -4110,10 +4107,10 @@
     </row>
     <row r="160" spans="1:4" ht="21">
       <c r="A160" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>4</v>
@@ -4124,10 +4121,10 @@
     </row>
     <row r="161" spans="1:4" ht="21">
       <c r="A161" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>4</v>
@@ -4138,10 +4135,10 @@
     </row>
     <row r="162" spans="1:4" ht="21">
       <c r="A162" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>4</v>
@@ -4152,10 +4149,10 @@
     </row>
     <row r="163" spans="1:4" ht="21">
       <c r="A163" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>4</v>
@@ -4166,10 +4163,10 @@
     </row>
     <row r="164" spans="1:4" ht="21">
       <c r="A164" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>4</v>
@@ -4180,10 +4177,10 @@
     </row>
     <row r="165" spans="1:4" ht="21">
       <c r="A165" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C165" s="13" t="s">
         <v>4</v>
@@ -4194,10 +4191,10 @@
     </row>
     <row r="166" spans="1:4" ht="21">
       <c r="A166" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>4</v>
@@ -4208,10 +4205,10 @@
     </row>
     <row r="167" spans="1:4" ht="21">
       <c r="A167" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C167" s="13" t="s">
         <v>4</v>
@@ -4222,10 +4219,10 @@
     </row>
     <row r="168" spans="1:4" ht="21">
       <c r="A168" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>4</v>
@@ -4236,10 +4233,10 @@
     </row>
     <row r="169" spans="1:4" ht="21">
       <c r="A169" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C169" s="13" t="s">
         <v>4</v>
@@ -4250,10 +4247,10 @@
     </row>
     <row r="170" spans="1:4" ht="21">
       <c r="A170" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>4</v>
@@ -4264,10 +4261,10 @@
     </row>
     <row r="171" spans="1:4" ht="21">
       <c r="A171" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>4</v>
@@ -4278,10 +4275,10 @@
     </row>
     <row r="172" spans="1:4" ht="21">
       <c r="A172" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C172" s="13" t="s">
         <v>4</v>
@@ -4292,10 +4289,10 @@
     </row>
     <row r="173" spans="1:4" ht="21">
       <c r="A173" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>4</v>
@@ -4306,10 +4303,10 @@
     </row>
     <row r="174" spans="1:4" ht="21">
       <c r="A174" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>4</v>
@@ -4332,10 +4329,10 @@
     </row>
     <row r="177" spans="1:4" ht="21">
       <c r="A177" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>4</v>
@@ -4346,10 +4343,10 @@
     </row>
     <row r="178" spans="1:4" ht="21">
       <c r="A178" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C178" s="13" t="s">
         <v>4</v>
@@ -4360,10 +4357,10 @@
     </row>
     <row r="179" spans="1:4" ht="21">
       <c r="A179" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C179" s="13" t="s">
         <v>4</v>
@@ -4374,10 +4371,10 @@
     </row>
     <row r="180" spans="1:4" ht="21">
       <c r="A180" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>4</v>
@@ -4388,10 +4385,10 @@
     </row>
     <row r="181" spans="1:4" ht="21">
       <c r="A181" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C181" s="13" t="s">
         <v>4</v>
@@ -4402,10 +4399,10 @@
     </row>
     <row r="182" spans="1:4" ht="21">
       <c r="A182" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C182" s="13" t="s">
         <v>4</v>
@@ -4416,10 +4413,10 @@
     </row>
     <row r="183" spans="1:4" ht="21">
       <c r="A183" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C183" s="13" t="s">
         <v>4</v>
@@ -4430,10 +4427,10 @@
     </row>
     <row r="184" spans="1:4" ht="21">
       <c r="A184" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C184" s="13" t="s">
         <v>4</v>
@@ -4444,10 +4441,10 @@
     </row>
     <row r="185" spans="1:4" ht="21">
       <c r="A185" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>4</v>
@@ -4458,10 +4455,10 @@
     </row>
     <row r="186" spans="1:4" ht="21">
       <c r="A186" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>4</v>
@@ -4472,10 +4469,10 @@
     </row>
     <row r="187" spans="1:4" ht="21">
       <c r="A187" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C187" s="13" t="s">
         <v>4</v>
@@ -4486,10 +4483,10 @@
     </row>
     <row r="188" spans="1:4" ht="21">
       <c r="A188" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>4</v>
@@ -4500,10 +4497,10 @@
     </row>
     <row r="189" spans="1:4" ht="21">
       <c r="A189" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C189" s="13" t="s">
         <v>4</v>
@@ -4514,10 +4511,10 @@
     </row>
     <row r="190" spans="1:4" ht="21">
       <c r="A190" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C190" s="13" t="s">
         <v>4</v>
@@ -4528,10 +4525,10 @@
     </row>
     <row r="191" spans="1:4" ht="21">
       <c r="A191" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C191" s="13" t="s">
         <v>4</v>
@@ -4542,10 +4539,10 @@
     </row>
     <row r="192" spans="1:4" ht="21">
       <c r="A192" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C192" s="13" t="s">
         <v>4</v>
@@ -4556,10 +4553,10 @@
     </row>
     <row r="193" spans="1:4" ht="21">
       <c r="A193" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C193" s="13" t="s">
         <v>4</v>
@@ -4570,10 +4567,10 @@
     </row>
     <row r="194" spans="1:4" ht="21">
       <c r="A194" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C194" s="13" t="s">
         <v>4</v>
@@ -4584,10 +4581,10 @@
     </row>
     <row r="195" spans="1:4" ht="21">
       <c r="A195" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C195" s="13" t="s">
         <v>4</v>
@@ -4598,10 +4595,10 @@
     </row>
     <row r="196" spans="1:4" ht="21">
       <c r="A196" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C196" s="13" t="s">
         <v>4</v>
@@ -4612,10 +4609,10 @@
     </row>
     <row r="197" spans="1:4" ht="21">
       <c r="A197" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C197" s="13" t="s">
         <v>4</v>
@@ -4626,10 +4623,10 @@
     </row>
     <row r="198" spans="1:4" ht="21">
       <c r="A198" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C198" s="13" t="s">
         <v>4</v>
@@ -4640,10 +4637,10 @@
     </row>
     <row r="199" spans="1:4" ht="21">
       <c r="A199" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C199" s="13" t="s">
         <v>4</v>
@@ -4654,10 +4651,10 @@
     </row>
     <row r="200" spans="1:4" ht="21">
       <c r="A200" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C200" s="13" t="s">
         <v>4</v>
@@ -4668,10 +4665,10 @@
     </row>
     <row r="201" spans="1:4" ht="21">
       <c r="A201" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C201" s="13" t="s">
         <v>4</v>
@@ -4682,10 +4679,10 @@
     </row>
     <row r="202" spans="1:4" ht="21">
       <c r="A202" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C202" s="13" t="s">
         <v>4</v>
@@ -4696,10 +4693,10 @@
     </row>
     <row r="203" spans="1:4" ht="21">
       <c r="A203" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C203" s="13" t="s">
         <v>4</v>
@@ -4710,10 +4707,10 @@
     </row>
     <row r="204" spans="1:4" ht="21">
       <c r="A204" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C204" s="13" t="s">
         <v>4</v>
@@ -4724,10 +4721,10 @@
     </row>
     <row r="205" spans="1:4" ht="21">
       <c r="A205" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C205" s="13" t="s">
         <v>4</v>
@@ -4738,10 +4735,10 @@
     </row>
     <row r="206" spans="1:4" ht="21">
       <c r="A206" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C206" s="13" t="s">
         <v>4</v>
@@ -4752,10 +4749,10 @@
     </row>
     <row r="207" spans="1:4" ht="21">
       <c r="A207" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C207" s="13" t="s">
         <v>4</v>
@@ -4766,10 +4763,10 @@
     </row>
     <row r="208" spans="1:4" ht="21">
       <c r="A208" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>4</v>
@@ -4780,10 +4777,10 @@
     </row>
     <row r="209" spans="1:4" ht="21">
       <c r="A209" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>4</v>
@@ -4794,10 +4791,10 @@
     </row>
     <row r="210" spans="1:4" ht="21">
       <c r="A210" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C210" s="13" t="s">
         <v>4</v>
@@ -4808,10 +4805,10 @@
     </row>
     <row r="211" spans="1:4" ht="21">
       <c r="A211" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C211" s="13" t="s">
         <v>4</v>
@@ -4834,10 +4831,10 @@
     </row>
     <row r="214" spans="1:4" ht="21">
       <c r="A214" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B214" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>4</v>
@@ -4848,10 +4845,10 @@
     </row>
     <row r="215" spans="1:4" ht="21">
       <c r="A215" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C215" s="13" t="s">
         <v>4</v>
@@ -4862,10 +4859,10 @@
     </row>
     <row r="216" spans="1:4" ht="21">
       <c r="A216" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>4</v>
@@ -4876,10 +4873,10 @@
     </row>
     <row r="217" spans="1:4" ht="21">
       <c r="A217" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C217" s="13" t="s">
         <v>4</v>
@@ -4890,10 +4887,10 @@
     </row>
     <row r="218" spans="1:4" ht="21">
       <c r="A218" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C218" s="13" t="s">
         <v>4</v>
@@ -4904,10 +4901,10 @@
     </row>
     <row r="219" spans="1:4" ht="21">
       <c r="A219" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C219" s="13" t="s">
         <v>4</v>
@@ -4918,10 +4915,10 @@
     </row>
     <row r="220" spans="1:4" ht="21">
       <c r="A220" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C220" s="13" t="s">
         <v>4</v>
@@ -4932,10 +4929,10 @@
     </row>
     <row r="221" spans="1:4" ht="21">
       <c r="A221" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C221" s="13" t="s">
         <v>4</v>
@@ -4946,10 +4943,10 @@
     </row>
     <row r="222" spans="1:4" ht="21">
       <c r="A222" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>4</v>
@@ -4960,10 +4957,10 @@
     </row>
     <row r="223" spans="1:4" ht="21">
       <c r="A223" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>4</v>
@@ -4974,10 +4971,10 @@
     </row>
     <row r="224" spans="1:4" ht="21">
       <c r="A224" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C224" s="13" t="s">
         <v>4</v>
@@ -4988,10 +4985,10 @@
     </row>
     <row r="225" spans="1:4" ht="21">
       <c r="A225" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C225" s="13" t="s">
         <v>4</v>
@@ -5002,10 +4999,10 @@
     </row>
     <row r="226" spans="1:4" ht="21">
       <c r="A226" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C226" s="13" t="s">
         <v>4</v>
@@ -5016,10 +5013,10 @@
     </row>
     <row r="227" spans="1:4" ht="21">
       <c r="A227" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C227" s="13" t="s">
         <v>4</v>
@@ -5030,10 +5027,10 @@
     </row>
     <row r="228" spans="1:4" ht="21">
       <c r="A228" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>4</v>
@@ -5044,10 +5041,10 @@
     </row>
     <row r="229" spans="1:4" ht="21">
       <c r="A229" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C229" s="13" t="s">
         <v>4</v>
@@ -5058,10 +5055,10 @@
     </row>
     <row r="230" spans="1:4" ht="21">
       <c r="A230" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C230" s="13" t="s">
         <v>4</v>
@@ -5072,10 +5069,10 @@
     </row>
     <row r="231" spans="1:4" ht="21">
       <c r="A231" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C231" s="13" t="s">
         <v>4</v>
@@ -5086,10 +5083,10 @@
     </row>
     <row r="232" spans="1:4" ht="21">
       <c r="A232" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>4</v>
@@ -5100,10 +5097,10 @@
     </row>
     <row r="233" spans="1:4" ht="21">
       <c r="A233" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>4</v>
@@ -5114,10 +5111,10 @@
     </row>
     <row r="234" spans="1:4" ht="21">
       <c r="A234" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C234" s="13" t="s">
         <v>4</v>
@@ -5128,10 +5125,10 @@
     </row>
     <row r="235" spans="1:4" ht="21">
       <c r="A235" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C235" s="13" t="s">
         <v>4</v>
@@ -5154,10 +5151,10 @@
     </row>
     <row r="238" spans="1:4" ht="21">
       <c r="A238" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="C238" s="13" t="s">
         <v>4</v>
@@ -5168,10 +5165,10 @@
     </row>
     <row r="239" spans="1:4" ht="21">
       <c r="A239" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C239" s="13" t="s">
         <v>4</v>
@@ -5182,10 +5179,10 @@
     </row>
     <row r="240" spans="1:4" ht="21">
       <c r="A240" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C240" s="13" t="s">
         <v>4</v>
@@ -5196,10 +5193,10 @@
     </row>
     <row r="241" spans="1:4" ht="21">
       <c r="A241" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C241" s="13" t="s">
         <v>4</v>
@@ -5210,10 +5207,10 @@
     </row>
     <row r="242" spans="1:4" ht="21">
       <c r="A242" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C242" s="13" t="s">
         <v>4</v>
@@ -5224,10 +5221,10 @@
     </row>
     <row r="243" spans="1:4" ht="21">
       <c r="A243" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C243" s="13" t="s">
         <v>4</v>
@@ -5238,10 +5235,10 @@
     </row>
     <row r="244" spans="1:4" ht="21">
       <c r="A244" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C244" s="13" t="s">
         <v>4</v>
@@ -5252,10 +5249,10 @@
     </row>
     <row r="245" spans="1:4" ht="21">
       <c r="A245" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C245" s="13" t="s">
         <v>4</v>
@@ -5266,10 +5263,10 @@
     </row>
     <row r="246" spans="1:4" ht="21">
       <c r="A246" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C246" s="13" t="s">
         <v>4</v>
@@ -5280,10 +5277,10 @@
     </row>
     <row r="247" spans="1:4" ht="21">
       <c r="A247" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C247" s="13" t="s">
         <v>4</v>
@@ -5294,10 +5291,10 @@
     </row>
     <row r="248" spans="1:4" ht="21">
       <c r="A248" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C248" s="13" t="s">
         <v>4</v>
@@ -5308,10 +5305,10 @@
     </row>
     <row r="249" spans="1:4" ht="21">
       <c r="A249" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C249" s="13" t="s">
         <v>4</v>
@@ -5322,10 +5319,10 @@
     </row>
     <row r="250" spans="1:4" ht="21">
       <c r="A250" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C250" s="13" t="s">
         <v>4</v>
@@ -5336,10 +5333,10 @@
     </row>
     <row r="251" spans="1:4" ht="21">
       <c r="A251" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C251" s="13" t="s">
         <v>4</v>
@@ -5350,10 +5347,10 @@
     </row>
     <row r="252" spans="1:4" ht="21">
       <c r="A252" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C252" s="13" t="s">
         <v>4</v>
@@ -5364,10 +5361,10 @@
     </row>
     <row r="253" spans="1:4" ht="21">
       <c r="A253" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C253" s="13" t="s">
         <v>4</v>
@@ -5378,10 +5375,10 @@
     </row>
     <row r="254" spans="1:4" ht="21">
       <c r="A254" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C254" s="13" t="s">
         <v>4</v>
@@ -5392,10 +5389,10 @@
     </row>
     <row r="255" spans="1:4" ht="21">
       <c r="A255" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C255" s="13" t="s">
         <v>4</v>
@@ -5406,10 +5403,10 @@
     </row>
     <row r="256" spans="1:4" ht="21">
       <c r="A256" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C256" s="13" t="s">
         <v>4</v>
@@ -5420,10 +5417,10 @@
     </row>
     <row r="257" spans="1:4" ht="21">
       <c r="A257" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C257" s="13" t="s">
         <v>4</v>
@@ -5434,10 +5431,10 @@
     </row>
     <row r="258" spans="1:4" ht="21">
       <c r="A258" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C258" s="13" t="s">
         <v>4</v>
@@ -5448,10 +5445,10 @@
     </row>
     <row r="259" spans="1:4" ht="21">
       <c r="A259" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C259" s="13" t="s">
         <v>4</v>
@@ -5462,10 +5459,10 @@
     </row>
     <row r="260" spans="1:4" ht="21">
       <c r="A260" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C260" s="13" t="s">
         <v>4</v>
@@ -5476,10 +5473,10 @@
     </row>
     <row r="261" spans="1:4" ht="21">
       <c r="A261" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C261" s="13" t="s">
         <v>4</v>
@@ -5490,10 +5487,10 @@
     </row>
     <row r="262" spans="1:4" ht="21">
       <c r="A262" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C262" s="13" t="s">
         <v>4</v>
@@ -5504,10 +5501,10 @@
     </row>
     <row r="263" spans="1:4" ht="21">
       <c r="A263" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C263" s="13" t="s">
         <v>4</v>
@@ -5518,10 +5515,10 @@
     </row>
     <row r="264" spans="1:4" ht="21">
       <c r="A264" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C264" s="13" t="s">
         <v>4</v>
@@ -5532,10 +5529,10 @@
     </row>
     <row r="265" spans="1:4" ht="21">
       <c r="A265" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C265" s="13" t="s">
         <v>4</v>
@@ -5546,10 +5543,10 @@
     </row>
     <row r="266" spans="1:4" ht="21">
       <c r="A266" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C266" s="13" t="s">
         <v>4</v>
@@ -5560,10 +5557,10 @@
     </row>
     <row r="267" spans="1:4" ht="21">
       <c r="A267" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C267" s="13" t="s">
         <v>4</v>
@@ -5574,10 +5571,10 @@
     </row>
     <row r="268" spans="1:4" ht="21">
       <c r="A268" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C268" s="13" t="s">
         <v>4</v>
@@ -5588,10 +5585,10 @@
     </row>
     <row r="269" spans="1:4" ht="21">
       <c r="A269" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C269" s="13" t="s">
         <v>4</v>
@@ -5602,10 +5599,10 @@
     </row>
     <row r="270" spans="1:4" ht="21">
       <c r="A270" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C270" s="13" t="s">
         <v>4</v>
@@ -5616,10 +5613,10 @@
     </row>
     <row r="271" spans="1:4" ht="21">
       <c r="A271" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C271" s="13" t="s">
         <v>4</v>
@@ -5630,10 +5627,10 @@
     </row>
     <row r="272" spans="1:4" ht="21">
       <c r="A272" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C272" s="13" t="s">
         <v>4</v>
@@ -5656,10 +5653,10 @@
     </row>
     <row r="275" spans="1:4" ht="21">
       <c r="A275" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B275" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="C275" s="13" t="s">
         <v>4</v>
@@ -5670,10 +5667,10 @@
     </row>
     <row r="276" spans="1:4" ht="21">
       <c r="A276" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C276" s="13" t="s">
         <v>4</v>
@@ -5684,10 +5681,10 @@
     </row>
     <row r="277" spans="1:4" ht="21">
       <c r="A277" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C277" s="13" t="s">
         <v>4</v>
@@ -5698,10 +5695,10 @@
     </row>
     <row r="278" spans="1:4" ht="21">
       <c r="A278" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C278" s="13" t="s">
         <v>4</v>
@@ -5712,10 +5709,10 @@
     </row>
     <row r="279" spans="1:4" ht="21">
       <c r="A279" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C279" s="13" t="s">
         <v>4</v>
@@ -5726,10 +5723,10 @@
     </row>
     <row r="280" spans="1:4" ht="21">
       <c r="A280" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C280" s="13" t="s">
         <v>4</v>
@@ -5740,10 +5737,10 @@
     </row>
     <row r="281" spans="1:4" ht="21">
       <c r="A281" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C281" s="13" t="s">
         <v>4</v>
@@ -5754,10 +5751,10 @@
     </row>
     <row r="282" spans="1:4" ht="21">
       <c r="A282" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C282" s="13" t="s">
         <v>4</v>
@@ -5768,10 +5765,10 @@
     </row>
     <row r="283" spans="1:4" ht="21">
       <c r="A283" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C283" s="13" t="s">
         <v>4</v>
@@ -5782,10 +5779,10 @@
     </row>
     <row r="284" spans="1:4" ht="21">
       <c r="A284" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C284" s="13" t="s">
         <v>4</v>
@@ -5796,10 +5793,10 @@
     </row>
     <row r="285" spans="1:4" ht="21">
       <c r="A285" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C285" s="13" t="s">
         <v>4</v>
@@ -5810,10 +5807,10 @@
     </row>
     <row r="286" spans="1:4" ht="21">
       <c r="A286" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C286" s="13" t="s">
         <v>4</v>
@@ -5824,10 +5821,10 @@
     </row>
     <row r="287" spans="1:4" ht="21">
       <c r="A287" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C287" s="13" t="s">
         <v>4</v>
@@ -5838,10 +5835,10 @@
     </row>
     <row r="288" spans="1:4" ht="21">
       <c r="A288" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C288" s="13" t="s">
         <v>4</v>
@@ -5852,10 +5849,10 @@
     </row>
     <row r="289" spans="1:4" ht="21">
       <c r="A289" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C289" s="13" t="s">
         <v>4</v>
@@ -5866,10 +5863,10 @@
     </row>
     <row r="290" spans="1:4" ht="21">
       <c r="A290" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C290" s="13" t="s">
         <v>4</v>
@@ -5880,10 +5877,10 @@
     </row>
     <row r="291" spans="1:4" ht="21">
       <c r="A291" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C291" s="13" t="s">
         <v>4</v>
@@ -5894,10 +5891,10 @@
     </row>
     <row r="292" spans="1:4" ht="21">
       <c r="A292" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C292" s="13" t="s">
         <v>4</v>
@@ -5908,10 +5905,10 @@
     </row>
     <row r="293" spans="1:4" ht="21">
       <c r="A293" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C293" s="13" t="s">
         <v>4</v>
@@ -5934,10 +5931,10 @@
     </row>
     <row r="296" spans="1:4" ht="21">
       <c r="A296" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B296" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="B296" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="C296" s="13" t="s">
         <v>4</v>
@@ -5948,10 +5945,10 @@
     </row>
     <row r="297" spans="1:4" ht="21">
       <c r="A297" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C297" s="13" t="s">
         <v>4</v>
@@ -5962,10 +5959,10 @@
     </row>
     <row r="298" spans="1:4" ht="21">
       <c r="A298" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C298" s="13" t="s">
         <v>4</v>
@@ -5976,10 +5973,10 @@
     </row>
     <row r="299" spans="1:4" ht="21">
       <c r="A299" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C299" s="13" t="s">
         <v>4</v>
@@ -5990,10 +5987,10 @@
     </row>
     <row r="300" spans="1:4" ht="21">
       <c r="A300" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C300" s="13" t="s">
         <v>4</v>
@@ -6004,10 +6001,10 @@
     </row>
     <row r="301" spans="1:4" ht="21">
       <c r="A301" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C301" s="13" t="s">
         <v>4</v>
@@ -6018,10 +6015,10 @@
     </row>
     <row r="302" spans="1:4" ht="21">
       <c r="A302" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C302" s="13" t="s">
         <v>4</v>
@@ -6032,10 +6029,10 @@
     </row>
     <row r="303" spans="1:4" ht="21">
       <c r="A303" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C303" s="13" t="s">
         <v>4</v>
@@ -6046,10 +6043,10 @@
     </row>
     <row r="304" spans="1:4" ht="21">
       <c r="A304" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C304" s="13" t="s">
         <v>4</v>
@@ -6060,10 +6057,10 @@
     </row>
     <row r="305" spans="1:4" ht="21">
       <c r="A305" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C305" s="13" t="s">
         <v>4</v>
@@ -6074,10 +6071,10 @@
     </row>
     <row r="306" spans="1:4" ht="21">
       <c r="A306" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C306" s="13" t="s">
         <v>4</v>
@@ -6088,10 +6085,10 @@
     </row>
     <row r="307" spans="1:4" ht="21">
       <c r="A307" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C307" s="13" t="s">
         <v>4</v>
@@ -6102,10 +6099,10 @@
     </row>
     <row r="308" spans="1:4" ht="21">
       <c r="A308" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C308" s="13" t="s">
         <v>4</v>
@@ -6116,10 +6113,10 @@
     </row>
     <row r="309" spans="1:4" ht="21">
       <c r="A309" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C309" s="13" t="s">
         <v>4</v>
@@ -6130,10 +6127,10 @@
     </row>
     <row r="310" spans="1:4" ht="21">
       <c r="A310" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C310" s="13" t="s">
         <v>4</v>
@@ -6144,10 +6141,10 @@
     </row>
     <row r="311" spans="1:4" ht="21">
       <c r="A311" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C311" s="13" t="s">
         <v>4</v>
@@ -6158,10 +6155,10 @@
     </row>
     <row r="312" spans="1:4" ht="21">
       <c r="A312" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C312" s="13" t="s">
         <v>4</v>
@@ -6172,10 +6169,10 @@
     </row>
     <row r="313" spans="1:4" ht="21">
       <c r="A313" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C313" s="13" t="s">
         <v>4</v>
@@ -6186,10 +6183,10 @@
     </row>
     <row r="314" spans="1:4" ht="21">
       <c r="A314" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C314" s="13" t="s">
         <v>4</v>
@@ -6200,10 +6197,10 @@
     </row>
     <row r="315" spans="1:4" ht="21">
       <c r="A315" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C315" s="13" t="s">
         <v>4</v>
@@ -6214,10 +6211,10 @@
     </row>
     <row r="316" spans="1:4" ht="21">
       <c r="A316" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C316" s="13" t="s">
         <v>4</v>
@@ -6228,10 +6225,10 @@
     </row>
     <row r="317" spans="1:4" ht="21">
       <c r="A317" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C317" s="13" t="s">
         <v>4</v>
@@ -6242,10 +6239,10 @@
     </row>
     <row r="318" spans="1:4" ht="21">
       <c r="A318" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C318" s="13" t="s">
         <v>4</v>
@@ -6256,10 +6253,10 @@
     </row>
     <row r="319" spans="1:4" ht="21">
       <c r="A319" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C319" s="13" t="s">
         <v>4</v>
@@ -6270,10 +6267,10 @@
     </row>
     <row r="320" spans="1:4" ht="21">
       <c r="A320" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C320" s="13" t="s">
         <v>4</v>
@@ -6284,10 +6281,10 @@
     </row>
     <row r="321" spans="1:4" ht="21">
       <c r="A321" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C321" s="13" t="s">
         <v>4</v>
@@ -6298,10 +6295,10 @@
     </row>
     <row r="322" spans="1:4" ht="21">
       <c r="A322" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C322" s="13" t="s">
         <v>4</v>
@@ -6312,10 +6309,10 @@
     </row>
     <row r="323" spans="1:4" ht="21">
       <c r="A323" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C323" s="13" t="s">
         <v>4</v>
@@ -6326,10 +6323,10 @@
     </row>
     <row r="324" spans="1:4" ht="21">
       <c r="A324" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C324" s="13" t="s">
         <v>4</v>
@@ -6340,10 +6337,10 @@
     </row>
     <row r="325" spans="1:4" ht="21">
       <c r="A325" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C325" s="13" t="s">
         <v>4</v>
@@ -6354,10 +6351,10 @@
     </row>
     <row r="326" spans="1:4" ht="21">
       <c r="A326" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C326" s="13" t="s">
         <v>4</v>
@@ -6368,10 +6365,10 @@
     </row>
     <row r="327" spans="1:4" ht="21">
       <c r="A327" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C327" s="13" t="s">
         <v>4</v>
@@ -6382,10 +6379,10 @@
     </row>
     <row r="328" spans="1:4" ht="21">
       <c r="A328" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C328" s="13" t="s">
         <v>4</v>
@@ -6396,10 +6393,10 @@
     </row>
     <row r="329" spans="1:4" ht="21">
       <c r="A329" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C329" s="13" t="s">
         <v>4</v>
@@ -6410,10 +6407,10 @@
     </row>
     <row r="330" spans="1:4" ht="21">
       <c r="A330" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C330" s="13" t="s">
         <v>4</v>
@@ -6424,10 +6421,10 @@
     </row>
     <row r="331" spans="1:4" ht="21">
       <c r="A331" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C331" s="13" t="s">
         <v>4</v>
@@ -6438,10 +6435,10 @@
     </row>
     <row r="332" spans="1:4" ht="21">
       <c r="A332" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C332" s="13" t="s">
         <v>4</v>
@@ -6452,10 +6449,10 @@
     </row>
     <row r="333" spans="1:4" ht="21">
       <c r="A333" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C333" s="13" t="s">
         <v>4</v>
@@ -6478,10 +6475,10 @@
     </row>
     <row r="336" spans="1:4" ht="21">
       <c r="A336" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B336" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="B336" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="C336" s="13" t="s">
         <v>4</v>
@@ -6492,10 +6489,10 @@
     </row>
     <row r="337" spans="1:4" ht="21">
       <c r="A337" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C337" s="13" t="s">
         <v>4</v>
@@ -6506,10 +6503,10 @@
     </row>
     <row r="338" spans="1:4" ht="21">
       <c r="A338" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C338" s="13" t="s">
         <v>4</v>
@@ -6520,10 +6517,10 @@
     </row>
     <row r="339" spans="1:4" ht="21">
       <c r="A339" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C339" s="13" t="s">
         <v>4</v>
@@ -6534,10 +6531,10 @@
     </row>
     <row r="340" spans="1:4" ht="21">
       <c r="A340" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C340" s="13" t="s">
         <v>4</v>
@@ -6548,10 +6545,10 @@
     </row>
     <row r="341" spans="1:4" ht="21">
       <c r="A341" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C341" s="13" t="s">
         <v>4</v>
@@ -6562,10 +6559,10 @@
     </row>
     <row r="342" spans="1:4" ht="21">
       <c r="A342" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C342" s="13" t="s">
         <v>4</v>
@@ -6576,10 +6573,10 @@
     </row>
     <row r="343" spans="1:4" ht="21">
       <c r="A343" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C343" s="13" t="s">
         <v>4</v>
@@ -6590,10 +6587,10 @@
     </row>
     <row r="344" spans="1:4" ht="21">
       <c r="A344" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C344" s="13" t="s">
         <v>4</v>
@@ -6604,10 +6601,10 @@
     </row>
     <row r="345" spans="1:4" ht="21">
       <c r="A345" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C345" s="13" t="s">
         <v>4</v>
@@ -6618,10 +6615,10 @@
     </row>
     <row r="346" spans="1:4" ht="21">
       <c r="A346" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C346" s="13" t="s">
         <v>4</v>
@@ -6632,10 +6629,10 @@
     </row>
     <row r="347" spans="1:4" ht="21">
       <c r="A347" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C347" s="13" t="s">
         <v>4</v>
@@ -6646,10 +6643,10 @@
     </row>
     <row r="348" spans="1:4" ht="21">
       <c r="A348" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C348" s="13" t="s">
         <v>4</v>
@@ -6660,10 +6657,10 @@
     </row>
     <row r="349" spans="1:4" ht="21">
       <c r="A349" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C349" s="13" t="s">
         <v>4</v>
@@ -6674,10 +6671,10 @@
     </row>
     <row r="350" spans="1:4" ht="21">
       <c r="A350" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C350" s="13" t="s">
         <v>4</v>
@@ -6688,10 +6685,10 @@
     </row>
     <row r="351" spans="1:4" ht="21">
       <c r="A351" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C351" s="13" t="s">
         <v>4</v>
@@ -6702,10 +6699,10 @@
     </row>
     <row r="352" spans="1:4" ht="21">
       <c r="A352" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C352" s="13" t="s">
         <v>4</v>
@@ -6716,10 +6713,10 @@
     </row>
     <row r="353" spans="1:4" ht="21">
       <c r="A353" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C353" s="13" t="s">
         <v>4</v>
@@ -6742,10 +6739,10 @@
     </row>
     <row r="356" spans="1:4" ht="21">
       <c r="A356" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B356" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="B356" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="C356" s="13" t="s">
         <v>4</v>
@@ -6756,10 +6753,10 @@
     </row>
     <row r="357" spans="1:4" ht="21">
       <c r="A357" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C357" s="13" t="s">
         <v>4</v>
@@ -6770,10 +6767,10 @@
     </row>
     <row r="358" spans="1:4" ht="21">
       <c r="A358" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C358" s="13" t="s">
         <v>4</v>
@@ -6784,10 +6781,10 @@
     </row>
     <row r="359" spans="1:4" ht="21">
       <c r="A359" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C359" s="13" t="s">
         <v>4</v>
@@ -6798,10 +6795,10 @@
     </row>
     <row r="360" spans="1:4" ht="21">
       <c r="A360" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C360" s="13" t="s">
         <v>4</v>
@@ -6812,10 +6809,10 @@
     </row>
     <row r="361" spans="1:4" ht="21">
       <c r="A361" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C361" s="13" t="s">
         <v>4</v>
@@ -6826,10 +6823,10 @@
     </row>
     <row r="362" spans="1:4" ht="21">
       <c r="A362" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C362" s="13" t="s">
         <v>4</v>
@@ -6840,10 +6837,10 @@
     </row>
     <row r="363" spans="1:4" ht="21">
       <c r="A363" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C363" s="13" t="s">
         <v>4</v>
@@ -6854,10 +6851,10 @@
     </row>
     <row r="364" spans="1:4" ht="21">
       <c r="A364" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C364" s="13" t="s">
         <v>4</v>
@@ -6868,10 +6865,10 @@
     </row>
     <row r="365" spans="1:4" ht="21">
       <c r="A365" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C365" s="13" t="s">
         <v>4</v>
@@ -6882,10 +6879,10 @@
     </row>
     <row r="366" spans="1:4" ht="21">
       <c r="A366" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C366" s="13" t="s">
         <v>4</v>
@@ -6896,10 +6893,10 @@
     </row>
     <row r="367" spans="1:4" ht="21">
       <c r="A367" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C367" s="13" t="s">
         <v>4</v>
@@ -6910,10 +6907,10 @@
     </row>
     <row r="368" spans="1:4" ht="21">
       <c r="A368" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C368" s="13" t="s">
         <v>4</v>
@@ -6924,10 +6921,10 @@
     </row>
     <row r="369" spans="1:4" ht="21">
       <c r="A369" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C369" s="13" t="s">
         <v>4</v>
@@ -6938,10 +6935,10 @@
     </row>
     <row r="370" spans="1:4" ht="21">
       <c r="A370" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C370" s="13" t="s">
         <v>4</v>
@@ -6952,10 +6949,10 @@
     </row>
     <row r="371" spans="1:4" ht="21">
       <c r="A371" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C371" s="13" t="s">
         <v>4</v>
@@ -6966,10 +6963,10 @@
     </row>
     <row r="372" spans="1:4" ht="21">
       <c r="A372" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C372" s="13" t="s">
         <v>4</v>
@@ -6980,10 +6977,10 @@
     </row>
     <row r="373" spans="1:4" ht="21">
       <c r="A373" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C373" s="13" t="s">
         <v>4</v>
@@ -6994,10 +6991,10 @@
     </row>
     <row r="374" spans="1:4" ht="21">
       <c r="A374" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C374" s="13" t="s">
         <v>4</v>
@@ -7008,10 +7005,10 @@
     </row>
     <row r="375" spans="1:4" ht="21">
       <c r="A375" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C375" s="13" t="s">
         <v>4</v>
@@ -7022,10 +7019,10 @@
     </row>
     <row r="376" spans="1:4" ht="21">
       <c r="A376" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C376" s="13" t="s">
         <v>4</v>
@@ -7036,10 +7033,10 @@
     </row>
     <row r="377" spans="1:4" ht="21">
       <c r="A377" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C377" s="13" t="s">
         <v>4</v>
@@ -7050,10 +7047,10 @@
     </row>
     <row r="378" spans="1:4" ht="21">
       <c r="A378" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C378" s="13" t="s">
         <v>4</v>
@@ -7064,10 +7061,10 @@
     </row>
     <row r="379" spans="1:4" ht="21">
       <c r="A379" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C379" s="13" t="s">
         <v>4</v>
@@ -7078,10 +7075,10 @@
     </row>
     <row r="380" spans="1:4" ht="21">
       <c r="A380" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C380" s="13" t="s">
         <v>4</v>
@@ -7092,10 +7089,10 @@
     </row>
     <row r="381" spans="1:4" ht="21">
       <c r="A381" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C381" s="13" t="s">
         <v>4</v>
@@ -7106,10 +7103,10 @@
     </row>
     <row r="382" spans="1:4" ht="21">
       <c r="A382" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C382" s="13" t="s">
         <v>4</v>
@@ -7120,10 +7117,10 @@
     </row>
     <row r="383" spans="1:4" ht="21">
       <c r="A383" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C383" s="13" t="s">
         <v>4</v>
@@ -7134,10 +7131,10 @@
     </row>
     <row r="384" spans="1:4" ht="21">
       <c r="A384" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C384" s="13" t="s">
         <v>4</v>
@@ -7148,10 +7145,10 @@
     </row>
     <row r="385" spans="1:4" ht="21">
       <c r="A385" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C385" s="13" t="s">
         <v>4</v>
@@ -7162,10 +7159,10 @@
     </row>
     <row r="386" spans="1:4" ht="21">
       <c r="A386" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C386" s="13" t="s">
         <v>4</v>
@@ -7176,10 +7173,10 @@
     </row>
     <row r="387" spans="1:4" ht="21">
       <c r="A387" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C387" s="13" t="s">
         <v>4</v>
@@ -7190,10 +7187,10 @@
     </row>
     <row r="388" spans="1:4" ht="21">
       <c r="A388" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C388" s="13" t="s">
         <v>4</v>
@@ -7204,10 +7201,10 @@
     </row>
     <row r="389" spans="1:4" ht="21">
       <c r="A389" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C389" s="13" t="s">
         <v>4</v>
@@ -7218,10 +7215,10 @@
     </row>
     <row r="390" spans="1:4" ht="21">
       <c r="A390" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C390" s="13" t="s">
         <v>4</v>
@@ -7232,10 +7229,10 @@
     </row>
     <row r="391" spans="1:4" ht="21">
       <c r="A391" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C391" s="13" t="s">
         <v>4</v>
@@ -7246,10 +7243,10 @@
     </row>
     <row r="392" spans="1:4" ht="21">
       <c r="A392" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C392" s="13" t="s">
         <v>4</v>
@@ -7260,10 +7257,10 @@
     </row>
     <row r="393" spans="1:4" ht="21">
       <c r="A393" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C393" s="13" t="s">
         <v>4</v>
@@ -7274,10 +7271,10 @@
     </row>
     <row r="394" spans="1:4" ht="21">
       <c r="A394" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C394" s="13" t="s">
         <v>4</v>
@@ -7288,10 +7285,10 @@
     </row>
     <row r="395" spans="1:4" ht="21">
       <c r="A395" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C395" s="13" t="s">
         <v>4</v>
@@ -7302,10 +7299,10 @@
     </row>
     <row r="396" spans="1:4" ht="21">
       <c r="A396" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C396" s="13" t="s">
         <v>4</v>
@@ -7316,10 +7313,10 @@
     </row>
     <row r="397" spans="1:4" ht="21">
       <c r="A397" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C397" s="13" t="s">
         <v>4</v>
@@ -7330,10 +7327,10 @@
     </row>
     <row r="398" spans="1:4" ht="21">
       <c r="A398" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C398" s="13" t="s">
         <v>4</v>
@@ -7344,10 +7341,10 @@
     </row>
     <row r="399" spans="1:4" ht="21">
       <c r="A399" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C399" s="13" t="s">
         <v>4</v>
@@ -7370,10 +7367,10 @@
     </row>
     <row r="402" spans="1:4" ht="21">
       <c r="A402" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B402" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="B402" s="8" t="s">
-        <v>388</v>
       </c>
       <c r="C402" s="13" t="s">
         <v>4</v>
@@ -7384,10 +7381,10 @@
     </row>
     <row r="403" spans="1:4" ht="21">
       <c r="A403" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C403" s="13" t="s">
         <v>4</v>
@@ -7398,10 +7395,10 @@
     </row>
     <row r="404" spans="1:4" ht="21">
       <c r="A404" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C404" s="13" t="s">
         <v>4</v>
@@ -7412,10 +7409,10 @@
     </row>
     <row r="405" spans="1:4" ht="21">
       <c r="A405" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C405" s="13" t="s">
         <v>4</v>
@@ -7426,10 +7423,10 @@
     </row>
     <row r="406" spans="1:4" ht="21">
       <c r="A406" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C406" s="13" t="s">
         <v>4</v>
@@ -7440,10 +7437,10 @@
     </row>
     <row r="407" spans="1:4" ht="21">
       <c r="A407" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C407" s="13" t="s">
         <v>4</v>
@@ -7466,10 +7463,10 @@
     </row>
     <row r="410" spans="1:4" ht="21">
       <c r="A410" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B410" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="B410" s="8" t="s">
-        <v>394</v>
       </c>
       <c r="C410" s="13" t="s">
         <v>4</v>
@@ -7480,10 +7477,10 @@
     </row>
     <row r="411" spans="1:4" ht="21">
       <c r="A411" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C411" s="13" t="s">
         <v>4</v>
@@ -7494,10 +7491,10 @@
     </row>
     <row r="412" spans="1:4" ht="21">
       <c r="A412" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C412" s="13" t="s">
         <v>4</v>
@@ -7508,10 +7505,10 @@
     </row>
     <row r="413" spans="1:4" ht="21">
       <c r="A413" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C413" s="13" t="s">
         <v>4</v>
@@ -7522,10 +7519,10 @@
     </row>
     <row r="414" spans="1:4" ht="21">
       <c r="A414" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C414" s="13" t="s">
         <v>4</v>
@@ -7536,10 +7533,10 @@
     </row>
     <row r="415" spans="1:4" ht="21">
       <c r="A415" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C415" s="13" t="s">
         <v>4</v>
@@ -7550,10 +7547,10 @@
     </row>
     <row r="416" spans="1:4" ht="21">
       <c r="A416" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C416" s="13" t="s">
         <v>4</v>
@@ -7564,10 +7561,10 @@
     </row>
     <row r="417" spans="1:4" ht="21">
       <c r="A417" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C417" s="13" t="s">
         <v>4</v>
@@ -7578,10 +7575,10 @@
     </row>
     <row r="418" spans="1:4" ht="21">
       <c r="A418" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C418" s="13" t="s">
         <v>4</v>
@@ -7592,10 +7589,10 @@
     </row>
     <row r="419" spans="1:4" ht="21">
       <c r="A419" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C419" s="13" t="s">
         <v>4</v>
@@ -7606,10 +7603,10 @@
     </row>
     <row r="420" spans="1:4" ht="21">
       <c r="A420" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C420" s="13" t="s">
         <v>4</v>
@@ -7620,10 +7617,10 @@
     </row>
     <row r="421" spans="1:4" ht="21">
       <c r="A421" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C421" s="13" t="s">
         <v>4</v>
@@ -7634,10 +7631,10 @@
     </row>
     <row r="422" spans="1:4" ht="21">
       <c r="A422" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C422" s="13" t="s">
         <v>4</v>
@@ -7648,10 +7645,10 @@
     </row>
     <row r="423" spans="1:4" ht="21">
       <c r="A423" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C423" s="13" t="s">
         <v>4</v>
@@ -7662,10 +7659,10 @@
     </row>
     <row r="424" spans="1:4" ht="21">
       <c r="A424" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C424" s="13" t="s">
         <v>4</v>
@@ -7676,10 +7673,10 @@
     </row>
     <row r="425" spans="1:4" ht="21">
       <c r="A425" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C425" s="13" t="s">
         <v>4</v>
@@ -7690,10 +7687,10 @@
     </row>
     <row r="426" spans="1:4" ht="21">
       <c r="A426" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C426" s="13" t="s">
         <v>4</v>
@@ -7704,10 +7701,10 @@
     </row>
     <row r="427" spans="1:4" ht="21">
       <c r="A427" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C427" s="13" t="s">
         <v>4</v>
@@ -7718,10 +7715,10 @@
     </row>
     <row r="428" spans="1:4" ht="21">
       <c r="A428" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C428" s="13" t="s">
         <v>4</v>
@@ -7732,10 +7729,10 @@
     </row>
     <row r="429" spans="1:4" ht="21">
       <c r="A429" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C429" s="13" t="s">
         <v>4</v>
@@ -7746,10 +7743,10 @@
     </row>
     <row r="430" spans="1:4" ht="21">
       <c r="A430" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C430" s="13" t="s">
         <v>4</v>
@@ -7760,10 +7757,10 @@
     </row>
     <row r="431" spans="1:4" ht="21">
       <c r="A431" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C431" s="13" t="s">
         <v>4</v>
@@ -7774,10 +7771,10 @@
     </row>
     <row r="432" spans="1:4" ht="21">
       <c r="A432" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C432" s="13" t="s">
         <v>4</v>
@@ -7788,10 +7785,10 @@
     </row>
     <row r="433" spans="1:4" ht="21">
       <c r="A433" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C433" s="13" t="s">
         <v>4</v>
@@ -7802,10 +7799,10 @@
     </row>
     <row r="434" spans="1:4" ht="21">
       <c r="A434" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C434" s="13" t="s">
         <v>4</v>
@@ -7816,10 +7813,10 @@
     </row>
     <row r="435" spans="1:4" ht="21">
       <c r="A435" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C435" s="13" t="s">
         <v>4</v>
@@ -7830,10 +7827,10 @@
     </row>
     <row r="436" spans="1:4" ht="21">
       <c r="A436" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C436" s="13" t="s">
         <v>4</v>
@@ -7844,10 +7841,10 @@
     </row>
     <row r="437" spans="1:4" ht="21">
       <c r="A437" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C437" s="13" t="s">
         <v>4</v>
@@ -7858,10 +7855,10 @@
     </row>
     <row r="438" spans="1:4" ht="21">
       <c r="A438" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C438" s="13" t="s">
         <v>4</v>
@@ -7872,10 +7869,10 @@
     </row>
     <row r="439" spans="1:4" ht="21">
       <c r="A439" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C439" s="13" t="s">
         <v>4</v>
@@ -7886,10 +7883,10 @@
     </row>
     <row r="440" spans="1:4" ht="21">
       <c r="A440" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C440" s="13" t="s">
         <v>4</v>
@@ -7900,10 +7897,10 @@
     </row>
     <row r="441" spans="1:4" ht="21">
       <c r="A441" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C441" s="13" t="s">
         <v>4</v>
@@ -7914,10 +7911,10 @@
     </row>
     <row r="442" spans="1:4" ht="21">
       <c r="A442" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C442" s="13" t="s">
         <v>4</v>
@@ -7928,10 +7925,10 @@
     </row>
     <row r="443" spans="1:4" ht="21">
       <c r="A443" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C443" s="13" t="s">
         <v>4</v>
@@ -7942,10 +7939,10 @@
     </row>
     <row r="444" spans="1:4" ht="21">
       <c r="A444" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C444" s="13" t="s">
         <v>4</v>
@@ -7956,10 +7953,10 @@
     </row>
     <row r="445" spans="1:4" ht="21">
       <c r="A445" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C445" s="13" t="s">
         <v>4</v>
@@ -7970,10 +7967,10 @@
     </row>
     <row r="446" spans="1:4" ht="21">
       <c r="A446" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C446" s="13" t="s">
         <v>4</v>
@@ -7984,10 +7981,10 @@
     </row>
     <row r="447" spans="1:4" ht="21">
       <c r="A447" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C447" s="13" t="s">
         <v>4</v>
@@ -7998,10 +7995,10 @@
     </row>
     <row r="448" spans="1:4" ht="21">
       <c r="A448" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C448" s="13" t="s">
         <v>4</v>
@@ -8012,10 +8009,10 @@
     </row>
     <row r="449" spans="1:4" ht="21">
       <c r="A449" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C449" s="13" t="s">
         <v>4</v>
@@ -8026,10 +8023,10 @@
     </row>
     <row r="450" spans="1:4" ht="21">
       <c r="A450" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C450" s="13" t="s">
         <v>4</v>
@@ -8040,10 +8037,10 @@
     </row>
     <row r="451" spans="1:4" ht="21">
       <c r="A451" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C451" s="13" t="s">
         <v>4</v>
@@ -8054,10 +8051,10 @@
     </row>
     <row r="452" spans="1:4" ht="21">
       <c r="A452" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C452" s="13" t="s">
         <v>4</v>
@@ -8068,10 +8065,10 @@
     </row>
     <row r="453" spans="1:4" ht="21">
       <c r="A453" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C453" s="13" t="s">
         <v>4</v>
@@ -8082,10 +8079,10 @@
     </row>
     <row r="454" spans="1:4" ht="21">
       <c r="A454" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C454" s="13" t="s">
         <v>4</v>
@@ -8096,10 +8093,10 @@
     </row>
     <row r="455" spans="1:4" ht="21">
       <c r="A455" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C455" s="13" t="s">
         <v>4</v>
@@ -8110,10 +8107,10 @@
     </row>
     <row r="456" spans="1:4" ht="21">
       <c r="A456" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C456" s="13" t="s">
         <v>4</v>
@@ -8124,10 +8121,10 @@
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C457" s="13" t="s">
         <v>4</v>
@@ -8138,10 +8135,10 @@
     </row>
     <row r="458" spans="1:4" ht="21">
       <c r="A458" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C458" s="13" t="s">
         <v>4</v>
@@ -8152,10 +8149,10 @@
     </row>
     <row r="459" spans="1:4" ht="21">
       <c r="A459" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C459" s="13" t="s">
         <v>4</v>
@@ -8166,10 +8163,10 @@
     </row>
     <row r="460" spans="1:4" ht="21">
       <c r="A460" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C460" s="13" t="s">
         <v>4</v>
@@ -8180,10 +8177,10 @@
     </row>
     <row r="461" spans="1:4" ht="21">
       <c r="A461" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C461" s="13" t="s">
         <v>4</v>
@@ -8194,10 +8191,10 @@
     </row>
     <row r="462" spans="1:4" ht="21">
       <c r="A462" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C462" s="13" t="s">
         <v>4</v>
@@ -8208,10 +8205,10 @@
     </row>
     <row r="463" spans="1:4" ht="21">
       <c r="A463" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C463" s="13" t="s">
         <v>4</v>
@@ -8222,10 +8219,10 @@
     </row>
     <row r="464" spans="1:4" ht="21">
       <c r="A464" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C464" s="13" t="s">
         <v>4</v>
@@ -8236,10 +8233,10 @@
     </row>
     <row r="465" spans="1:4" ht="21">
       <c r="A465" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C465" s="13" t="s">
         <v>4</v>
@@ -8250,10 +8247,10 @@
     </row>
     <row r="466" spans="1:4" ht="21">
       <c r="A466" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C466" s="13" t="s">
         <v>4</v>
@@ -8264,10 +8261,10 @@
     </row>
     <row r="467" spans="1:4" ht="21">
       <c r="A467" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C467" s="13" t="s">
         <v>4</v>
@@ -8278,10 +8275,10 @@
     </row>
     <row r="468" spans="1:4" ht="21">
       <c r="A468" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C468" s="13" t="s">
         <v>4</v>
@@ -8292,10 +8289,10 @@
     </row>
     <row r="469" spans="1:4" ht="21">
       <c r="A469" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C469" s="13" t="s">
         <v>4</v>
@@ -8318,10 +8315,10 @@
     </row>
     <row r="472" spans="1:4" ht="21">
       <c r="A472" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B472" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="B472" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="C472" s="13" t="s">
         <v>4</v>
@@ -8332,10 +8329,10 @@
     </row>
     <row r="473" spans="1:4" ht="21">
       <c r="A473" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C473" s="13" t="s">
         <v>4</v>
@@ -8346,10 +8343,10 @@
     </row>
     <row r="474" spans="1:4" ht="21">
       <c r="A474" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C474" s="13" t="s">
         <v>4</v>
@@ -8360,10 +8357,10 @@
     </row>
     <row r="475" spans="1:4" ht="21">
       <c r="A475" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C475" s="13" t="s">
         <v>4</v>
@@ -8374,10 +8371,10 @@
     </row>
     <row r="476" spans="1:4" ht="21">
       <c r="A476" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C476" s="13" t="s">
         <v>4</v>
@@ -8388,10 +8385,10 @@
     </row>
     <row r="477" spans="1:4" ht="21">
       <c r="A477" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C477" s="13" t="s">
         <v>4</v>
@@ -8402,10 +8399,10 @@
     </row>
     <row r="478" spans="1:4" ht="21">
       <c r="A478" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C478" s="13" t="s">
         <v>4</v>
@@ -8416,10 +8413,10 @@
     </row>
     <row r="479" spans="1:4" ht="21">
       <c r="A479" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C479" s="13" t="s">
         <v>4</v>
@@ -8430,10 +8427,10 @@
     </row>
     <row r="480" spans="1:4" ht="21">
       <c r="A480" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C480" s="13" t="s">
         <v>4</v>
@@ -8444,10 +8441,10 @@
     </row>
     <row r="481" spans="1:4" ht="21">
       <c r="A481" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C481" s="13" t="s">
         <v>4</v>
@@ -8491,420 +8488,421 @@
     <hyperlink ref="B36" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
     <hyperlink ref="B37" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
     <hyperlink ref="B38" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="B40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B45" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B46" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B47" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B49" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B50" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B52" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B53" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B56" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B57" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B58" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B60" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B61" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B62" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B64" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B67" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B68" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B69" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B70" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B71" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B72" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B73" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B74" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B75" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B76" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B77" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B78" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B79" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B80" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B81" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B82" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B83" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B84" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B85" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B86" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B87" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B88" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B89" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B90" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B91" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B92" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B93" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B94" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B95" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B96" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B97" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B98" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B101" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B102" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B103" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B104" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B107" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B108" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B109" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B110" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B111" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B113" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B114" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B115" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B116" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B117" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B118" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B119" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B120" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B121" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B122" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B123" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B124" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B125" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B126" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B127" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B128" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B129" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B130" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B131" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B132" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B133" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B134" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B135" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B136" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B105" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B112" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B139" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B140" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B141" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B142" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B143" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B144" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B145" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B146" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B147" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B148" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B149" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B150" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B151" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B152" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B153" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B154" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B155" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B156" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B157" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B158" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B159" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B160" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B161" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B162" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B163" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B166" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B167" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B168" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B169" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B170" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B171" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B172" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B173" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B174" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B177" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B178" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B179" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B180" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B181" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B182" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B183" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B184" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B185" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B186" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B187" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B188" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B189" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B190" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B191" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B192" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B193" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B194" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B195" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B196" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B198" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B199" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B200" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B201" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B202" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B204" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B205" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B206" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B207" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B208" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B209" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B210" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B211" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B214" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B215" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B216" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B217" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B218" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B219" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B220" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B221" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B222" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B223" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B224" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B225" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B226" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B227" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B228" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B229" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B230" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B231" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B232" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B233" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B234" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B235" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B238" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B239" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B240" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B241" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B242" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B243" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B244" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B245" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B246" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B247" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B248" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B249" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B250" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B251" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B252" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B253" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B254" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B255" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B256" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B258" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B259" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B260" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B261" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B262" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B263" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B264" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B265" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B266" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B267" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B268" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B269" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B270" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B271" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B272" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B275" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B276" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B277" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B278" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B279" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B280" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B281" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B282" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B283" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B284" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B285" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B286" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B287" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B288" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B289" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B290" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B291" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B292" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B293" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B296" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B297" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B298" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B299" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B305" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B307" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B316" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B317" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B325" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B326" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B327" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B328" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B329" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B330" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B331" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B332" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B333" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B343" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B351" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B352" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B353" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B357" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B358" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B359" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B360" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B361" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B362" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B363" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B364" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B365" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B366" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B373" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B374" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B375" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B376" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B377" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B378" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B380" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B381" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B382" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B383" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B384" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B385" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B386" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B387" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B388" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B389" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B390" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B391" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B392" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B393" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B394" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B396" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B397" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B398" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B399" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B402" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B403" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B404" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B414" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B415" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B416" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B417" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B418" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B419" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B420" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B421" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B422" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B423" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B424" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B425" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B426" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B429" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B430" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B431" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B432" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B433" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B434" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B435" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B436" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B437" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B438" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B439" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B440" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B441" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B442" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B443" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B444" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B445" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B446" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B447" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B448" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B449" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B451" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B450" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B452" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B453" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B454" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B455" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B456" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B457" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B458" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B459" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B460" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B461" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B462" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B469" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B468" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B467" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B466" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B464" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B463" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B472" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B473" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B474" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B475" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B476" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B477" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B478" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B481" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B40" r:id="rId34" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="B41" r:id="rId35" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="B44" r:id="rId36" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B45" r:id="rId37" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B46" r:id="rId38" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B47" r:id="rId39" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B48" r:id="rId40" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B49" r:id="rId41" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B50" r:id="rId42" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B51" r:id="rId43" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B52" r:id="rId44" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B53" r:id="rId45" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B56" r:id="rId46" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B57" r:id="rId47" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B58" r:id="rId48" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B60" r:id="rId49" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B61" r:id="rId50" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B62" r:id="rId51" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B63" r:id="rId52" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B64" r:id="rId53" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B65" r:id="rId54" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B66" r:id="rId55" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B67" r:id="rId56" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B68" r:id="rId57" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B69" r:id="rId58" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B70" r:id="rId59" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B71" r:id="rId60" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B72" r:id="rId61" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B73" r:id="rId62" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B74" r:id="rId63" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B75" r:id="rId64" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B76" r:id="rId65" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B77" r:id="rId66" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B78" r:id="rId67" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B79" r:id="rId68" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B80" r:id="rId69" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B81" r:id="rId70" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B82" r:id="rId71" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B83" r:id="rId72" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B84" r:id="rId73" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B85" r:id="rId74" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B86" r:id="rId75" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B87" r:id="rId76" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B88" r:id="rId77" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B89" r:id="rId78" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B90" r:id="rId79" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B91" r:id="rId80" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B93" r:id="rId82" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B94" r:id="rId83" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B95" r:id="rId84" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B96" r:id="rId85" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B97" r:id="rId86" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B98" r:id="rId87" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B101" r:id="rId88" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B102" r:id="rId89" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B103" r:id="rId90" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B104" r:id="rId91" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B106" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B107" r:id="rId93" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B108" r:id="rId94" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B109" r:id="rId95" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B110" r:id="rId96" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B111" r:id="rId97" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B113" r:id="rId98" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B114" r:id="rId99" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B115" r:id="rId100" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B116" r:id="rId101" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B117" r:id="rId102" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B118" r:id="rId103" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B119" r:id="rId104" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B120" r:id="rId105" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B121" r:id="rId106" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B122" r:id="rId107" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B123" r:id="rId108" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B124" r:id="rId109" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B125" r:id="rId110" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B126" r:id="rId111" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B127" r:id="rId112" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B128" r:id="rId113" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B129" r:id="rId114" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B130" r:id="rId115" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B131" r:id="rId116" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B132" r:id="rId117" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B133" r:id="rId118" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B134" r:id="rId119" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B135" r:id="rId120" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B136" r:id="rId121" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B105" r:id="rId122" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B112" r:id="rId123" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B139" r:id="rId124" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B140" r:id="rId125" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B141" r:id="rId126" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B143" r:id="rId128" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B144" r:id="rId129" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B146" r:id="rId131" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B147" r:id="rId132" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B148" r:id="rId133" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B149" r:id="rId134" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B150" r:id="rId135" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B151" r:id="rId136" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B152" r:id="rId137" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B153" r:id="rId138" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B154" r:id="rId139" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B155" r:id="rId140" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B156" r:id="rId141" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B157" r:id="rId142" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B158" r:id="rId143" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B159" r:id="rId144" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B160" r:id="rId145" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B161" r:id="rId146" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B162" r:id="rId147" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B163" r:id="rId148" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B166" r:id="rId149" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B167" r:id="rId150" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B168" r:id="rId151" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B169" r:id="rId152" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B170" r:id="rId153" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B171" r:id="rId154" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B172" r:id="rId155" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B173" r:id="rId156" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B174" r:id="rId157" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B177" r:id="rId158" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B178" r:id="rId159" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B179" r:id="rId160" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B180" r:id="rId161" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B181" r:id="rId162" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B182" r:id="rId163" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B183" r:id="rId164" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B184" r:id="rId165" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B185" r:id="rId166" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B186" r:id="rId167" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B187" r:id="rId168" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B188" r:id="rId169" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B189" r:id="rId170" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B190" r:id="rId171" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B191" r:id="rId172" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B192" r:id="rId173" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B193" r:id="rId174" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B194" r:id="rId175" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B195" r:id="rId176" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B196" r:id="rId177" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B197" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B198" r:id="rId179" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B199" r:id="rId180" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B200" r:id="rId181" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B201" r:id="rId182" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B202" r:id="rId183" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B203" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B204" r:id="rId185" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B205" r:id="rId186" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B206" r:id="rId187" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B207" r:id="rId188" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B208" r:id="rId189" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B209" r:id="rId190" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B210" r:id="rId191" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B211" r:id="rId192" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B214" r:id="rId193" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B215" r:id="rId194" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B216" r:id="rId195" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B217" r:id="rId196" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B218" r:id="rId197" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B219" r:id="rId198" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B220" r:id="rId199" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B221" r:id="rId200" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B222" r:id="rId201" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B223" r:id="rId202" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B224" r:id="rId203" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B225" r:id="rId204" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B226" r:id="rId205" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B227" r:id="rId206" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B228" r:id="rId207" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B229" r:id="rId208" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B230" r:id="rId209" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B231" r:id="rId210" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B232" r:id="rId211" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B233" r:id="rId212" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B234" r:id="rId213" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B235" r:id="rId214" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B238" r:id="rId215" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B239" r:id="rId216" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B240" r:id="rId217" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B241" r:id="rId218" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B242" r:id="rId219" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B243" r:id="rId220" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B244" r:id="rId221" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B245" r:id="rId222" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B246" r:id="rId223" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B247" r:id="rId224" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B248" r:id="rId225" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B249" r:id="rId226" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B250" r:id="rId227" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B251" r:id="rId228" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B252" r:id="rId229" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B254" r:id="rId231" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B255" r:id="rId232" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B256" r:id="rId233" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B257" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B258" r:id="rId235" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B259" r:id="rId236" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B260" r:id="rId237" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B261" r:id="rId238" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B262" r:id="rId239" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B263" r:id="rId240" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B264" r:id="rId241" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B265" r:id="rId242" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B266" r:id="rId243" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B267" r:id="rId244" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B268" r:id="rId245" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B269" r:id="rId246" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B270" r:id="rId247" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B271" r:id="rId248" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B272" r:id="rId249" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B275" r:id="rId250" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B276" r:id="rId251" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B277" r:id="rId252" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B278" r:id="rId253" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B279" r:id="rId254" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B280" r:id="rId255" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B281" r:id="rId256" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B282" r:id="rId257" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B283" r:id="rId258" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B284" r:id="rId259" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B285" r:id="rId260" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B286" r:id="rId261" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B287" r:id="rId262" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B288" r:id="rId263" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B289" r:id="rId264" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B290" r:id="rId265" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B291" r:id="rId266" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B292" r:id="rId267" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B293" r:id="rId268" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B296" r:id="rId269" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B297" r:id="rId270" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B298" r:id="rId271" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B299" r:id="rId272" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B300" r:id="rId273" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B301" r:id="rId274" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B302" r:id="rId275" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B303" r:id="rId276" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B304" r:id="rId277" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B305" r:id="rId278" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B306" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B307" r:id="rId280" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B308" r:id="rId281" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B309" r:id="rId282" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B310" r:id="rId283" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B311" r:id="rId284" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B312" r:id="rId285" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B313" r:id="rId286" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B314" r:id="rId287" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B315" r:id="rId288" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B316" r:id="rId289" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B317" r:id="rId290" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B318" r:id="rId291" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B319" r:id="rId292" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B320" r:id="rId293" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B321" r:id="rId294" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B322" r:id="rId295" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B323" r:id="rId296" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B324" r:id="rId297" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B325" r:id="rId298" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B326" r:id="rId299" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B327" r:id="rId300" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B328" r:id="rId301" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B329" r:id="rId302" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B330" r:id="rId303" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B331" r:id="rId304" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B332" r:id="rId305" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B333" r:id="rId306" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B336" r:id="rId307" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B337" r:id="rId308" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B338" r:id="rId309" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B339" r:id="rId310" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B340" r:id="rId311" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B341" r:id="rId312" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B342" r:id="rId313" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B343" r:id="rId314" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B344" r:id="rId315" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B345" r:id="rId316" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B346" r:id="rId317" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B347" r:id="rId318" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B348" r:id="rId319" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B349" r:id="rId320" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B350" r:id="rId321" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B351" r:id="rId322" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B352" r:id="rId323" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B353" r:id="rId324" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B357" r:id="rId325" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B358" r:id="rId326" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B359" r:id="rId327" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B360" r:id="rId328" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B361" r:id="rId329" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B362" r:id="rId330" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B363" r:id="rId331" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B364" r:id="rId332" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B365" r:id="rId333" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B366" r:id="rId334" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B367" r:id="rId335" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B368" r:id="rId336" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B369" r:id="rId337" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B370" r:id="rId338" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B371" r:id="rId339" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B372" r:id="rId340" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B373" r:id="rId341" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B374" r:id="rId342" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B375" r:id="rId343" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B376" r:id="rId344" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B377" r:id="rId345" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B378" r:id="rId346" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B379" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B380" r:id="rId348" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B381" r:id="rId349" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B382" r:id="rId350" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B383" r:id="rId351" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B384" r:id="rId352" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B385" r:id="rId353" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B386" r:id="rId354" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B387" r:id="rId355" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B388" r:id="rId356" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B389" r:id="rId357" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B390" r:id="rId358" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B391" r:id="rId359" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B392" r:id="rId360" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B393" r:id="rId361" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B394" r:id="rId362" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B396" r:id="rId363" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B395" r:id="rId364" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B397" r:id="rId365" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B398" r:id="rId366" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B399" r:id="rId367" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B402" r:id="rId368" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B403" r:id="rId369" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B404" r:id="rId370" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B405" r:id="rId371" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B406" r:id="rId372" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B407" r:id="rId373" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B410" r:id="rId374" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B411" r:id="rId375" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B412" r:id="rId376" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B413" r:id="rId377" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B414" r:id="rId378" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B415" r:id="rId379" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B416" r:id="rId380" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B417" r:id="rId381" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B418" r:id="rId382" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B419" r:id="rId383" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B420" r:id="rId384" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B421" r:id="rId385" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B422" r:id="rId386" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B423" r:id="rId387" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B424" r:id="rId388" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B425" r:id="rId389" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B426" r:id="rId390" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B427" r:id="rId391" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B428" r:id="rId392" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B429" r:id="rId393" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B430" r:id="rId394" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B431" r:id="rId395" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B432" r:id="rId396" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B433" r:id="rId397" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B434" r:id="rId398" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B435" r:id="rId399" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B436" r:id="rId400" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B437" r:id="rId401" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B438" r:id="rId402" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B439" r:id="rId403" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B440" r:id="rId404" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B441" r:id="rId405" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B442" r:id="rId406" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B443" r:id="rId407" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B444" r:id="rId408" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B445" r:id="rId409" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B446" r:id="rId410" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B447" r:id="rId411" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B448" r:id="rId412" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B449" r:id="rId413" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B451" r:id="rId414" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B450" r:id="rId415" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B452" r:id="rId416" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B453" r:id="rId417" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B454" r:id="rId418" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B455" r:id="rId419" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B456" r:id="rId420" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B457" r:id="rId421" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B458" r:id="rId422" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B459" r:id="rId423" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B460" r:id="rId424" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B461" r:id="rId425" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B462" r:id="rId426" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B469" r:id="rId427" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B468" r:id="rId428" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B467" r:id="rId429" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B466" r:id="rId430" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B465" r:id="rId431" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B464" r:id="rId432" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B463" r:id="rId433" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B472" r:id="rId434" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B473" r:id="rId435" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B474" r:id="rId436" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B475" r:id="rId437" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B476" r:id="rId438" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B477" r:id="rId439" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B478" r:id="rId440" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B481" r:id="rId441" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B479" r:id="rId442" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B356" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B39" r:id="rId446" xr:uid="{181D0725-4936-49DE-8DD0-0BB678347751}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Desktop\PROJECT CP\dsa-practice-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DD0F3E-8A10-4029-BECA-47667BF7EA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B911CAE-6617-46D2-BCD9-28F43029752F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1962,7 +1962,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2480,8 +2480,8 @@
       <c r="B39" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>4</v>
+      <c r="C39" s="12" t="s">
+        <v>464</v>
       </c>
       <c r="D39" s="6">
         <v>34</v>
@@ -2494,8 +2494,8 @@
       <c r="B40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>4</v>
+      <c r="C40" s="12" t="s">
+        <v>464</v>
       </c>
       <c r="D40" s="6">
         <v>35</v>
@@ -2508,8 +2508,8 @@
       <c r="B41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>4</v>
+      <c r="C41" s="12" t="s">
+        <v>464</v>
       </c>
       <c r="D41" s="6">
         <v>36</v>
